--- a/storage/excel/sum912.xlsx
+++ b/storage/excel/sum912.xlsx
@@ -2210,24 +2210,12 @@
       <c r="D13" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="89">
-        <v>125282</v>
-      </c>
-      <c r="F13" s="89">
-        <v>8.86</v>
-      </c>
-      <c r="G13" s="89">
-        <v>289165</v>
-      </c>
-      <c r="H13" s="89">
-        <v>9.47</v>
-      </c>
-      <c r="I13" s="89">
-        <v>409454.35528821</v>
-      </c>
-      <c r="J13" s="89">
-        <v>9.17</v>
-      </c>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
       <c r="K13" s="30"/>
       <c r="L13" s="30"/>
       <c r="M13" s="30"/>
@@ -2356,24 +2344,12 @@
       <c r="D14" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="89">
-        <v>540823</v>
-      </c>
-      <c r="F14" s="89">
-        <v>38.25</v>
-      </c>
-      <c r="G14" s="89">
-        <v>772306</v>
-      </c>
-      <c r="H14" s="89">
-        <v>25.29</v>
-      </c>
-      <c r="I14" s="89">
-        <v>1419368.3078626</v>
-      </c>
-      <c r="J14" s="89">
-        <v>31.77</v>
-      </c>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
       <c r="K14" s="30"/>
       <c r="L14" s="30"/>
       <c r="M14" s="30"/>
@@ -2490,24 +2466,12 @@
       <c r="D15" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="89">
-        <v>31734</v>
-      </c>
-      <c r="F15" s="89">
-        <v>2.24</v>
-      </c>
-      <c r="G15" s="89">
-        <v>32329</v>
-      </c>
-      <c r="H15" s="89">
-        <v>1.06</v>
-      </c>
-      <c r="I15" s="89">
-        <v>73783.847510385</v>
-      </c>
-      <c r="J15" s="89">
-        <v>1.65</v>
-      </c>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
       <c r="K15" s="30"/>
       <c r="L15" s="30"/>
       <c r="M15" s="30"/>
@@ -2626,24 +2590,12 @@
       <c r="D16" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="89">
-        <v>54776</v>
-      </c>
-      <c r="F16" s="89">
-        <v>3.87</v>
-      </c>
-      <c r="G16" s="89">
-        <v>163441</v>
-      </c>
-      <c r="H16" s="89">
-        <v>5.35</v>
-      </c>
-      <c r="I16" s="89">
-        <v>206097.01135813</v>
-      </c>
-      <c r="J16" s="89">
-        <v>4.61</v>
-      </c>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
       <c r="K16" s="30"/>
       <c r="L16" s="30"/>
       <c r="M16" s="30"/>
@@ -2766,24 +2718,12 @@
       <c r="D17" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="89">
-        <v>431094</v>
-      </c>
-      <c r="F17" s="89">
-        <v>30.49</v>
-      </c>
-      <c r="G17" s="89">
-        <v>914194</v>
-      </c>
-      <c r="H17" s="89">
-        <v>29.94</v>
-      </c>
-      <c r="I17" s="89">
-        <v>1349807.1786769</v>
-      </c>
-      <c r="J17" s="89">
-        <v>30.22</v>
-      </c>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
       <c r="K17" s="30"/>
       <c r="L17" s="30"/>
       <c r="M17" s="30"/>
@@ -2902,24 +2842,12 @@
       <c r="D18" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="89">
-        <v>5282</v>
-      </c>
-      <c r="F18" s="89">
-        <v>0.37</v>
-      </c>
-      <c r="G18" s="89">
-        <v>12572</v>
-      </c>
-      <c r="H18" s="89">
-        <v>0.41</v>
-      </c>
-      <c r="I18" s="89">
-        <v>17541.334531261</v>
-      </c>
-      <c r="J18" s="89">
-        <v>0.39</v>
-      </c>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
       <c r="K18" s="30"/>
       <c r="L18" s="30"/>
       <c r="M18" s="30"/>
@@ -3042,24 +2970,12 @@
       <c r="D19" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="89">
-        <v>37134</v>
-      </c>
-      <c r="F19" s="89">
-        <v>2.63</v>
-      </c>
-      <c r="G19" s="89">
-        <v>28736</v>
-      </c>
-      <c r="H19" s="89">
-        <v>0.94</v>
-      </c>
-      <c r="I19" s="89">
-        <v>79686.655097893</v>
-      </c>
-      <c r="J19" s="89">
-        <v>1.78</v>
-      </c>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
       <c r="K19" s="30"/>
       <c r="L19" s="30"/>
       <c r="M19" s="30"/>
@@ -3180,24 +3096,12 @@
       <c r="D20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="89">
-        <v>10643</v>
-      </c>
-      <c r="F20" s="89">
-        <v>0.75</v>
-      </c>
-      <c r="G20" s="89">
-        <v>7184</v>
-      </c>
-      <c r="H20" s="89">
-        <v>0.24</v>
-      </c>
-      <c r="I20" s="89">
-        <v>22069.457969833</v>
-      </c>
-      <c r="J20" s="89">
-        <v>0.49</v>
-      </c>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
       <c r="K20" s="30"/>
       <c r="L20" s="30"/>
       <c r="M20" s="30"/>
@@ -3328,24 +3232,12 @@
       <c r="D21" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="89">
-        <v>14132</v>
-      </c>
-      <c r="F21" s="89">
-        <v>1</v>
-      </c>
-      <c r="G21" s="89">
-        <v>16164</v>
-      </c>
-      <c r="H21" s="89">
-        <v>0.53</v>
-      </c>
-      <c r="I21" s="89">
-        <v>34150.533408288</v>
-      </c>
-      <c r="J21" s="89">
-        <v>0.76</v>
-      </c>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
       <c r="K21" s="30"/>
       <c r="L21" s="30"/>
       <c r="M21" s="30"/>
@@ -3470,24 +3362,12 @@
       <c r="D22" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E22" s="89">
-        <v>12378</v>
-      </c>
-      <c r="F22" s="89">
-        <v>0.88</v>
-      </c>
-      <c r="G22" s="89">
-        <v>16164</v>
-      </c>
-      <c r="H22" s="89">
-        <v>0.53</v>
-      </c>
-      <c r="I22" s="89">
-        <v>31379.491835166</v>
-      </c>
-      <c r="J22" s="89">
-        <v>0.7</v>
-      </c>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
       <c r="K22" s="30"/>
       <c r="L22" s="30"/>
       <c r="M22" s="30"/>
@@ -3614,24 +3494,12 @@
       <c r="D23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E23" s="89">
-        <v>334195</v>
-      </c>
-      <c r="F23" s="89">
-        <v>23.64</v>
-      </c>
-      <c r="G23" s="89">
-        <v>213731</v>
-      </c>
-      <c r="H23" s="89">
-        <v>7</v>
-      </c>
-      <c r="I23" s="89">
-        <v>684322.5918548</v>
-      </c>
-      <c r="J23" s="89">
-        <v>15.32</v>
-      </c>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
       <c r="K23" s="30"/>
       <c r="L23" s="30"/>
       <c r="M23" s="30"/>
@@ -3764,24 +3632,12 @@
       <c r="D24" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E24" s="89">
-        <v>33626</v>
-      </c>
-      <c r="F24" s="89">
-        <v>2.38</v>
-      </c>
-      <c r="G24" s="89">
-        <v>19756</v>
-      </c>
-      <c r="H24" s="89">
-        <v>0.65</v>
-      </c>
-      <c r="I24" s="89">
-        <v>67575.562675463</v>
-      </c>
-      <c r="J24" s="89">
-        <v>1.51</v>
-      </c>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
       <c r="K24" s="30"/>
       <c r="L24" s="30"/>
       <c r="M24" s="30"/>
@@ -3914,24 +3770,12 @@
       <c r="D25" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="89">
-        <v>206667</v>
-      </c>
-      <c r="F25" s="89">
-        <v>14.62</v>
-      </c>
-      <c r="G25" s="89">
-        <v>440034</v>
-      </c>
-      <c r="H25" s="89">
-        <v>14.41</v>
-      </c>
-      <c r="I25" s="89">
-        <v>648392.74979379</v>
-      </c>
-      <c r="J25" s="89">
-        <v>14.51</v>
-      </c>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
       <c r="K25" s="30"/>
       <c r="L25" s="30"/>
       <c r="M25" s="30"/>
@@ -4060,24 +3904,12 @@
       <c r="D26" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="E26" s="89">
-        <v>561796</v>
-      </c>
-      <c r="F26" s="89">
-        <v>39.74</v>
-      </c>
-      <c r="G26" s="89">
-        <v>867497</v>
-      </c>
-      <c r="H26" s="89">
-        <v>28.41</v>
-      </c>
-      <c r="I26" s="89">
-        <v>1522136.0115195</v>
-      </c>
-      <c r="J26" s="89">
-        <v>34.07</v>
-      </c>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
       <c r="K26" s="30"/>
       <c r="L26" s="30"/>
       <c r="M26" s="30"/>
@@ -4198,24 +4030,12 @@
       <c r="D27" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="89">
-        <v>17739</v>
-      </c>
-      <c r="F27" s="89">
-        <v>1.25</v>
-      </c>
-      <c r="G27" s="89">
-        <v>30533</v>
-      </c>
-      <c r="H27" s="89">
-        <v>1</v>
-      </c>
-      <c r="I27" s="89">
-        <v>50360.167196852</v>
-      </c>
-      <c r="J27" s="89">
-        <v>1.13</v>
-      </c>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
       <c r="K27" s="30"/>
       <c r="L27" s="30"/>
       <c r="M27" s="30"/>
@@ -4348,24 +4168,12 @@
       <c r="D28" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E28" s="89">
-        <v>63665</v>
-      </c>
-      <c r="F28" s="89">
-        <v>4.5</v>
-      </c>
-      <c r="G28" s="89">
-        <v>131112</v>
-      </c>
-      <c r="H28" s="89">
-        <v>4.29</v>
-      </c>
-      <c r="I28" s="89">
-        <v>196491.05542412</v>
-      </c>
-      <c r="J28" s="89">
-        <v>4.4</v>
-      </c>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
       <c r="K28" s="30"/>
       <c r="L28" s="30"/>
       <c r="M28" s="30"/>
@@ -4498,24 +4306,12 @@
       <c r="D29" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E29" s="89">
-        <v>31852</v>
-      </c>
-      <c r="F29" s="89">
-        <v>2.25</v>
-      </c>
-      <c r="G29" s="89">
-        <v>21552</v>
-      </c>
-      <c r="H29" s="89">
-        <v>0.71</v>
-      </c>
-      <c r="I29" s="89">
-        <v>66086.726132342</v>
-      </c>
-      <c r="J29" s="89">
-        <v>1.48</v>
-      </c>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
       <c r="K29" s="30"/>
       <c r="L29" s="30"/>
       <c r="M29" s="30"/>
@@ -4648,24 +4444,12 @@
       <c r="D30" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="89">
-        <v>7095</v>
-      </c>
-      <c r="F30" s="89">
-        <v>0.5</v>
-      </c>
-      <c r="G30" s="89">
-        <v>14368</v>
-      </c>
-      <c r="H30" s="89">
-        <v>0.47</v>
-      </c>
-      <c r="I30" s="89">
-        <v>21719.388594064</v>
-      </c>
-      <c r="J30" s="89">
-        <v>0.49</v>
-      </c>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
       <c r="K30" s="30"/>
       <c r="L30" s="30"/>
       <c r="M30" s="30"/>
@@ -4798,24 +4582,12 @@
       <c r="D31" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E31" s="89">
-        <v>3528</v>
-      </c>
-      <c r="F31" s="89">
-        <v>0.25</v>
-      </c>
-      <c r="G31" s="89">
-        <v>8980</v>
-      </c>
-      <c r="H31" s="89">
-        <v>0.29</v>
-      </c>
-      <c r="I31" s="89">
-        <v>12142.689247664</v>
-      </c>
-      <c r="J31" s="89">
-        <v>0.27</v>
-      </c>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
       <c r="K31" s="30"/>
       <c r="L31" s="30"/>
       <c r="M31" s="30"/>
@@ -4948,24 +4720,12 @@
       <c r="D32" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E32" s="89">
-        <v>1042757</v>
-      </c>
-      <c r="F32" s="89">
-        <v>73.76</v>
-      </c>
-      <c r="G32" s="89">
-        <v>2227115</v>
-      </c>
-      <c r="H32" s="89">
-        <v>72.94</v>
-      </c>
-      <c r="I32" s="89">
-        <v>3276559.6987433</v>
-      </c>
-      <c r="J32" s="89">
-        <v>73.35</v>
-      </c>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
       <c r="K32" s="30"/>
       <c r="L32" s="30"/>
       <c r="M32" s="30"/>
@@ -5096,24 +4856,12 @@
       <c r="D33" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E33" s="89">
-        <v>224348</v>
-      </c>
-      <c r="F33" s="89">
-        <v>15.87</v>
-      </c>
-      <c r="G33" s="89">
-        <v>226303</v>
-      </c>
-      <c r="H33" s="89">
-        <v>7.41</v>
-      </c>
-      <c r="I33" s="89">
-        <v>519978.38176118</v>
-      </c>
-      <c r="J33" s="89">
-        <v>11.64</v>
-      </c>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
       <c r="K33" s="30"/>
       <c r="L33" s="30"/>
       <c r="M33" s="30"/>
@@ -5238,24 +4986,12 @@
       <c r="D34" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E34" s="89">
-        <v>115050</v>
-      </c>
-      <c r="F34" s="89">
-        <v>8.14</v>
-      </c>
-      <c r="G34" s="89">
-        <v>154461</v>
-      </c>
-      <c r="H34" s="89">
-        <v>5.06</v>
-      </c>
-      <c r="I34" s="89">
-        <v>294751.35429311</v>
-      </c>
-      <c r="J34" s="89">
-        <v>6.6</v>
-      </c>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
       <c r="K34" s="30"/>
       <c r="L34" s="30"/>
       <c r="M34" s="30"/>
@@ -5382,24 +5118,12 @@
       <c r="D35" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E35" s="89">
-        <v>1773</v>
-      </c>
-      <c r="F35" s="89">
-        <v>0.13</v>
-      </c>
-      <c r="G35" s="89">
-        <v>1796</v>
-      </c>
-      <c r="H35" s="89">
-        <v>0.06</v>
-      </c>
-      <c r="I35" s="89">
-        <v>4114.8604123329</v>
-      </c>
-      <c r="J35" s="89">
-        <v>0.09</v>
-      </c>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
       <c r="K35" s="30"/>
       <c r="L35" s="30"/>
       <c r="M35" s="30"/>
@@ -5530,24 +5254,12 @@
       <c r="D36" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E36" s="89">
-        <v>8830</v>
-      </c>
-      <c r="F36" s="89">
-        <v>0.62</v>
-      </c>
-      <c r="G36" s="89">
-        <v>8980</v>
-      </c>
-      <c r="H36" s="89">
-        <v>0.29</v>
-      </c>
-      <c r="I36" s="89">
-        <v>20519.007617503</v>
-      </c>
-      <c r="J36" s="89">
-        <v>0.46</v>
-      </c>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
       <c r="K36" s="30"/>
       <c r="L36" s="30"/>
       <c r="M36" s="30"/>
@@ -5673,24 +5385,12 @@
       <c r="D37" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E37" s="89">
-        <v>0</v>
-      </c>
-      <c r="F37" s="89">
-        <v>0</v>
-      </c>
-      <c r="G37" s="89">
-        <v>0</v>
-      </c>
-      <c r="H37" s="89">
-        <v>0</v>
-      </c>
-      <c r="I37" s="89">
-        <v>0</v>
-      </c>
-      <c r="J37" s="89">
-        <v>0</v>
-      </c>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
       <c r="K37" s="30"/>
       <c r="L37" s="30"/>
       <c r="M37" s="30"/>
@@ -5816,24 +5516,12 @@
       <c r="D38" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E38" s="89">
-        <v>0</v>
-      </c>
-      <c r="F38" s="89">
-        <v>0</v>
-      </c>
-      <c r="G38" s="89">
-        <v>0</v>
-      </c>
-      <c r="H38" s="89">
-        <v>0</v>
-      </c>
-      <c r="I38" s="89">
-        <v>0</v>
-      </c>
-      <c r="J38" s="89">
-        <v>0</v>
-      </c>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
       <c r="K38" s="30"/>
       <c r="L38" s="30"/>
       <c r="M38" s="30"/>
@@ -5961,24 +5649,12 @@
       <c r="D39" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E39" s="89">
-        <v>182440</v>
-      </c>
-      <c r="F39" s="89">
-        <v>12.9</v>
-      </c>
-      <c r="G39" s="89">
-        <v>827983</v>
-      </c>
-      <c r="H39" s="89">
-        <v>27.12</v>
-      </c>
-      <c r="I39" s="89">
-        <v>893908.64597796</v>
-      </c>
-      <c r="J39" s="89">
-        <v>20.01</v>
-      </c>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="30"/>
       <c r="K39" s="30"/>
       <c r="L39" s="30"/>
       <c r="M39" s="30"/>
@@ -6110,24 +5786,12 @@
       <c r="D40" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E40" s="89">
-        <v>434465</v>
-      </c>
-      <c r="F40" s="89">
-        <v>30.73</v>
-      </c>
-      <c r="G40" s="89">
-        <v>1311124</v>
-      </c>
-      <c r="H40" s="89">
-        <v>42.94</v>
-      </c>
-      <c r="I40" s="89">
-        <v>1645493.2747948</v>
-      </c>
-      <c r="J40" s="89">
-        <v>36.84</v>
-      </c>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="30"/>
       <c r="K40" s="30"/>
       <c r="L40" s="30"/>
       <c r="M40" s="30"/>
@@ -6253,24 +5917,12 @@
       <c r="D41" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E41" s="89">
-        <v>1773</v>
-      </c>
-      <c r="F41" s="89">
-        <v>0.13</v>
-      </c>
-      <c r="G41" s="89">
-        <v>0</v>
-      </c>
-      <c r="H41" s="89">
-        <v>0</v>
-      </c>
-      <c r="I41" s="89">
-        <v>2801.0585570961</v>
-      </c>
-      <c r="J41" s="89">
-        <v>0.06</v>
-      </c>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="30"/>
       <c r="K41" s="30"/>
       <c r="L41" s="30"/>
       <c r="M41" s="30"/>
@@ -6395,24 +6047,12 @@
       <c r="D42" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E42" s="89">
-        <v>1773</v>
-      </c>
-      <c r="F42" s="89">
-        <v>0.13</v>
-      </c>
-      <c r="G42" s="89">
-        <v>0</v>
-      </c>
-      <c r="H42" s="89">
-        <v>0</v>
-      </c>
-      <c r="I42" s="89">
-        <v>2801.0585570961</v>
-      </c>
-      <c r="J42" s="89">
-        <v>0.06</v>
-      </c>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="30"/>
       <c r="K42" s="30"/>
       <c r="L42" s="30"/>
       <c r="M42" s="30"/>
@@ -6539,24 +6179,12 @@
       <c r="D43" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E43" s="89">
-        <v>10584</v>
-      </c>
-      <c r="F43" s="89">
-        <v>0.75</v>
-      </c>
-      <c r="G43" s="89">
-        <v>50289</v>
-      </c>
-      <c r="H43" s="89">
-        <v>1.65</v>
-      </c>
-      <c r="I43" s="89">
-        <v>53508.223376581</v>
-      </c>
-      <c r="J43" s="89">
-        <v>1.2</v>
-      </c>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="30"/>
       <c r="K43" s="30"/>
       <c r="L43" s="30"/>
       <c r="M43" s="30"/>
@@ -6687,24 +6315,12 @@
       <c r="D44" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E44" s="89">
-        <v>24697</v>
-      </c>
-      <c r="F44" s="89">
-        <v>1.75</v>
-      </c>
-      <c r="G44" s="89">
-        <v>109559</v>
-      </c>
-      <c r="H44" s="89">
-        <v>3.59</v>
-      </c>
-      <c r="I44" s="89">
-        <v>119161.4473576</v>
-      </c>
-      <c r="J44" s="89">
-        <v>2.67</v>
-      </c>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="30"/>
       <c r="K44" s="30"/>
       <c r="L44" s="30"/>
       <c r="M44" s="30"/>
@@ -6829,24 +6445,12 @@
       <c r="D45" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E45" s="89">
-        <v>0</v>
-      </c>
-      <c r="F45" s="89">
-        <v>0</v>
-      </c>
-      <c r="G45" s="89">
-        <v>0</v>
-      </c>
-      <c r="H45" s="89">
-        <v>0</v>
-      </c>
-      <c r="I45" s="89">
-        <v>0</v>
-      </c>
-      <c r="J45" s="89">
-        <v>0</v>
-      </c>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="30"/>
       <c r="K45" s="30"/>
       <c r="L45" s="30"/>
       <c r="M45" s="30"/>
@@ -6971,24 +6575,12 @@
       <c r="D46" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E46" s="89">
-        <v>0</v>
-      </c>
-      <c r="F46" s="89">
-        <v>0</v>
-      </c>
-      <c r="G46" s="89">
-        <v>0</v>
-      </c>
-      <c r="H46" s="89">
-        <v>0</v>
-      </c>
-      <c r="I46" s="89">
-        <v>0</v>
-      </c>
-      <c r="J46" s="89">
-        <v>0</v>
-      </c>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
+      <c r="J46" s="30"/>
       <c r="K46" s="30"/>
       <c r="L46" s="30"/>
       <c r="M46" s="30"/>
@@ -7115,24 +6707,12 @@
       <c r="D47" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E47" s="89">
-        <v>1754</v>
-      </c>
-      <c r="F47" s="89">
-        <v>0.12</v>
-      </c>
-      <c r="G47" s="89">
-        <v>48493</v>
-      </c>
-      <c r="H47" s="89">
-        <v>1.59</v>
-      </c>
-      <c r="I47" s="89">
-        <v>38244.423180025</v>
-      </c>
-      <c r="J47" s="89">
-        <v>0.86</v>
-      </c>
+      <c r="E47" s="30"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="30"/>
+      <c r="J47" s="30"/>
       <c r="K47" s="30"/>
       <c r="L47" s="30"/>
       <c r="M47" s="30"/>
@@ -7263,24 +6843,12 @@
       <c r="D48" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E48" s="89">
-        <v>5262</v>
-      </c>
-      <c r="F48" s="89">
-        <v>0.37</v>
-      </c>
-      <c r="G48" s="89">
-        <v>10776</v>
-      </c>
-      <c r="H48" s="89">
-        <v>0.35</v>
-      </c>
-      <c r="I48" s="89">
-        <v>16195.935850789</v>
-      </c>
-      <c r="J48" s="89">
-        <v>0.36</v>
-      </c>
+      <c r="E48" s="30"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="30"/>
+      <c r="J48" s="30"/>
       <c r="K48" s="30"/>
       <c r="L48" s="30"/>
       <c r="M48" s="30"/>
@@ -7405,24 +6973,12 @@
       <c r="D49" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E49" s="89">
-        <v>0</v>
-      </c>
-      <c r="F49" s="89">
-        <v>0</v>
-      </c>
-      <c r="G49" s="89">
-        <v>0</v>
-      </c>
-      <c r="H49" s="89">
-        <v>0</v>
-      </c>
-      <c r="I49" s="89">
-        <v>0</v>
-      </c>
-      <c r="J49" s="89">
-        <v>0</v>
-      </c>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="30"/>
+      <c r="J49" s="30"/>
       <c r="K49" s="30"/>
       <c r="L49" s="30"/>
       <c r="M49" s="30"/>
@@ -7547,24 +7103,12 @@
       <c r="D50" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E50" s="89">
-        <v>0</v>
-      </c>
-      <c r="F50" s="89">
-        <v>0</v>
-      </c>
-      <c r="G50" s="89">
-        <v>1796</v>
-      </c>
-      <c r="H50" s="89">
-        <v>0.06</v>
-      </c>
-      <c r="I50" s="89">
-        <v>1313.8018552368</v>
-      </c>
-      <c r="J50" s="89">
-        <v>0.03</v>
-      </c>
+      <c r="E50" s="30"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="30"/>
+      <c r="J50" s="30"/>
       <c r="K50" s="30"/>
       <c r="L50" s="30"/>
       <c r="M50" s="30"/>
@@ -7691,24 +7235,12 @@
       <c r="D51" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E51" s="89">
-        <v>1754</v>
-      </c>
-      <c r="F51" s="89">
-        <v>0.12</v>
-      </c>
-      <c r="G51" s="89">
-        <v>35921</v>
-      </c>
-      <c r="H51" s="89">
-        <v>1.18</v>
-      </c>
-      <c r="I51" s="89">
-        <v>29047.810193368</v>
-      </c>
-      <c r="J51" s="89">
-        <v>0.65</v>
-      </c>
+      <c r="E51" s="30"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="30"/>
+      <c r="J51" s="30"/>
       <c r="K51" s="30"/>
       <c r="L51" s="30"/>
       <c r="M51" s="30"/>
@@ -7839,24 +7371,12 @@
       <c r="D52" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E52" s="89">
-        <v>3547</v>
-      </c>
-      <c r="F52" s="89">
-        <v>0.25</v>
-      </c>
-      <c r="G52" s="89">
-        <v>5388</v>
-      </c>
-      <c r="H52" s="89">
-        <v>0.18</v>
-      </c>
-      <c r="I52" s="89">
-        <v>9545.1025211643</v>
-      </c>
-      <c r="J52" s="89">
-        <v>0.21</v>
-      </c>
+      <c r="E52" s="30"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="30"/>
+      <c r="I52" s="30"/>
+      <c r="J52" s="30"/>
       <c r="K52" s="30"/>
       <c r="L52" s="30"/>
       <c r="M52" s="30"/>
@@ -7981,24 +7501,12 @@
       <c r="D53" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E53" s="89">
-        <v>0</v>
-      </c>
-      <c r="F53" s="89">
-        <v>0</v>
-      </c>
-      <c r="G53" s="89">
-        <v>0</v>
-      </c>
-      <c r="H53" s="89">
-        <v>0</v>
-      </c>
-      <c r="I53" s="89">
-        <v>0</v>
-      </c>
-      <c r="J53" s="89">
-        <v>0</v>
-      </c>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="30"/>
+      <c r="J53" s="30"/>
       <c r="K53" s="30"/>
       <c r="L53" s="30"/>
       <c r="M53" s="30"/>
@@ -8123,24 +7631,12 @@
       <c r="D54" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E54" s="89">
-        <v>0</v>
-      </c>
-      <c r="F54" s="89">
-        <v>0</v>
-      </c>
-      <c r="G54" s="89">
-        <v>0</v>
-      </c>
-      <c r="H54" s="89">
-        <v>0</v>
-      </c>
-      <c r="I54" s="89">
-        <v>0</v>
-      </c>
-      <c r="J54" s="89">
-        <v>0</v>
-      </c>
+      <c r="E54" s="30"/>
+      <c r="F54" s="30"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="30"/>
+      <c r="I54" s="30"/>
+      <c r="J54" s="30"/>
       <c r="K54" s="30"/>
       <c r="L54" s="30"/>
       <c r="M54" s="30"/>

--- a/storage/excel/sum912.xlsx
+++ b/storage/excel/sum912.xlsx
@@ -404,14 +404,6 @@
       </bottom>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-    </border>
-    <border>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -428,17 +420,9 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
     </border>
     <border>
       <left style="thin">
@@ -470,6 +454,22 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -610,137 +610,137 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="5" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="6" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="6" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="6" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="6" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="5" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="5" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="5" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="6" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="6" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="6" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="6" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="6" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="6" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="6" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="6" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="6" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="6" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="6" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="6" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="6" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="6" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="6" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="6" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="5" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="5" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="5" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="4" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -1611,78 +1611,78 @@
     </row>
     <row r="8" spans="1:75" customHeight="1" ht="14.25" s="1" customFormat="1">
       <c r="A8" s="6"/>
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="56"/>
-      <c r="O8" s="56"/>
-      <c r="P8" s="56"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="45"/>
       <c r="Q8" s="7"/>
-      <c r="R8" s="56" t="s">
+      <c r="R8" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="S8" s="56"/>
-      <c r="T8" s="56"/>
-      <c r="U8" s="56"/>
-      <c r="V8" s="56"/>
-      <c r="W8" s="56"/>
-      <c r="X8" s="56"/>
-      <c r="Y8" s="56"/>
-      <c r="Z8" s="56"/>
-      <c r="AA8" s="56"/>
-      <c r="AB8" s="56"/>
-      <c r="AC8" s="56"/>
-      <c r="AD8" s="56"/>
-      <c r="AE8" s="56"/>
-      <c r="AF8" s="56"/>
+      <c r="S8" s="45"/>
+      <c r="T8" s="45"/>
+      <c r="U8" s="45"/>
+      <c r="V8" s="45"/>
+      <c r="W8" s="45"/>
+      <c r="X8" s="45"/>
+      <c r="Y8" s="45"/>
+      <c r="Z8" s="45"/>
+      <c r="AA8" s="45"/>
+      <c r="AB8" s="45"/>
+      <c r="AC8" s="45"/>
+      <c r="AD8" s="45"/>
+      <c r="AE8" s="45"/>
+      <c r="AF8" s="45"/>
       <c r="AG8" s="7"/>
-      <c r="AH8" s="56" t="s">
+      <c r="AH8" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="AI8" s="56"/>
-      <c r="AJ8" s="56"/>
-      <c r="AK8" s="56"/>
-      <c r="AL8" s="56"/>
-      <c r="AM8" s="56"/>
-      <c r="AN8" s="56"/>
-      <c r="AO8" s="56"/>
-      <c r="AP8" s="56"/>
-      <c r="AQ8" s="56"/>
-      <c r="AR8" s="56"/>
-      <c r="AS8" s="56"/>
-      <c r="AT8" s="56"/>
-      <c r="AU8" s="56"/>
-      <c r="AV8" s="56"/>
-      <c r="AW8" s="56"/>
+      <c r="AI8" s="45"/>
+      <c r="AJ8" s="45"/>
+      <c r="AK8" s="45"/>
+      <c r="AL8" s="45"/>
+      <c r="AM8" s="45"/>
+      <c r="AN8" s="45"/>
+      <c r="AO8" s="45"/>
+      <c r="AP8" s="45"/>
+      <c r="AQ8" s="45"/>
+      <c r="AR8" s="45"/>
+      <c r="AS8" s="45"/>
+      <c r="AT8" s="45"/>
+      <c r="AU8" s="45"/>
+      <c r="AV8" s="45"/>
+      <c r="AW8" s="45"/>
       <c r="AX8" s="7"/>
-      <c r="AY8" s="57" t="s">
+      <c r="AY8" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="AZ8" s="57"/>
-      <c r="BA8" s="57"/>
-      <c r="BB8" s="57"/>
-      <c r="BC8" s="57"/>
-      <c r="BD8" s="57"/>
-      <c r="BE8" s="57"/>
-      <c r="BF8" s="57"/>
-      <c r="BG8" s="57"/>
-      <c r="BH8" s="57"/>
-      <c r="BI8" s="57"/>
-      <c r="BJ8" s="57"/>
-      <c r="BK8" s="57"/>
-      <c r="BL8" s="57"/>
-      <c r="BM8" s="57"/>
+      <c r="AZ8" s="46"/>
+      <c r="BA8" s="46"/>
+      <c r="BB8" s="46"/>
+      <c r="BC8" s="46"/>
+      <c r="BD8" s="46"/>
+      <c r="BE8" s="46"/>
+      <c r="BF8" s="46"/>
+      <c r="BG8" s="46"/>
+      <c r="BH8" s="46"/>
+      <c r="BI8" s="46"/>
+      <c r="BJ8" s="46"/>
+      <c r="BK8" s="46"/>
+      <c r="BL8" s="46"/>
+      <c r="BM8" s="46"/>
       <c r="BN8" s="7"/>
       <c r="BO8" s="26"/>
       <c r="BP8" s="26"/>
@@ -1695,41 +1695,41 @@
     </row>
     <row r="9" spans="1:75">
       <c r="A9" s="24"/>
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63"/>
-      <c r="L9" s="63"/>
-      <c r="M9" s="63"/>
-      <c r="N9" s="63"/>
-      <c r="O9" s="63"/>
-      <c r="P9" s="63"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="70"/>
+      <c r="O9" s="70"/>
+      <c r="P9" s="70"/>
       <c r="Q9" s="25"/>
-      <c r="R9" s="63" t="s">
+      <c r="R9" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="S9" s="63"/>
-      <c r="T9" s="63"/>
-      <c r="U9" s="63"/>
-      <c r="V9" s="63"/>
-      <c r="W9" s="63"/>
-      <c r="X9" s="63"/>
-      <c r="Y9" s="63"/>
-      <c r="Z9" s="63"/>
-      <c r="AA9" s="63"/>
-      <c r="AB9" s="63"/>
-      <c r="AC9" s="63"/>
-      <c r="AD9" s="63"/>
-      <c r="AE9" s="63"/>
-      <c r="AF9" s="63"/>
+      <c r="S9" s="70"/>
+      <c r="T9" s="70"/>
+      <c r="U9" s="70"/>
+      <c r="V9" s="70"/>
+      <c r="W9" s="70"/>
+      <c r="X9" s="70"/>
+      <c r="Y9" s="70"/>
+      <c r="Z9" s="70"/>
+      <c r="AA9" s="70"/>
+      <c r="AB9" s="70"/>
+      <c r="AC9" s="70"/>
+      <c r="AD9" s="70"/>
+      <c r="AE9" s="70"/>
+      <c r="AF9" s="70"/>
       <c r="AG9" s="25"/>
       <c r="AH9" s="55" t="s">
         <v>9</v>
@@ -1750,23 +1750,23 @@
       <c r="AV9" s="55"/>
       <c r="AW9" s="55"/>
       <c r="AX9" s="25"/>
-      <c r="AY9" s="63" t="s">
+      <c r="AY9" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="AZ9" s="63"/>
-      <c r="BA9" s="63"/>
-      <c r="BB9" s="63"/>
-      <c r="BC9" s="63"/>
-      <c r="BD9" s="63"/>
-      <c r="BE9" s="63"/>
-      <c r="BF9" s="63"/>
-      <c r="BG9" s="63"/>
-      <c r="BH9" s="63"/>
-      <c r="BI9" s="63"/>
-      <c r="BJ9" s="63"/>
-      <c r="BK9" s="63"/>
-      <c r="BL9" s="63"/>
-      <c r="BM9" s="63"/>
+      <c r="AZ9" s="70"/>
+      <c r="BA9" s="70"/>
+      <c r="BB9" s="70"/>
+      <c r="BC9" s="70"/>
+      <c r="BD9" s="70"/>
+      <c r="BE9" s="70"/>
+      <c r="BF9" s="70"/>
+      <c r="BG9" s="70"/>
+      <c r="BH9" s="70"/>
+      <c r="BI9" s="70"/>
+      <c r="BJ9" s="70"/>
+      <c r="BK9" s="70"/>
+      <c r="BL9" s="70"/>
+      <c r="BM9" s="70"/>
       <c r="BN9" s="25"/>
       <c r="BO9" s="28"/>
       <c r="BP9" s="28"/>
@@ -1779,96 +1779,96 @@
     </row>
     <row r="10" spans="1:75">
       <c r="A10" s="24"/>
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="65"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="45" t="s">
+      <c r="C10" s="83"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="49" t="s">
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="L10" s="49"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="49"/>
-      <c r="O10" s="49"/>
-      <c r="P10" s="49"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="47"/>
+      <c r="P10" s="47"/>
       <c r="Q10" s="25"/>
-      <c r="R10" s="70" t="s">
+      <c r="R10" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="S10" s="71"/>
-      <c r="T10" s="72"/>
-      <c r="U10" s="51" t="s">
+      <c r="S10" s="77"/>
+      <c r="T10" s="78"/>
+      <c r="U10" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="V10" s="52"/>
-      <c r="W10" s="52"/>
-      <c r="X10" s="52"/>
-      <c r="Y10" s="52"/>
-      <c r="Z10" s="52"/>
-      <c r="AA10" s="53" t="s">
+      <c r="V10" s="49"/>
+      <c r="W10" s="49"/>
+      <c r="X10" s="49"/>
+      <c r="Y10" s="49"/>
+      <c r="Z10" s="49"/>
+      <c r="AA10" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="AB10" s="53"/>
-      <c r="AC10" s="53"/>
-      <c r="AD10" s="53"/>
-      <c r="AE10" s="53"/>
-      <c r="AF10" s="53"/>
+      <c r="AB10" s="51"/>
+      <c r="AC10" s="51"/>
+      <c r="AD10" s="51"/>
+      <c r="AE10" s="51"/>
+      <c r="AF10" s="51"/>
       <c r="AG10" s="25"/>
-      <c r="AH10" s="64" t="s">
+      <c r="AH10" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="AI10" s="65"/>
-      <c r="AJ10" s="66"/>
-      <c r="AK10" s="47" t="s">
+      <c r="AI10" s="83"/>
+      <c r="AJ10" s="84"/>
+      <c r="AK10" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="AL10" s="49" t="s">
+      <c r="AL10" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="AM10" s="49"/>
-      <c r="AN10" s="49"/>
-      <c r="AO10" s="49"/>
-      <c r="AP10" s="49"/>
-      <c r="AQ10" s="49"/>
-      <c r="AR10" s="49" t="s">
+      <c r="AM10" s="47"/>
+      <c r="AN10" s="47"/>
+      <c r="AO10" s="47"/>
+      <c r="AP10" s="47"/>
+      <c r="AQ10" s="47"/>
+      <c r="AR10" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="AS10" s="49"/>
-      <c r="AT10" s="49"/>
-      <c r="AU10" s="49"/>
-      <c r="AV10" s="49"/>
-      <c r="AW10" s="49"/>
+      <c r="AS10" s="47"/>
+      <c r="AT10" s="47"/>
+      <c r="AU10" s="47"/>
+      <c r="AV10" s="47"/>
+      <c r="AW10" s="47"/>
       <c r="AX10" s="25"/>
-      <c r="AY10" s="70" t="s">
+      <c r="AY10" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="AZ10" s="71"/>
-      <c r="BA10" s="72"/>
-      <c r="BB10" s="51" t="s">
+      <c r="AZ10" s="77"/>
+      <c r="BA10" s="78"/>
+      <c r="BB10" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="BC10" s="52"/>
-      <c r="BD10" s="52"/>
-      <c r="BE10" s="52"/>
-      <c r="BF10" s="52"/>
-      <c r="BG10" s="52"/>
-      <c r="BH10" s="53" t="s">
+      <c r="BC10" s="49"/>
+      <c r="BD10" s="49"/>
+      <c r="BE10" s="49"/>
+      <c r="BF10" s="49"/>
+      <c r="BG10" s="49"/>
+      <c r="BH10" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="BI10" s="53"/>
-      <c r="BJ10" s="53"/>
-      <c r="BK10" s="53"/>
-      <c r="BL10" s="53"/>
-      <c r="BM10" s="53"/>
+      <c r="BI10" s="51"/>
+      <c r="BJ10" s="51"/>
+      <c r="BK10" s="51"/>
+      <c r="BL10" s="51"/>
+      <c r="BM10" s="51"/>
       <c r="BN10" s="25"/>
       <c r="BO10" s="8"/>
       <c r="BP10" s="8"/>
@@ -1881,118 +1881,118 @@
     </row>
     <row r="11" spans="1:75">
       <c r="A11" s="24"/>
-      <c r="B11" s="67"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="45" t="s">
+      <c r="B11" s="85"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="46"/>
-      <c r="G11" s="45" t="s">
+      <c r="F11" s="53"/>
+      <c r="G11" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="46"/>
-      <c r="I11" s="45" t="s">
+      <c r="H11" s="53"/>
+      <c r="I11" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="50"/>
-      <c r="K11" s="49" t="s">
+      <c r="J11" s="54"/>
+      <c r="K11" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="L11" s="49"/>
-      <c r="M11" s="49" t="s">
+      <c r="L11" s="47"/>
+      <c r="M11" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="N11" s="49"/>
-      <c r="O11" s="49" t="s">
+      <c r="N11" s="47"/>
+      <c r="O11" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="P11" s="49"/>
+      <c r="P11" s="47"/>
       <c r="Q11" s="25"/>
-      <c r="R11" s="73"/>
-      <c r="S11" s="74"/>
-      <c r="T11" s="75"/>
-      <c r="U11" s="51" t="s">
+      <c r="R11" s="79"/>
+      <c r="S11" s="80"/>
+      <c r="T11" s="81"/>
+      <c r="U11" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="V11" s="52"/>
-      <c r="W11" s="51" t="s">
+      <c r="V11" s="49"/>
+      <c r="W11" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="X11" s="52"/>
-      <c r="Y11" s="51" t="s">
+      <c r="X11" s="49"/>
+      <c r="Y11" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="Z11" s="54"/>
-      <c r="AA11" s="53" t="s">
+      <c r="Z11" s="50"/>
+      <c r="AA11" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="AB11" s="53"/>
-      <c r="AC11" s="53" t="s">
+      <c r="AB11" s="51"/>
+      <c r="AC11" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="AD11" s="53"/>
-      <c r="AE11" s="53" t="s">
+      <c r="AD11" s="51"/>
+      <c r="AE11" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="AF11" s="53"/>
+      <c r="AF11" s="51"/>
       <c r="AG11" s="25"/>
-      <c r="AH11" s="67"/>
-      <c r="AI11" s="68"/>
-      <c r="AJ11" s="69"/>
-      <c r="AK11" s="48"/>
-      <c r="AL11" s="49" t="s">
+      <c r="AH11" s="85"/>
+      <c r="AI11" s="86"/>
+      <c r="AJ11" s="87"/>
+      <c r="AK11" s="57"/>
+      <c r="AL11" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="AM11" s="49"/>
-      <c r="AN11" s="49" t="s">
+      <c r="AM11" s="47"/>
+      <c r="AN11" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="AO11" s="49"/>
-      <c r="AP11" s="49" t="s">
+      <c r="AO11" s="47"/>
+      <c r="AP11" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="AQ11" s="49"/>
-      <c r="AR11" s="49" t="s">
+      <c r="AQ11" s="47"/>
+      <c r="AR11" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="AS11" s="49"/>
-      <c r="AT11" s="49" t="s">
+      <c r="AS11" s="47"/>
+      <c r="AT11" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="AU11" s="49"/>
-      <c r="AV11" s="49" t="s">
+      <c r="AU11" s="47"/>
+      <c r="AV11" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="AW11" s="49"/>
+      <c r="AW11" s="47"/>
       <c r="AX11" s="25"/>
-      <c r="AY11" s="73"/>
-      <c r="AZ11" s="74"/>
-      <c r="BA11" s="75"/>
-      <c r="BB11" s="51" t="s">
+      <c r="AY11" s="79"/>
+      <c r="AZ11" s="80"/>
+      <c r="BA11" s="81"/>
+      <c r="BB11" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="BC11" s="52"/>
-      <c r="BD11" s="51" t="s">
+      <c r="BC11" s="49"/>
+      <c r="BD11" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="BE11" s="52"/>
-      <c r="BF11" s="51" t="s">
+      <c r="BE11" s="49"/>
+      <c r="BF11" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="BG11" s="54"/>
-      <c r="BH11" s="53" t="s">
+      <c r="BG11" s="50"/>
+      <c r="BH11" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="BI11" s="53"/>
-      <c r="BJ11" s="53" t="s">
+      <c r="BI11" s="51"/>
+      <c r="BJ11" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="BK11" s="53"/>
-      <c r="BL11" s="53" t="s">
+      <c r="BK11" s="51"/>
+      <c r="BL11" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="BM11" s="53"/>
+      <c r="BM11" s="51"/>
       <c r="BN11" s="25"/>
       <c r="BO11" s="8"/>
       <c r="BP11" s="8"/>
@@ -2106,7 +2106,7 @@
       <c r="AJ12" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="AK12" s="60"/>
+      <c r="AK12" s="88"/>
       <c r="AL12" s="15" t="s">
         <v>25</v>
       </c>
@@ -2201,21 +2201,33 @@
     </row>
     <row r="13" spans="1:75">
       <c r="A13" s="24"/>
-      <c r="B13" s="61" t="s">
+      <c r="B13" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="58" t="s">
+      <c r="C13" s="69" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
+      <c r="E13" s="89">
+        <v>119674.85039116</v>
+      </c>
+      <c r="F13" s="89">
+        <v>8.4649208707448</v>
+      </c>
+      <c r="G13" s="89">
+        <v>295979.44606299</v>
+      </c>
+      <c r="H13" s="89">
+        <v>9.6937462827301</v>
+      </c>
+      <c r="I13" s="89">
+        <v>414583.20464494</v>
+      </c>
+      <c r="J13" s="89">
+        <v>9.280860944303</v>
+      </c>
       <c r="K13" s="30"/>
       <c r="L13" s="30"/>
       <c r="M13" s="30"/>
@@ -2223,32 +2235,32 @@
       <c r="O13" s="30"/>
       <c r="P13" s="30"/>
       <c r="Q13" s="25"/>
-      <c r="R13" s="61" t="s">
+      <c r="R13" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="S13" s="58" t="s">
+      <c r="S13" s="69" t="s">
         <v>28</v>
       </c>
       <c r="T13" s="29" t="s">
         <v>29</v>
       </c>
       <c r="U13" s="89">
-        <v>1</v>
+        <v>0.084649208707448</v>
       </c>
       <c r="V13" s="89">
-        <v>0</v>
+        <v>0.0020948455726464</v>
       </c>
       <c r="W13" s="89">
-        <v>1</v>
+        <v>0.096937462827301</v>
       </c>
       <c r="X13" s="89">
-        <v>0</v>
+        <v>0.00058713219979654</v>
       </c>
       <c r="Y13" s="89">
-        <v>1</v>
+        <v>0.09280860944303</v>
       </c>
       <c r="Z13" s="89">
-        <v>0</v>
+        <v>0.0013409888862215</v>
       </c>
       <c r="AA13" s="30"/>
       <c r="AB13" s="30"/>
@@ -2257,10 +2269,10 @@
       <c r="AE13" s="30"/>
       <c r="AF13" s="30"/>
       <c r="AG13" s="25"/>
-      <c r="AH13" s="61" t="s">
+      <c r="AH13" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="AI13" s="58" t="s">
+      <c r="AI13" s="69" t="s">
         <v>28</v>
       </c>
       <c r="AJ13" s="29" t="s">
@@ -2270,22 +2282,22 @@
         <v>30</v>
       </c>
       <c r="AL13" s="89">
-        <v>83.507934804025</v>
+        <v>7.2529141210443</v>
       </c>
       <c r="AM13" s="89">
-        <v>7.1157111246509</v>
+        <v>0.61802081225418</v>
       </c>
       <c r="AN13" s="89">
-        <v>243.89472605694</v>
+        <v>24.360220764856</v>
       </c>
       <c r="AO13" s="89">
-        <v>20.782269607312</v>
+        <v>2.0757344113734</v>
       </c>
       <c r="AP13" s="89">
-        <v>327.40266086096</v>
+        <v>31.364880132893</v>
       </c>
       <c r="AQ13" s="89">
-        <v>27.897980731963</v>
+        <v>2.6726014361239</v>
       </c>
       <c r="AR13" s="30"/>
       <c r="AS13" s="30"/>
@@ -2294,32 +2306,32 @@
       <c r="AV13" s="30"/>
       <c r="AW13" s="30"/>
       <c r="AX13" s="25"/>
-      <c r="AY13" s="61" t="s">
+      <c r="AY13" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="AZ13" s="58" t="s">
+      <c r="AZ13" s="69" t="s">
         <v>28</v>
       </c>
       <c r="BA13" s="29" t="s">
         <v>29</v>
       </c>
       <c r="BB13" s="89">
-        <v>6.507972972973</v>
+        <v>0.57414433499128</v>
       </c>
       <c r="BC13" s="89">
-        <v>0.053309498123606</v>
+        <v>0.017297364809673</v>
       </c>
       <c r="BD13" s="89">
-        <v>5.4767942583732</v>
+        <v>0.53527556103576</v>
       </c>
       <c r="BE13" s="89">
-        <v>0.026083733960897</v>
+        <v>0.0057348848814525</v>
       </c>
       <c r="BF13" s="89">
-        <v>5.9923836156731</v>
+        <v>0.54833546908481</v>
       </c>
       <c r="BG13" s="89">
-        <v>0.039696616042252</v>
+        <v>0.011516124845563</v>
       </c>
       <c r="BH13" s="30"/>
       <c r="BI13" s="30"/>
@@ -2339,17 +2351,29 @@
     </row>
     <row r="14" spans="1:75">
       <c r="A14" s="24"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="62"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="75"/>
       <c r="D14" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
+      <c r="E14" s="89">
+        <v>515638.18106022</v>
+      </c>
+      <c r="F14" s="89">
+        <v>36.472461727279</v>
+      </c>
+      <c r="G14" s="89">
+        <v>790460.62450856</v>
+      </c>
+      <c r="H14" s="89">
+        <v>25.888705592225</v>
+      </c>
+      <c r="I14" s="89">
+        <v>1315324.0172191</v>
+      </c>
+      <c r="J14" s="89">
+        <v>29.444847653603</v>
+      </c>
       <c r="K14" s="30"/>
       <c r="L14" s="30"/>
       <c r="M14" s="30"/>
@@ -2357,28 +2381,28 @@
       <c r="O14" s="30"/>
       <c r="P14" s="30"/>
       <c r="Q14" s="25"/>
-      <c r="R14" s="61"/>
-      <c r="S14" s="62"/>
+      <c r="R14" s="67"/>
+      <c r="S14" s="75"/>
       <c r="T14" s="29" t="s">
         <v>31</v>
       </c>
       <c r="U14" s="89">
-        <v>1.0753921568627</v>
+        <v>0.39214387959434</v>
       </c>
       <c r="V14" s="89">
-        <v>0.00081967153618088</v>
+        <v>0.0013090418317107</v>
       </c>
       <c r="W14" s="89">
-        <v>1.0115186321216</v>
+        <v>0.26189756727352</v>
       </c>
       <c r="X14" s="89">
-        <v>3.9536528106324E-5</v>
+        <v>0.00021174426735215</v>
       </c>
       <c r="Y14" s="89">
-        <v>1.0434553944922</v>
+        <v>0.30566032821332</v>
       </c>
       <c r="Z14" s="89">
-        <v>0.0004296040321436</v>
+        <v>0.00076039304953143</v>
       </c>
       <c r="AA14" s="30"/>
       <c r="AB14" s="30"/>
@@ -2387,8 +2411,8 @@
       <c r="AE14" s="30"/>
       <c r="AF14" s="30"/>
       <c r="AG14" s="25"/>
-      <c r="AH14" s="61"/>
-      <c r="AI14" s="62"/>
+      <c r="AH14" s="67"/>
+      <c r="AI14" s="75"/>
       <c r="AJ14" s="29" t="s">
         <v>31</v>
       </c>
@@ -2396,22 +2420,22 @@
         <v>30</v>
       </c>
       <c r="AL14" s="89">
-        <v>151.46112040689</v>
+        <v>55.165727229407</v>
       </c>
       <c r="AM14" s="89">
-        <v>12.906002069872</v>
+        <v>4.7006716172178</v>
       </c>
       <c r="AN14" s="89">
-        <v>332.19980342637</v>
+        <v>86.749308557244</v>
       </c>
       <c r="AO14" s="89">
-        <v>28.306745249961</v>
+        <v>7.3919085821628</v>
       </c>
       <c r="AP14" s="89">
-        <v>483.66092383326</v>
+        <v>142.83971896297</v>
       </c>
       <c r="AQ14" s="89">
-        <v>41.212747319832</v>
+        <v>12.171372452835</v>
       </c>
       <c r="AR14" s="30"/>
       <c r="AS14" s="30"/>
@@ -2420,28 +2444,28 @@
       <c r="AV14" s="30"/>
       <c r="AW14" s="30"/>
       <c r="AX14" s="25"/>
-      <c r="AY14" s="61"/>
-      <c r="AZ14" s="62"/>
+      <c r="AY14" s="67"/>
+      <c r="AZ14" s="75"/>
       <c r="BA14" s="29" t="s">
         <v>31</v>
       </c>
       <c r="BB14" s="89">
-        <v>5.5635490196078</v>
+        <v>2.0273265099154</v>
       </c>
       <c r="BC14" s="89">
-        <v>0.0062685426462062</v>
+        <v>0.0053020782851562</v>
       </c>
       <c r="BD14" s="89">
-        <v>4.9186767169179</v>
+        <v>1.2756060729673</v>
       </c>
       <c r="BE14" s="89">
-        <v>0.0036963738931434</v>
+        <v>0.0018230800671973</v>
       </c>
       <c r="BF14" s="89">
-        <v>5.2411128682629</v>
+        <v>1.5281841397818</v>
       </c>
       <c r="BG14" s="89">
-        <v>0.0049824582696748</v>
+        <v>0.0035625791761768</v>
       </c>
       <c r="BH14" s="30"/>
       <c r="BI14" s="30"/>
@@ -2461,17 +2485,29 @@
     </row>
     <row r="15" spans="1:75">
       <c r="A15" s="24"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="59"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="68"/>
       <c r="D15" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
+      <c r="E15" s="89">
+        <v>30344.552541076</v>
+      </c>
+      <c r="F15" s="89">
+        <v>2.1463510109166</v>
+      </c>
+      <c r="G15" s="89">
+        <v>33083.940969713</v>
+      </c>
+      <c r="H15" s="89">
+        <v>1.0835459490825</v>
+      </c>
+      <c r="I15" s="89">
+        <v>64354.875554496</v>
+      </c>
+      <c r="J15" s="89">
+        <v>1.4406484498587</v>
+      </c>
       <c r="K15" s="30"/>
       <c r="L15" s="30"/>
       <c r="M15" s="30"/>
@@ -2479,28 +2515,28 @@
       <c r="O15" s="30"/>
       <c r="P15" s="30"/>
       <c r="Q15" s="25"/>
-      <c r="R15" s="61"/>
-      <c r="S15" s="59"/>
+      <c r="R15" s="67"/>
+      <c r="S15" s="68"/>
       <c r="T15" s="29" t="s">
         <v>32</v>
       </c>
       <c r="U15" s="89">
-        <v>1.0825</v>
+        <v>0.022654660551644</v>
       </c>
       <c r="V15" s="89">
-        <v>0.010661798244149</v>
+        <v>0.0020058347221686</v>
       </c>
       <c r="W15" s="89">
-        <v>1.0454545454545</v>
+        <v>0.011437185754696</v>
       </c>
       <c r="X15" s="89">
-        <v>0.0044021757814241</v>
+        <v>0.0005984245529923</v>
       </c>
       <c r="Y15" s="89">
-        <v>1.0639772727273</v>
+        <v>0.015206257286471</v>
       </c>
       <c r="Z15" s="89">
-        <v>0.0075319870127866</v>
+        <v>0.0013021296375804</v>
       </c>
       <c r="AA15" s="30"/>
       <c r="AB15" s="30"/>
@@ -2509,8 +2545,8 @@
       <c r="AE15" s="30"/>
       <c r="AF15" s="30"/>
       <c r="AG15" s="25"/>
-      <c r="AH15" s="61"/>
-      <c r="AI15" s="59"/>
+      <c r="AH15" s="67"/>
+      <c r="AI15" s="68"/>
       <c r="AJ15" s="29" t="s">
         <v>32</v>
       </c>
@@ -2518,22 +2554,22 @@
         <v>30</v>
       </c>
       <c r="AL15" s="89">
-        <v>328.06463474778</v>
+        <v>6.8460990093975</v>
       </c>
       <c r="AM15" s="89">
-        <v>27.954387526858</v>
+        <v>0.58335609659076</v>
       </c>
       <c r="AN15" s="89">
-        <v>664.32937920329</v>
+        <v>7.184322960601</v>
       </c>
       <c r="AO15" s="89">
-        <v>56.607506401912</v>
+        <v>0.61217615947281</v>
       </c>
       <c r="AP15" s="89">
-        <v>992.39401395106</v>
+        <v>14.247412992399</v>
       </c>
       <c r="AQ15" s="89">
-        <v>84.56189392877</v>
+        <v>1.2140220610823</v>
       </c>
       <c r="AR15" s="30"/>
       <c r="AS15" s="30"/>
@@ -2542,28 +2578,28 @@
       <c r="AV15" s="30"/>
       <c r="AW15" s="30"/>
       <c r="AX15" s="25"/>
-      <c r="AY15" s="61"/>
-      <c r="AZ15" s="59"/>
+      <c r="AY15" s="67"/>
+      <c r="AZ15" s="68"/>
       <c r="BA15" s="29" t="s">
         <v>32</v>
       </c>
       <c r="BB15" s="89">
-        <v>4.46925</v>
+        <v>0.11511019313998</v>
       </c>
       <c r="BC15" s="89">
-        <v>0.082843886910987</v>
+        <v>0.011440320696405</v>
       </c>
       <c r="BD15" s="89">
-        <v>4.5227272727273</v>
+        <v>0.053865467469355</v>
       </c>
       <c r="BE15" s="89">
-        <v>0.22430815238838</v>
+        <v>0.0016420162338177</v>
       </c>
       <c r="BF15" s="89">
-        <v>4.4959886363636</v>
+        <v>0.074443695294684</v>
       </c>
       <c r="BG15" s="89">
-        <v>0.15357601964968</v>
+        <v>0.0065411684651113</v>
       </c>
       <c r="BH15" s="30"/>
       <c r="BI15" s="30"/>
@@ -2583,19 +2619,31 @@
     </row>
     <row r="16" spans="1:75">
       <c r="A16" s="24"/>
-      <c r="B16" s="61"/>
-      <c r="C16" s="61" t="s">
+      <c r="B16" s="67"/>
+      <c r="C16" s="67" t="s">
         <v>33</v>
       </c>
       <c r="D16" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
+      <c r="E16" s="89">
+        <v>52240.004082617</v>
+      </c>
+      <c r="F16" s="89">
+        <v>3.6950746075835</v>
+      </c>
+      <c r="G16" s="89">
+        <v>167291.39929773</v>
+      </c>
+      <c r="H16" s="89">
+        <v>5.479030390948</v>
+      </c>
+      <c r="I16" s="89">
+        <v>217976.4384448</v>
+      </c>
+      <c r="J16" s="89">
+        <v>4.8796212477375</v>
+      </c>
       <c r="K16" s="30"/>
       <c r="L16" s="30"/>
       <c r="M16" s="30"/>
@@ -2603,30 +2651,30 @@
       <c r="O16" s="30"/>
       <c r="P16" s="30"/>
       <c r="Q16" s="25"/>
-      <c r="R16" s="61"/>
-      <c r="S16" s="61" t="s">
+      <c r="R16" s="67"/>
+      <c r="S16" s="67" t="s">
         <v>33</v>
       </c>
       <c r="T16" s="29" t="s">
         <v>29</v>
       </c>
       <c r="U16" s="89">
-        <v>1</v>
+        <v>0.036950746075835</v>
       </c>
       <c r="V16" s="89">
-        <v>0.04465573756373</v>
+        <v>0.0019376231494689</v>
       </c>
       <c r="W16" s="89">
-        <v>1</v>
+        <v>0.05479030390948</v>
       </c>
       <c r="X16" s="89">
-        <v>0</v>
+        <v>0.00052082324880268</v>
       </c>
       <c r="Y16" s="89">
-        <v>1</v>
+        <v>0.048796212477375</v>
       </c>
       <c r="Z16" s="89">
-        <v>0.022327868781865</v>
+        <v>0.0012292231991358</v>
       </c>
       <c r="AA16" s="30"/>
       <c r="AB16" s="30"/>
@@ -2635,8 +2683,8 @@
       <c r="AE16" s="30"/>
       <c r="AF16" s="30"/>
       <c r="AG16" s="25"/>
-      <c r="AH16" s="61"/>
-      <c r="AI16" s="61" t="s">
+      <c r="AH16" s="67"/>
+      <c r="AI16" s="67" t="s">
         <v>33</v>
       </c>
       <c r="AJ16" s="29" t="s">
@@ -2646,22 +2694,22 @@
         <v>30</v>
       </c>
       <c r="AL16" s="89">
-        <v>88.477562250864</v>
+        <v>3.2685301642238</v>
       </c>
       <c r="AM16" s="89">
-        <v>7.5391730793961</v>
+        <v>0.27851145529351</v>
       </c>
       <c r="AN16" s="89">
-        <v>249.96806773067</v>
+        <v>14.254972421492</v>
       </c>
       <c r="AO16" s="89">
-        <v>21.29977905133</v>
+        <v>1.2146662000353</v>
       </c>
       <c r="AP16" s="89">
-        <v>338.44562998153</v>
+        <v>17.318075901583</v>
       </c>
       <c r="AQ16" s="89">
-        <v>28.838952130726</v>
+        <v>1.4756732475739</v>
       </c>
       <c r="AR16" s="30"/>
       <c r="AS16" s="30"/>
@@ -2670,30 +2718,30 @@
       <c r="AV16" s="30"/>
       <c r="AW16" s="30"/>
       <c r="AX16" s="25"/>
-      <c r="AY16" s="61"/>
-      <c r="AZ16" s="61" t="s">
+      <c r="AY16" s="67"/>
+      <c r="AZ16" s="67" t="s">
         <v>33</v>
       </c>
       <c r="BA16" s="29" t="s">
         <v>29</v>
       </c>
       <c r="BB16" s="89">
-        <v>3.5</v>
+        <v>0.12932761126542</v>
       </c>
       <c r="BC16" s="89">
-        <v>0.17744972121765</v>
+        <v>0.0076669166799549</v>
       </c>
       <c r="BD16" s="89">
-        <v>4.1148957298908</v>
+        <v>0.23007320403278</v>
       </c>
       <c r="BE16" s="89">
-        <v>0.026244717319168</v>
+        <v>0.0031966483584097</v>
       </c>
       <c r="BF16" s="89">
-        <v>3.8074478649454</v>
+        <v>0.19622268486295</v>
       </c>
       <c r="BG16" s="89">
-        <v>0.10184721926841</v>
+        <v>0.0054317825191823</v>
       </c>
       <c r="BH16" s="30"/>
       <c r="BI16" s="30"/>
@@ -2713,17 +2761,29 @@
     </row>
     <row r="17" spans="1:75">
       <c r="A17" s="24"/>
-      <c r="B17" s="61"/>
-      <c r="C17" s="61"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="67"/>
       <c r="D17" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
+      <c r="E17" s="89">
+        <v>411187.1862662</v>
+      </c>
+      <c r="F17" s="89">
+        <v>29.084364705122</v>
+      </c>
+      <c r="G17" s="89">
+        <v>935689.68504083</v>
+      </c>
+      <c r="H17" s="89">
+        <v>30.645163124683</v>
+      </c>
+      <c r="I17" s="89">
+        <v>1345516.4189704</v>
+      </c>
+      <c r="J17" s="89">
+        <v>30.12073485571</v>
+      </c>
       <c r="K17" s="30"/>
       <c r="L17" s="30"/>
       <c r="M17" s="30"/>
@@ -2731,28 +2791,28 @@
       <c r="O17" s="30"/>
       <c r="P17" s="30"/>
       <c r="Q17" s="25"/>
-      <c r="R17" s="61"/>
-      <c r="S17" s="61"/>
+      <c r="R17" s="67"/>
+      <c r="S17" s="67"/>
       <c r="T17" s="29" t="s">
         <v>31</v>
       </c>
       <c r="U17" s="89">
-        <v>1.0378847408481</v>
+        <v>0.30156628124798</v>
       </c>
       <c r="V17" s="89">
-        <v>0.00026476605741441</v>
+        <v>0.0005934263430413</v>
       </c>
       <c r="W17" s="89">
-        <v>1.0696592958885</v>
+        <v>0.32637133995793</v>
       </c>
       <c r="X17" s="89">
-        <v>0.00012178915237873</v>
+        <v>0.00029187355852899</v>
       </c>
       <c r="Y17" s="89">
-        <v>1.0537720183683</v>
+        <v>0.31803684023139</v>
       </c>
       <c r="Z17" s="89">
-        <v>0.00019327760489657</v>
+        <v>0.00044264995078514</v>
       </c>
       <c r="AA17" s="30"/>
       <c r="AB17" s="30"/>
@@ -2761,8 +2821,8 @@
       <c r="AE17" s="30"/>
       <c r="AF17" s="30"/>
       <c r="AG17" s="25"/>
-      <c r="AH17" s="61"/>
-      <c r="AI17" s="61"/>
+      <c r="AH17" s="67"/>
+      <c r="AI17" s="67"/>
       <c r="AJ17" s="29" t="s">
         <v>31</v>
       </c>
@@ -2770,22 +2830,22 @@
         <v>30</v>
       </c>
       <c r="AL17" s="89">
-        <v>183.79685635686</v>
+        <v>53.979867866856</v>
       </c>
       <c r="AM17" s="89">
-        <v>15.661330130168</v>
+        <v>4.5996245409348</v>
       </c>
       <c r="AN17" s="89">
-        <v>365.44087176649</v>
+        <v>112.25588477866</v>
       </c>
       <c r="AO17" s="89">
-        <v>31.139216683222</v>
+        <v>9.5653239419896</v>
       </c>
       <c r="AP17" s="89">
-        <v>549.23772812334</v>
+        <v>166.35917712867</v>
       </c>
       <c r="AQ17" s="89">
-        <v>46.80054681339</v>
+        <v>14.175465483134</v>
       </c>
       <c r="AR17" s="30"/>
       <c r="AS17" s="30"/>
@@ -2794,28 +2854,28 @@
       <c r="AV17" s="30"/>
       <c r="AW17" s="30"/>
       <c r="AX17" s="25"/>
-      <c r="AY17" s="61"/>
-      <c r="AZ17" s="61"/>
+      <c r="AY17" s="67"/>
+      <c r="AZ17" s="67"/>
       <c r="BA17" s="29" t="s">
         <v>31</v>
       </c>
       <c r="BB17" s="89">
-        <v>3.8736146429866</v>
+        <v>1.1338209721594</v>
       </c>
       <c r="BC17" s="89">
-        <v>0.0022482569752619</v>
+        <v>0.0030376208882249</v>
       </c>
       <c r="BD17" s="89">
-        <v>4.1206599489955</v>
+        <v>1.2705874809603</v>
       </c>
       <c r="BE17" s="89">
-        <v>0.0019598981140316</v>
+        <v>0.0017729843928331</v>
       </c>
       <c r="BF17" s="89">
-        <v>3.997137295991</v>
+        <v>1.2246339340032</v>
       </c>
       <c r="BG17" s="89">
-        <v>0.0021040775446467</v>
+        <v>0.002405302640529</v>
       </c>
       <c r="BH17" s="30"/>
       <c r="BI17" s="30"/>
@@ -2835,19 +2895,31 @@
     </row>
     <row r="18" spans="1:75">
       <c r="A18" s="24"/>
-      <c r="B18" s="61"/>
-      <c r="C18" s="58" t="s">
+      <c r="B18" s="67"/>
+      <c r="C18" s="69" t="s">
         <v>34</v>
       </c>
       <c r="D18" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
+      <c r="E18" s="89">
+        <v>5058.499992817</v>
+      </c>
+      <c r="F18" s="89">
+        <v>0.35780117563465</v>
+      </c>
+      <c r="G18" s="89">
+        <v>12868.421989387</v>
+      </c>
+      <c r="H18" s="89">
+        <v>0.42145905563212</v>
+      </c>
+      <c r="I18" s="89">
+        <v>17871.435309165</v>
+      </c>
+      <c r="J18" s="89">
+        <v>0.40007000795297</v>
+      </c>
       <c r="K18" s="30"/>
       <c r="L18" s="30"/>
       <c r="M18" s="30"/>
@@ -2855,30 +2927,30 @@
       <c r="O18" s="30"/>
       <c r="P18" s="30"/>
       <c r="Q18" s="25"/>
-      <c r="R18" s="61"/>
-      <c r="S18" s="58" t="s">
+      <c r="R18" s="67"/>
+      <c r="S18" s="69" t="s">
         <v>34</v>
       </c>
       <c r="T18" s="29" t="s">
         <v>29</v>
       </c>
       <c r="U18" s="89">
-        <v>1</v>
+        <v>0.0035780117563465</v>
       </c>
       <c r="V18" s="89">
-        <v>0.23804761428476</v>
+        <v>0.003685178553238</v>
       </c>
       <c r="W18" s="89">
-        <v>1</v>
+        <v>0.0042145905563212</v>
       </c>
       <c r="X18" s="89">
-        <v>0.13363062095621</v>
+        <v>0.0015722799108139</v>
       </c>
       <c r="Y18" s="89">
-        <v>1</v>
+        <v>0.0040007000795297</v>
       </c>
       <c r="Z18" s="89">
-        <v>0.18583911762049</v>
+        <v>0.0026287292320259</v>
       </c>
       <c r="AA18" s="30"/>
       <c r="AB18" s="30"/>
@@ -2887,8 +2959,8 @@
       <c r="AE18" s="30"/>
       <c r="AF18" s="30"/>
       <c r="AG18" s="25"/>
-      <c r="AH18" s="61"/>
-      <c r="AI18" s="58" t="s">
+      <c r="AH18" s="67"/>
+      <c r="AI18" s="69" t="s">
         <v>34</v>
       </c>
       <c r="AJ18" s="29" t="s">
@@ -2898,22 +2970,22 @@
         <v>30</v>
       </c>
       <c r="AL18" s="89">
-        <v>330.49750971006</v>
+        <v>1.0768426722641</v>
       </c>
       <c r="AM18" s="89">
-        <v>28.161692802394</v>
+        <v>0.091757764103621</v>
       </c>
       <c r="AN18" s="89">
-        <v>590.47432332029</v>
+        <v>2.5835317051781</v>
       </c>
       <c r="AO18" s="89">
-        <v>50.314317090122</v>
+        <v>0.22014273659823</v>
       </c>
       <c r="AP18" s="89">
-        <v>920.97183303035</v>
+        <v>3.653012190404</v>
       </c>
       <c r="AQ18" s="89">
-        <v>78.476009892516</v>
+        <v>0.31127316874432</v>
       </c>
       <c r="AR18" s="30"/>
       <c r="AS18" s="30"/>
@@ -2922,30 +2994,30 @@
       <c r="AV18" s="30"/>
       <c r="AW18" s="30"/>
       <c r="AX18" s="25"/>
-      <c r="AY18" s="61"/>
-      <c r="AZ18" s="58" t="s">
+      <c r="AY18" s="67"/>
+      <c r="AZ18" s="69" t="s">
         <v>34</v>
       </c>
       <c r="BA18" s="29" t="s">
         <v>29</v>
       </c>
       <c r="BB18" s="89">
-        <v>2.19</v>
+        <v>0.011932026354887</v>
       </c>
       <c r="BC18" s="89">
-        <v>1.0712142642814</v>
+        <v>0.016583303489571</v>
       </c>
       <c r="BD18" s="89">
-        <v>4.2916666666667</v>
+        <v>0.018666674403424</v>
       </c>
       <c r="BE18" s="89">
-        <v>0.70625863294813</v>
+        <v>0.007996949798337</v>
       </c>
       <c r="BF18" s="89">
-        <v>3.2408333333333</v>
+        <v>0.016403832659115</v>
       </c>
       <c r="BG18" s="89">
-        <v>0.88873644861478</v>
+        <v>0.012290126643954</v>
       </c>
       <c r="BH18" s="30"/>
       <c r="BI18" s="30"/>
@@ -2965,17 +3037,29 @@
     </row>
     <row r="19" spans="1:75">
       <c r="A19" s="24"/>
-      <c r="B19" s="61"/>
-      <c r="C19" s="59"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="68"/>
       <c r="D19" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
+      <c r="E19" s="89">
+        <v>35383.710286416</v>
+      </c>
+      <c r="F19" s="89">
+        <v>2.5027840578774</v>
+      </c>
+      <c r="G19" s="89">
+        <v>29403.695449313</v>
+      </c>
+      <c r="H19" s="89">
+        <v>0.9630126931167</v>
+      </c>
+      <c r="I19" s="89">
+        <v>66129.530077201</v>
+      </c>
+      <c r="J19" s="89">
+        <v>1.4803758716763</v>
+      </c>
       <c r="K19" s="30"/>
       <c r="L19" s="30"/>
       <c r="M19" s="30"/>
@@ -2983,28 +3067,28 @@
       <c r="O19" s="30"/>
       <c r="P19" s="30"/>
       <c r="Q19" s="25"/>
-      <c r="R19" s="61"/>
-      <c r="S19" s="59"/>
+      <c r="R19" s="67"/>
+      <c r="S19" s="68"/>
       <c r="T19" s="29" t="s">
         <v>31</v>
       </c>
       <c r="U19" s="89">
-        <v>1.088</v>
+        <v>0.02741014146373</v>
       </c>
       <c r="V19" s="89">
-        <v>0.12730600044301</v>
+        <v>0.005287083974466</v>
       </c>
       <c r="W19" s="89">
-        <v>1</v>
+        <v>0.009630126931167</v>
       </c>
       <c r="X19" s="89">
-        <v>0</v>
+        <v>0.00048114008126933</v>
       </c>
       <c r="Y19" s="89">
-        <v>1.044</v>
+        <v>0.015604211814108</v>
       </c>
       <c r="Z19" s="89">
-        <v>0.063653000221505</v>
+        <v>0.0028841120278677</v>
       </c>
       <c r="AA19" s="30"/>
       <c r="AB19" s="30"/>
@@ -3013,8 +3097,8 @@
       <c r="AE19" s="30"/>
       <c r="AF19" s="30"/>
       <c r="AG19" s="25"/>
-      <c r="AH19" s="61"/>
-      <c r="AI19" s="59"/>
+      <c r="AH19" s="67"/>
+      <c r="AI19" s="68"/>
       <c r="AJ19" s="29" t="s">
         <v>31</v>
       </c>
@@ -3022,22 +3106,22 @@
         <v>30</v>
       </c>
       <c r="AL19" s="89">
-        <v>225.53261780544</v>
+        <v>5.7506548997069</v>
       </c>
       <c r="AM19" s="89">
-        <v>19.217634363202</v>
+        <v>0.49001330400402</v>
       </c>
       <c r="AN19" s="89">
-        <v>442.22005116667</v>
+        <v>3.322467096181</v>
       </c>
       <c r="AO19" s="89">
-        <v>37.681570559912</v>
+        <v>0.28310742126559</v>
       </c>
       <c r="AP19" s="89">
-        <v>667.75266897211</v>
+        <v>9.33282120007</v>
       </c>
       <c r="AQ19" s="89">
-        <v>56.899204923113</v>
+        <v>0.79524969445797</v>
       </c>
       <c r="AR19" s="30"/>
       <c r="AS19" s="30"/>
@@ -3046,28 +3130,28 @@
       <c r="AV19" s="30"/>
       <c r="AW19" s="30"/>
       <c r="AX19" s="25"/>
-      <c r="AY19" s="61"/>
-      <c r="AZ19" s="59"/>
+      <c r="AY19" s="67"/>
+      <c r="AZ19" s="68"/>
       <c r="BA19" s="29" t="s">
         <v>31</v>
       </c>
       <c r="BB19" s="89">
-        <v>3.5884</v>
+        <v>0.093056212130999</v>
       </c>
       <c r="BC19" s="89">
-        <v>0.27326909659163</v>
+        <v>0.016485411013282</v>
       </c>
       <c r="BD19" s="89">
-        <v>2.125</v>
+        <v>0.019862606803511</v>
       </c>
       <c r="BE19" s="89">
-        <v>0.36190645868668</v>
+        <v>0.0022373950760495</v>
       </c>
       <c r="BF19" s="89">
-        <v>2.8567</v>
+        <v>0.044455658193547</v>
       </c>
       <c r="BG19" s="89">
-        <v>0.31758777763916</v>
+        <v>0.0093614030446657</v>
       </c>
       <c r="BH19" s="30"/>
       <c r="BI19" s="30"/>
@@ -3087,7 +3171,7 @@
     </row>
     <row r="20" spans="1:75">
       <c r="A20" s="24"/>
-      <c r="B20" s="61" t="s">
+      <c r="B20" s="67" t="s">
         <v>35</v>
       </c>
       <c r="C20" s="29" t="s">
@@ -3096,12 +3180,24 @@
       <c r="D20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
+      <c r="E20" s="89">
+        <v>10104.105153982</v>
+      </c>
+      <c r="F20" s="89">
+        <v>0.71469026548673</v>
+      </c>
+      <c r="G20" s="89">
+        <v>7349.0104266338</v>
+      </c>
+      <c r="H20" s="89">
+        <v>0.24069050554871</v>
+      </c>
+      <c r="I20" s="89">
+        <v>17866.272124649</v>
+      </c>
+      <c r="J20" s="89">
+        <v>0.39995442488788</v>
+      </c>
       <c r="K20" s="30"/>
       <c r="L20" s="30"/>
       <c r="M20" s="30"/>
@@ -3109,7 +3205,7 @@
       <c r="O20" s="30"/>
       <c r="P20" s="30"/>
       <c r="Q20" s="25"/>
-      <c r="R20" s="61" t="s">
+      <c r="R20" s="67" t="s">
         <v>35</v>
       </c>
       <c r="S20" s="29" t="s">
@@ -3119,19 +3215,19 @@
         <v>37</v>
       </c>
       <c r="U20" s="89">
-        <v>0.66</v>
+        <v>0.0071469026548673</v>
       </c>
       <c r="V20" s="89">
         <v>0</v>
       </c>
       <c r="W20" s="89">
-        <v>0.625</v>
+        <v>0.0030086313193588</v>
       </c>
       <c r="X20" s="89">
         <v>0</v>
       </c>
       <c r="Y20" s="89">
-        <v>0.6425</v>
+        <v>0.0043990904880897</v>
       </c>
       <c r="Z20" s="89">
         <v>0</v>
@@ -3143,7 +3239,7 @@
       <c r="AE20" s="30"/>
       <c r="AF20" s="30"/>
       <c r="AG20" s="25"/>
-      <c r="AH20" s="61" t="s">
+      <c r="AH20" s="67" t="s">
         <v>35</v>
       </c>
       <c r="AI20" s="29" t="s">
@@ -3156,22 +3252,22 @@
         <v>30</v>
       </c>
       <c r="AL20" s="89">
-        <v>299.00312786025</v>
+        <v>3.2377973459364</v>
       </c>
       <c r="AM20" s="89">
-        <v>25.478056524972</v>
+        <v>0.27589271184724</v>
       </c>
       <c r="AN20" s="89">
-        <v>483.07012839319</v>
+        <v>2.3254078683687</v>
       </c>
       <c r="AO20" s="89">
-        <v>41.162405640383</v>
+        <v>0.1981480044637</v>
       </c>
       <c r="AP20" s="89">
-        <v>782.07325625344</v>
+        <v>5.6964418396012</v>
       </c>
       <c r="AQ20" s="89">
-        <v>66.640462165355</v>
+        <v>0.48539380915242</v>
       </c>
       <c r="AR20" s="30"/>
       <c r="AS20" s="30"/>
@@ -3180,7 +3276,7 @@
       <c r="AV20" s="30"/>
       <c r="AW20" s="30"/>
       <c r="AX20" s="25"/>
-      <c r="AY20" s="61" t="s">
+      <c r="AY20" s="67" t="s">
         <v>35</v>
       </c>
       <c r="AZ20" s="29" t="s">
@@ -3190,19 +3286,19 @@
         <v>37</v>
       </c>
       <c r="BB20" s="89">
-        <v>0.99</v>
+        <v>0.010720353982301</v>
       </c>
       <c r="BC20" s="89">
         <v>0</v>
       </c>
       <c r="BD20" s="89">
-        <v>0.875</v>
+        <v>0.0042120838471023</v>
       </c>
       <c r="BE20" s="89">
         <v>0</v>
       </c>
       <c r="BF20" s="89">
-        <v>0.9325</v>
+        <v>0.0063988626125291</v>
       </c>
       <c r="BG20" s="89">
         <v>0</v>
@@ -3225,19 +3321,31 @@
     </row>
     <row r="21" spans="1:75">
       <c r="A21" s="24"/>
-      <c r="B21" s="61"/>
+      <c r="B21" s="67"/>
       <c r="C21" s="34" t="s">
         <v>38</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
+      <c r="E21" s="89">
+        <v>13481.811329049</v>
+      </c>
+      <c r="F21" s="89">
+        <v>0.95360441831923</v>
+      </c>
+      <c r="G21" s="89">
+        <v>16539.100331315</v>
+      </c>
+      <c r="H21" s="89">
+        <v>0.54167897294553</v>
+      </c>
+      <c r="I21" s="89">
+        <v>30379.961828304</v>
+      </c>
+      <c r="J21" s="89">
+        <v>0.68008592259109</v>
+      </c>
       <c r="K21" s="30"/>
       <c r="L21" s="30"/>
       <c r="M21" s="30"/>
@@ -3245,7 +3353,7 @@
       <c r="O21" s="30"/>
       <c r="P21" s="30"/>
       <c r="Q21" s="25"/>
-      <c r="R21" s="61"/>
+      <c r="R21" s="67"/>
       <c r="S21" s="34" t="s">
         <v>38</v>
       </c>
@@ -3253,22 +3361,22 @@
         <v>37</v>
       </c>
       <c r="U21" s="89">
-        <v>1</v>
+        <v>0.0095360441831923</v>
       </c>
       <c r="V21" s="89">
-        <v>0.11124297730643</v>
+        <v>0.003135810808497</v>
       </c>
       <c r="W21" s="89">
-        <v>1.0714285714286</v>
+        <v>0.006018515993327</v>
       </c>
       <c r="X21" s="89">
-        <v>0.6236597767331</v>
+        <v>0.0021118964465534</v>
       </c>
       <c r="Y21" s="89">
-        <v>1.0357142857143</v>
+        <v>0.0072004054651218</v>
       </c>
       <c r="Z21" s="89">
-        <v>0.36745137701977</v>
+        <v>0.0026238536275252</v>
       </c>
       <c r="AA21" s="30"/>
       <c r="AB21" s="30"/>
@@ -3277,7 +3385,7 @@
       <c r="AE21" s="30"/>
       <c r="AF21" s="30"/>
       <c r="AG21" s="25"/>
-      <c r="AH21" s="61"/>
+      <c r="AH21" s="67"/>
       <c r="AI21" s="34" t="s">
         <v>38</v>
       </c>
@@ -3288,22 +3396,22 @@
         <v>30</v>
       </c>
       <c r="AL21" s="89">
-        <v>485.18670880152</v>
+        <v>4.5594829810831</v>
       </c>
       <c r="AM21" s="89">
-        <v>41.342759456978</v>
+        <v>0.38851354481809</v>
       </c>
       <c r="AN21" s="89">
-        <v>550.94300946064</v>
+        <v>3.994893802646</v>
       </c>
       <c r="AO21" s="89">
-        <v>46.945853836141</v>
+        <v>0.34040490092347</v>
       </c>
       <c r="AP21" s="89">
-        <v>1036.1297182622</v>
+        <v>8.721440238677</v>
       </c>
       <c r="AQ21" s="89">
-        <v>88.288613293119</v>
+        <v>0.74315392273767</v>
       </c>
       <c r="AR21" s="30"/>
       <c r="AS21" s="30"/>
@@ -3312,7 +3420,7 @@
       <c r="AV21" s="30"/>
       <c r="AW21" s="30"/>
       <c r="AX21" s="25"/>
-      <c r="AY21" s="61"/>
+      <c r="AY21" s="67"/>
       <c r="AZ21" s="34" t="s">
         <v>38</v>
       </c>
@@ -3320,22 +3428,22 @@
         <v>37</v>
       </c>
       <c r="BB21" s="89">
-        <v>3.4333333333333</v>
+        <v>0.032177023448098</v>
       </c>
       <c r="BC21" s="89">
-        <v>0.54078132775129</v>
+        <v>0.0079046312382547</v>
       </c>
       <c r="BD21" s="89">
-        <v>2.3214285714286</v>
+        <v>0.012037658663959</v>
       </c>
       <c r="BE21" s="89">
-        <v>1.5745568566719</v>
+        <v>0.0062508603975326</v>
       </c>
       <c r="BF21" s="89">
-        <v>2.877380952381</v>
+        <v>0.018804485231429</v>
       </c>
       <c r="BG21" s="89">
-        <v>1.0576690922116</v>
+        <v>0.0070777458178937</v>
       </c>
       <c r="BH21" s="30"/>
       <c r="BI21" s="30"/>
@@ -3355,19 +3463,31 @@
     </row>
     <row r="22" spans="1:75">
       <c r="A22" s="24"/>
-      <c r="B22" s="61"/>
+      <c r="B22" s="67"/>
       <c r="C22" s="29" t="s">
         <v>39</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
+      <c r="E22" s="89">
+        <v>11794.570095472</v>
+      </c>
+      <c r="F22" s="89">
+        <v>0.8342613526258</v>
+      </c>
+      <c r="G22" s="89">
+        <v>16539.100331315</v>
+      </c>
+      <c r="H22" s="89">
+        <v>0.54167897294553</v>
+      </c>
+      <c r="I22" s="89">
+        <v>28588.696557706</v>
+      </c>
+      <c r="J22" s="89">
+        <v>0.6399866525181</v>
+      </c>
       <c r="K22" s="30"/>
       <c r="L22" s="30"/>
       <c r="M22" s="30"/>
@@ -3375,7 +3495,7 @@
       <c r="O22" s="30"/>
       <c r="P22" s="30"/>
       <c r="Q22" s="25"/>
-      <c r="R22" s="61"/>
+      <c r="R22" s="67"/>
       <c r="S22" s="29" t="s">
         <v>39</v>
       </c>
@@ -3383,22 +3503,22 @@
         <v>37</v>
       </c>
       <c r="U22" s="89">
-        <v>2.02</v>
+        <v>0.015503197467864</v>
       </c>
       <c r="V22" s="89">
-        <v>1.8132843130629</v>
+        <v>0.049390462265439</v>
       </c>
       <c r="W22" s="89">
-        <v>1</v>
+        <v>0.0054167897294553</v>
       </c>
       <c r="X22" s="89">
-        <v>0.76549254469187</v>
+        <v>0.0018746699498717</v>
       </c>
       <c r="Y22" s="89">
-        <v>1.51</v>
+        <v>0.0088058227295606</v>
       </c>
       <c r="Z22" s="89">
-        <v>1.2893884288774</v>
+        <v>0.025632566107655</v>
       </c>
       <c r="AA22" s="30"/>
       <c r="AB22" s="30"/>
@@ -3407,7 +3527,7 @@
       <c r="AE22" s="30"/>
       <c r="AF22" s="30"/>
       <c r="AG22" s="25"/>
-      <c r="AH22" s="61"/>
+      <c r="AH22" s="67"/>
       <c r="AI22" s="29" t="s">
         <v>39</v>
       </c>
@@ -3418,22 +3538,22 @@
         <v>30</v>
       </c>
       <c r="AL22" s="89">
-        <v>9769.0449362854</v>
+        <v>68.996380666104</v>
       </c>
       <c r="AM22" s="89">
-        <v>832.42031902088</v>
+        <v>5.8791815965587</v>
       </c>
       <c r="AN22" s="89">
-        <v>1472.2137246269</v>
+        <v>5.6993641972234</v>
       </c>
       <c r="AO22" s="89">
-        <v>125.44733147545</v>
+        <v>0.48564282324541</v>
       </c>
       <c r="AP22" s="89">
-        <v>11241.258660912</v>
+        <v>78.786899296487</v>
       </c>
       <c r="AQ22" s="89">
-        <v>957.86765049633</v>
+        <v>6.7134316890537</v>
       </c>
       <c r="AR22" s="30"/>
       <c r="AS22" s="30"/>
@@ -3442,7 +3562,7 @@
       <c r="AV22" s="30"/>
       <c r="AW22" s="30"/>
       <c r="AX22" s="25"/>
-      <c r="AY22" s="61"/>
+      <c r="AY22" s="67"/>
       <c r="AZ22" s="29" t="s">
         <v>39</v>
       </c>
@@ -3450,22 +3570,22 @@
         <v>37</v>
       </c>
       <c r="BB22" s="89">
-        <v>1.83</v>
+        <v>0.015491796395582</v>
       </c>
       <c r="BC22" s="89">
-        <v>0.35886726555332</v>
+        <v>0.013097699768094</v>
       </c>
       <c r="BD22" s="89">
-        <v>2.75</v>
+        <v>0.015648016247189</v>
       </c>
       <c r="BE22" s="89">
-        <v>1.915631190272</v>
+        <v>0.0047471189642774</v>
       </c>
       <c r="BF22" s="89">
-        <v>2.29</v>
+        <v>0.015595526377049</v>
       </c>
       <c r="BG22" s="89">
-        <v>1.1372492279127</v>
+        <v>0.0089224093661857</v>
       </c>
       <c r="BH22" s="30"/>
       <c r="BI22" s="30"/>
@@ -3494,12 +3614,24 @@
       <c r="D23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
+      <c r="E23" s="89">
+        <v>318456.61628565</v>
+      </c>
+      <c r="F23" s="89">
+        <v>22.525284542342</v>
+      </c>
+      <c r="G23" s="89">
+        <v>218719.16479861</v>
+      </c>
+      <c r="H23" s="89">
+        <v>7.1633625879452</v>
+      </c>
+      <c r="I23" s="89">
+        <v>550565.82707333</v>
+      </c>
+      <c r="J23" s="89">
+        <v>12.324968364623</v>
+      </c>
       <c r="K23" s="30"/>
       <c r="L23" s="30"/>
       <c r="M23" s="30"/>
@@ -3517,22 +3649,22 @@
         <v>37</v>
       </c>
       <c r="U23" s="89">
-        <v>1.0209579375848</v>
+        <v>0.23001972740779</v>
       </c>
       <c r="V23" s="89">
-        <v>0.00025385019461842</v>
+        <v>0.0012297686834084</v>
       </c>
       <c r="W23" s="89">
-        <v>1.0178678678679</v>
+        <v>0.0728377050845</v>
       </c>
       <c r="X23" s="89">
-        <v>0.00079857284720369</v>
+        <v>0.00044183663824832</v>
       </c>
       <c r="Y23" s="89">
-        <v>1.0194129027263</v>
+        <v>0.12565086458513</v>
       </c>
       <c r="Z23" s="89">
-        <v>0.00052621152091105</v>
+        <v>0.00083580266082835</v>
       </c>
       <c r="AA23" s="30"/>
       <c r="AB23" s="30"/>
@@ -3554,22 +3686,22 @@
         <v>30</v>
       </c>
       <c r="AL23" s="89">
-        <v>54.669903189243</v>
+        <v>12.522716619176</v>
       </c>
       <c r="AM23" s="89">
-        <v>4.6584224507554</v>
+        <v>1.06706068312</v>
       </c>
       <c r="AN23" s="89">
-        <v>111.58064459322</v>
+        <v>8.3902568407534</v>
       </c>
       <c r="AO23" s="89">
-        <v>9.5077867257882</v>
+        <v>0.7149337854006</v>
       </c>
       <c r="AP23" s="89">
-        <v>166.25054778246</v>
+        <v>21.44552056842</v>
       </c>
       <c r="AQ23" s="89">
-        <v>14.166209176544</v>
+        <v>1.827372807635</v>
       </c>
       <c r="AR23" s="30"/>
       <c r="AS23" s="30"/>
@@ -3588,22 +3720,22 @@
         <v>37</v>
       </c>
       <c r="BB23" s="89">
-        <v>4.920591587517</v>
+        <v>1.1142979975454</v>
       </c>
       <c r="BC23" s="89">
-        <v>0.0053021212921858</v>
+        <v>0.0055347816819894</v>
       </c>
       <c r="BD23" s="89">
-        <v>4.5006006006006</v>
+        <v>0.32685705664757</v>
       </c>
       <c r="BE23" s="89">
-        <v>0.0082398058426936</v>
+        <v>0.0021978415372777</v>
       </c>
       <c r="BF23" s="89">
-        <v>4.7105960940588</v>
+        <v>0.59143721278923</v>
       </c>
       <c r="BG23" s="89">
-        <v>0.0067709635674397</v>
+        <v>0.0038663116096336</v>
       </c>
       <c r="BH23" s="30"/>
       <c r="BI23" s="30"/>
@@ -3632,12 +3764,24 @@
       <c r="D24" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
+      <c r="E24" s="89">
+        <v>32009.227819262</v>
+      </c>
+      <c r="F24" s="89">
+        <v>2.2640979264905</v>
+      </c>
+      <c r="G24" s="89">
+        <v>20221.25928741</v>
+      </c>
+      <c r="H24" s="89">
+        <v>0.66227489664176</v>
+      </c>
+      <c r="I24" s="89">
+        <v>53626.698082076</v>
+      </c>
+      <c r="J24" s="89">
+        <v>1.200487434671</v>
+      </c>
       <c r="K24" s="30"/>
       <c r="L24" s="30"/>
       <c r="M24" s="30"/>
@@ -3655,22 +3799,22 @@
         <v>37</v>
       </c>
       <c r="U24" s="89">
-        <v>1.129</v>
+        <v>0.025025560364318</v>
       </c>
       <c r="V24" s="89">
-        <v>0.19429287381007</v>
+        <v>0.0026886889005029</v>
       </c>
       <c r="W24" s="89">
-        <v>1</v>
+        <v>0.0066227489664176</v>
       </c>
       <c r="X24" s="89">
-        <v>0.087038827977849</v>
+        <v>0.0021262853635597</v>
       </c>
       <c r="Y24" s="89">
-        <v>1.0645</v>
+        <v>0.012806093596112</v>
       </c>
       <c r="Z24" s="89">
-        <v>0.14066585089396</v>
+        <v>0.0024074871320313</v>
       </c>
       <c r="AA24" s="30"/>
       <c r="AB24" s="30"/>
@@ -3692,22 +3836,22 @@
         <v>30</v>
       </c>
       <c r="AL24" s="89">
-        <v>258.03647434818</v>
+        <v>5.9517726409752</v>
       </c>
       <c r="AM24" s="89">
-        <v>21.987287979208</v>
+        <v>0.5071505467375</v>
       </c>
       <c r="AN24" s="89">
-        <v>330.6037102522</v>
+        <v>2.0696568123669</v>
       </c>
       <c r="AO24" s="89">
-        <v>28.17074215059</v>
+        <v>0.17635545698178</v>
       </c>
       <c r="AP24" s="89">
-        <v>588.64018460038</v>
+        <v>8.3292927159471</v>
       </c>
       <c r="AQ24" s="89">
-        <v>50.158030129798</v>
+        <v>0.70973903232585</v>
       </c>
       <c r="AR24" s="30"/>
       <c r="AS24" s="30"/>
@@ -3726,22 +3870,22 @@
         <v>37</v>
       </c>
       <c r="BB24" s="89">
-        <v>3.173</v>
+        <v>0.071498669336606</v>
       </c>
       <c r="BC24" s="89">
-        <v>0.49078449935495</v>
+        <v>0.0071161144996403</v>
       </c>
       <c r="BD24" s="89">
-        <v>3.25</v>
+        <v>0.021069819395082</v>
       </c>
       <c r="BE24" s="89">
-        <v>0.33028912953791</v>
+        <v>0.0067908826161014</v>
       </c>
       <c r="BF24" s="89">
-        <v>3.2115</v>
+        <v>0.038013912975434</v>
       </c>
       <c r="BG24" s="89">
-        <v>0.41053681444643</v>
+        <v>0.0069534985578709</v>
       </c>
       <c r="BH24" s="30"/>
       <c r="BI24" s="30"/>
@@ -3761,21 +3905,33 @@
     </row>
     <row r="25" spans="1:75">
       <c r="A25" s="24"/>
-      <c r="B25" s="58" t="s">
+      <c r="B25" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="58" t="s">
+      <c r="C25" s="69" t="s">
         <v>42</v>
       </c>
       <c r="D25" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
+      <c r="E25" s="89">
+        <v>197175.11735874</v>
+      </c>
+      <c r="F25" s="89">
+        <v>13.946721142045</v>
+      </c>
+      <c r="G25" s="89">
+        <v>450375.6352716</v>
+      </c>
+      <c r="H25" s="89">
+        <v>14.750440269819</v>
+      </c>
+      <c r="I25" s="89">
+        <v>646850.19991857</v>
+      </c>
+      <c r="J25" s="89">
+        <v>14.480390642887</v>
+      </c>
       <c r="K25" s="30"/>
       <c r="L25" s="30"/>
       <c r="M25" s="30"/>
@@ -3783,32 +3939,32 @@
       <c r="O25" s="30"/>
       <c r="P25" s="30"/>
       <c r="Q25" s="25"/>
-      <c r="R25" s="58" t="s">
+      <c r="R25" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="S25" s="58" t="s">
+      <c r="S25" s="69" t="s">
         <v>42</v>
       </c>
       <c r="T25" s="30" t="s">
         <v>43</v>
       </c>
       <c r="U25" s="89">
-        <v>1.0533888888889</v>
+        <v>0.14661639428977</v>
       </c>
       <c r="V25" s="89">
-        <v>0.00063539677952426</v>
+        <v>0.00086026496806404</v>
       </c>
       <c r="W25" s="89">
-        <v>1.0086956521739</v>
+        <v>0.14870785522594</v>
       </c>
       <c r="X25" s="89">
-        <v>8.4333379727833E-5</v>
+        <v>0.00028822277709958</v>
       </c>
       <c r="Y25" s="89">
-        <v>1.0310422705314</v>
+        <v>0.14800512435139</v>
       </c>
       <c r="Z25" s="89">
-        <v>0.00035986507962605</v>
+        <v>0.00057424387258181</v>
       </c>
       <c r="AA25" s="30"/>
       <c r="AB25" s="30"/>
@@ -3817,10 +3973,10 @@
       <c r="AE25" s="30"/>
       <c r="AF25" s="30"/>
       <c r="AG25" s="25"/>
-      <c r="AH25" s="58" t="s">
+      <c r="AH25" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="AI25" s="58" t="s">
+      <c r="AI25" s="69" t="s">
         <v>42</v>
       </c>
       <c r="AJ25" s="30" t="s">
@@ -3830,22 +3986,22 @@
         <v>30</v>
       </c>
       <c r="AL25" s="89">
-        <v>95.316197646938</v>
+        <v>13.855609569265</v>
       </c>
       <c r="AM25" s="89">
-        <v>8.1218932014956</v>
+        <v>1.180636491397</v>
       </c>
       <c r="AN25" s="89">
-        <v>134.92799309667</v>
+        <v>19.999833528298</v>
       </c>
       <c r="AO25" s="89">
-        <v>11.497214291767</v>
+        <v>1.7041858149463</v>
       </c>
       <c r="AP25" s="89">
-        <v>230.24419074361</v>
+        <v>34.138744224845</v>
       </c>
       <c r="AQ25" s="89">
-        <v>19.619107493263</v>
+        <v>2.9089623953991</v>
       </c>
       <c r="AR25" s="30"/>
       <c r="AS25" s="30"/>
@@ -3854,32 +4010,32 @@
       <c r="AV25" s="30"/>
       <c r="AW25" s="30"/>
       <c r="AX25" s="25"/>
-      <c r="AY25" s="58" t="s">
+      <c r="AY25" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="AZ25" s="58" t="s">
+      <c r="AZ25" s="69" t="s">
         <v>42</v>
       </c>
       <c r="BA25" s="30" t="s">
         <v>43</v>
       </c>
       <c r="BB25" s="89">
-        <v>4.6405277777778</v>
+        <v>0.65485759059492</v>
       </c>
       <c r="BC25" s="89">
-        <v>0.0095360659785974</v>
+        <v>0.0028782739557397</v>
       </c>
       <c r="BD25" s="89">
-        <v>4.4397658862876</v>
+        <v>0.65813777500544</v>
       </c>
       <c r="BE25" s="89">
-        <v>0.006164845091004</v>
+        <v>0.0020686311022425</v>
       </c>
       <c r="BF25" s="89">
-        <v>4.5401468320327</v>
+        <v>0.65703563304351</v>
       </c>
       <c r="BG25" s="89">
-        <v>0.0078504555348007</v>
+        <v>0.0024734525289911</v>
       </c>
       <c r="BH25" s="30"/>
       <c r="BI25" s="30"/>
@@ -3899,17 +4055,29 @@
     </row>
     <row r="26" spans="1:75">
       <c r="A26" s="24"/>
-      <c r="B26" s="59"/>
-      <c r="C26" s="59"/>
+      <c r="B26" s="68"/>
+      <c r="C26" s="68"/>
       <c r="D26" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
+      <c r="E26" s="89">
+        <v>535897.97069479</v>
+      </c>
+      <c r="F26" s="89">
+        <v>37.905490601382</v>
+      </c>
+      <c r="G26" s="89">
+        <v>887861.80076118</v>
+      </c>
+      <c r="H26" s="89">
+        <v>29.078732138971</v>
+      </c>
+      <c r="I26" s="89">
+        <v>1431453.5159039</v>
+      </c>
+      <c r="J26" s="89">
+        <v>32.044522982342</v>
+      </c>
       <c r="K26" s="30"/>
       <c r="L26" s="30"/>
       <c r="M26" s="30"/>
@@ -3917,28 +4085,28 @@
       <c r="O26" s="30"/>
       <c r="P26" s="30"/>
       <c r="Q26" s="25"/>
-      <c r="R26" s="59"/>
-      <c r="S26" s="59"/>
+      <c r="R26" s="68"/>
+      <c r="S26" s="68"/>
       <c r="T26" s="30" t="s">
         <v>44</v>
       </c>
       <c r="U26" s="89">
-        <v>1.0420627118644</v>
+        <v>0.39454442219495</v>
       </c>
       <c r="V26" s="89">
-        <v>0.00020859530906187</v>
+        <v>0.00045143137454275</v>
       </c>
       <c r="W26" s="89">
-        <v>1.0186674669868</v>
+        <v>0.29620536447378</v>
       </c>
       <c r="X26" s="89">
-        <v>6.4544682810965E-5</v>
+        <v>7.7347367455984E-5</v>
       </c>
       <c r="Y26" s="89">
-        <v>1.0303650894256</v>
+        <v>0.32924728786809</v>
       </c>
       <c r="Z26" s="89">
-        <v>0.00013656999593642</v>
+        <v>0.00026438937099937</v>
       </c>
       <c r="AA26" s="30"/>
       <c r="AB26" s="30"/>
@@ -3947,8 +4115,8 @@
       <c r="AE26" s="30"/>
       <c r="AF26" s="30"/>
       <c r="AG26" s="25"/>
-      <c r="AH26" s="59"/>
-      <c r="AI26" s="59"/>
+      <c r="AH26" s="68"/>
+      <c r="AI26" s="68"/>
       <c r="AJ26" s="30" t="s">
         <v>44</v>
       </c>
@@ -3956,22 +4124,22 @@
         <v>30</v>
       </c>
       <c r="AL26" s="89">
-        <v>140.33218090328</v>
+        <v>53.770353473322</v>
       </c>
       <c r="AM26" s="89">
-        <v>11.957705134768</v>
+        <v>4.5817718194618</v>
       </c>
       <c r="AN26" s="89">
-        <v>259.35916142404</v>
+        <v>75.405908066947</v>
       </c>
       <c r="AO26" s="89">
-        <v>22.099994144942</v>
+        <v>6.4253374263845</v>
       </c>
       <c r="AP26" s="89">
-        <v>399.69134232732</v>
+        <v>130.33873990894</v>
       </c>
       <c r="AQ26" s="89">
-        <v>34.057699279711</v>
+        <v>11.10616402764</v>
       </c>
       <c r="AR26" s="30"/>
       <c r="AS26" s="30"/>
@@ -3980,28 +4148,28 @@
       <c r="AV26" s="30"/>
       <c r="AW26" s="30"/>
       <c r="AX26" s="25"/>
-      <c r="AY26" s="59"/>
-      <c r="AZ26" s="59"/>
+      <c r="AY26" s="68"/>
+      <c r="AZ26" s="68"/>
       <c r="BA26" s="30" t="s">
         <v>44</v>
       </c>
       <c r="BB26" s="89">
-        <v>4.6565788135593</v>
+        <v>1.776837148763</v>
       </c>
       <c r="BC26" s="89">
-        <v>0.0019228716447813</v>
+        <v>0.00193778003836</v>
       </c>
       <c r="BD26" s="89">
-        <v>4.3183973589436</v>
+        <v>1.2559310771016</v>
       </c>
       <c r="BE26" s="89">
-        <v>0.00099235709082609</v>
+        <v>0.00051658430979098</v>
       </c>
       <c r="BF26" s="89">
-        <v>4.4874880862515</v>
+        <v>1.4309555171798</v>
       </c>
       <c r="BG26" s="89">
-        <v>0.0014576143678037</v>
+        <v>0.0012271821740755</v>
       </c>
       <c r="BH26" s="30"/>
       <c r="BI26" s="30"/>
@@ -4030,12 +4198,24 @@
       <c r="D27" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
+      <c r="E27" s="89">
+        <v>16840.175256637</v>
+      </c>
+      <c r="F27" s="89">
+        <v>1.1911504424779</v>
+      </c>
+      <c r="G27" s="89">
+        <v>31246.688363055</v>
+      </c>
+      <c r="H27" s="89">
+        <v>1.0233733226953</v>
+      </c>
+      <c r="I27" s="89">
+        <v>48233.104653625</v>
+      </c>
+      <c r="J27" s="89">
+        <v>1.0797464349422</v>
+      </c>
       <c r="K27" s="30"/>
       <c r="L27" s="30"/>
       <c r="M27" s="30"/>
@@ -4053,22 +4233,22 @@
         <v>37</v>
       </c>
       <c r="U27" s="89">
-        <v>0.66</v>
+        <v>0.011911504424779</v>
       </c>
       <c r="V27" s="89">
         <v>0</v>
       </c>
       <c r="W27" s="89">
-        <v>1</v>
+        <v>0.010233733226953</v>
       </c>
       <c r="X27" s="89">
-        <v>0.047828670265296</v>
+        <v>0.00066797821320613</v>
       </c>
       <c r="Y27" s="89">
-        <v>0.83</v>
+        <v>0.010797464349422</v>
       </c>
       <c r="Z27" s="89">
-        <v>0.023914335132648</v>
+        <v>0.00033398910660306</v>
       </c>
       <c r="AA27" s="30"/>
       <c r="AB27" s="30"/>
@@ -4090,22 +4270,22 @@
         <v>30</v>
       </c>
       <c r="AL27" s="89">
-        <v>67.990270565646</v>
+        <v>1.2270703161888</v>
       </c>
       <c r="AM27" s="89">
-        <v>5.7934509548987</v>
+        <v>0.10455866164245</v>
       </c>
       <c r="AN27" s="89">
-        <v>233.14156968972</v>
+        <v>2.1903999105404</v>
       </c>
       <c r="AO27" s="89">
-        <v>19.865993153261</v>
+        <v>0.18664397637714</v>
       </c>
       <c r="AP27" s="89">
-        <v>301.13184025536</v>
+        <v>3.4305929657554</v>
       </c>
       <c r="AQ27" s="89">
-        <v>25.65944410816</v>
+        <v>0.29232082661202</v>
       </c>
       <c r="AR27" s="30"/>
       <c r="AS27" s="30"/>
@@ -4124,22 +4304,22 @@
         <v>37</v>
       </c>
       <c r="BB27" s="89">
-        <v>0.99</v>
+        <v>0.017867256637168</v>
       </c>
       <c r="BC27" s="89">
         <v>0</v>
       </c>
       <c r="BD27" s="89">
-        <v>2.4035714285714</v>
+        <v>0.025581513019511</v>
       </c>
       <c r="BE27" s="89">
-        <v>0.16074396892156</v>
+        <v>0.0020717268130232</v>
       </c>
       <c r="BF27" s="89">
-        <v>1.6967857142857</v>
+        <v>0.022989522875044</v>
       </c>
       <c r="BG27" s="89">
-        <v>0.080371984460781</v>
+        <v>0.0010358634065116</v>
       </c>
       <c r="BH27" s="30"/>
       <c r="BI27" s="30"/>
@@ -4168,12 +4348,24 @@
       <c r="D28" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
+      <c r="E28" s="89">
+        <v>60656.868003023</v>
+      </c>
+      <c r="F28" s="89">
+        <v>4.2904218073768</v>
+      </c>
+      <c r="G28" s="89">
+        <v>134169.18961412</v>
+      </c>
+      <c r="H28" s="89">
+        <v>4.3942310872561</v>
+      </c>
+      <c r="I28" s="89">
+        <v>194735.57342931</v>
+      </c>
+      <c r="J28" s="89">
+        <v>4.3593511692167</v>
+      </c>
       <c r="K28" s="30"/>
       <c r="L28" s="30"/>
       <c r="M28" s="30"/>
@@ -4191,22 +4383,22 @@
         <v>37</v>
       </c>
       <c r="U28" s="89">
-        <v>1</v>
+        <v>0.042904218073768</v>
       </c>
       <c r="V28" s="89">
-        <v>0.052234041215747</v>
+        <v>0.0021953078336106</v>
       </c>
       <c r="W28" s="89">
-        <v>1</v>
+        <v>0.043942310872561</v>
       </c>
       <c r="X28" s="89">
-        <v>0</v>
+        <v>0.00035007339959269</v>
       </c>
       <c r="Y28" s="89">
-        <v>1</v>
+        <v>0.043593511692167</v>
       </c>
       <c r="Z28" s="89">
-        <v>0.026117020607874</v>
+        <v>0.0012726906166017</v>
       </c>
       <c r="AA28" s="30"/>
       <c r="AB28" s="30"/>
@@ -4228,22 +4420,22 @@
         <v>30</v>
       </c>
       <c r="AL28" s="89">
-        <v>275.6295911061</v>
+        <v>12.469433584727</v>
       </c>
       <c r="AM28" s="89">
-        <v>23.486397458151</v>
+        <v>1.0625204357546</v>
       </c>
       <c r="AN28" s="89">
-        <v>270.94607215071</v>
+        <v>11.795963235726</v>
       </c>
       <c r="AO28" s="89">
-        <v>23.087314807962</v>
+        <v>1.0051340273162</v>
       </c>
       <c r="AP28" s="89">
-        <v>546.57566325681</v>
+        <v>24.697434778724</v>
       </c>
       <c r="AQ28" s="89">
-        <v>46.573712266113</v>
+        <v>2.104468417495</v>
       </c>
       <c r="AR28" s="30"/>
       <c r="AS28" s="30"/>
@@ -4262,22 +4454,22 @@
         <v>37</v>
       </c>
       <c r="BB28" s="89">
-        <v>3.5830769230769</v>
+        <v>0.14923920547768</v>
       </c>
       <c r="BC28" s="89">
-        <v>0.24740776491598</v>
+        <v>0.010913776096633</v>
       </c>
       <c r="BD28" s="89">
-        <v>3.4938625204583</v>
+        <v>0.15199478929426</v>
       </c>
       <c r="BE28" s="89">
-        <v>0.015089974958115</v>
+        <v>0.0016857348379735</v>
       </c>
       <c r="BF28" s="89">
-        <v>3.5384697217676</v>
+        <v>0.15106891313189</v>
       </c>
       <c r="BG28" s="89">
-        <v>0.13124886993705</v>
+        <v>0.0062997554673034</v>
       </c>
       <c r="BH28" s="30"/>
       <c r="BI28" s="30"/>
@@ -4306,12 +4498,24 @@
       <c r="D29" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
+      <c r="E29" s="89">
+        <v>30325.210293599</v>
+      </c>
+      <c r="F29" s="89">
+        <v>2.1449828822427</v>
+      </c>
+      <c r="G29" s="89">
+        <v>22048.944715596</v>
+      </c>
+      <c r="H29" s="89">
+        <v>0.72213418437659</v>
+      </c>
+      <c r="I29" s="89">
+        <v>53614.365026956</v>
+      </c>
+      <c r="J29" s="89">
+        <v>1.2002113468596</v>
+      </c>
       <c r="K29" s="30"/>
       <c r="L29" s="30"/>
       <c r="M29" s="30"/>
@@ -4329,22 +4533,22 @@
         <v>37</v>
       </c>
       <c r="U29" s="89">
-        <v>1</v>
+        <v>0.021449828822427</v>
       </c>
       <c r="V29" s="89">
-        <v>0</v>
+        <v>0.0050178316452273</v>
       </c>
       <c r="W29" s="89">
-        <v>1</v>
+        <v>0.0072213418437659</v>
       </c>
       <c r="X29" s="89">
-        <v>0</v>
+        <v>6.7586921197734E-5</v>
       </c>
       <c r="Y29" s="89">
-        <v>1</v>
+        <v>0.012002113468596</v>
       </c>
       <c r="Z29" s="89">
-        <v>0</v>
+        <v>0.0025427092832125</v>
       </c>
       <c r="AA29" s="30"/>
       <c r="AB29" s="30"/>
@@ -4366,22 +4570,22 @@
         <v>30</v>
       </c>
       <c r="AL29" s="89">
-        <v>53.494026764565</v>
+        <v>1.1302823741379</v>
       </c>
       <c r="AM29" s="89">
-        <v>4.5582260206085</v>
+        <v>0.096311361100287</v>
       </c>
       <c r="AN29" s="89">
-        <v>762.8054671688</v>
+        <v>1.1581269133533</v>
       </c>
       <c r="AO29" s="89">
-        <v>64.998653857453</v>
+        <v>0.098683994286836</v>
       </c>
       <c r="AP29" s="89">
-        <v>816.29949393336</v>
+        <v>2.325033441309</v>
       </c>
       <c r="AQ29" s="89">
-        <v>69.556879878062</v>
+        <v>0.19811609953394</v>
       </c>
       <c r="AR29" s="30"/>
       <c r="AS29" s="30"/>
@@ -4400,22 +4604,22 @@
         <v>37</v>
       </c>
       <c r="BB29" s="89">
-        <v>2.9242857142857</v>
+        <v>0.06434492603837</v>
       </c>
       <c r="BC29" s="89">
-        <v>0.061010466302524</v>
+        <v>0.012656230981512</v>
       </c>
       <c r="BD29" s="89">
-        <v>1.3863636363636</v>
+        <v>0.012336015086676</v>
       </c>
       <c r="BE29" s="89">
-        <v>0.0091332120712411</v>
+        <v>2.8856555861172E-5</v>
       </c>
       <c r="BF29" s="89">
-        <v>2.1553246753247</v>
+        <v>0.029811009166445</v>
       </c>
       <c r="BG29" s="89">
-        <v>0.035071839186882</v>
+        <v>0.0063425437686864</v>
       </c>
       <c r="BH29" s="30"/>
       <c r="BI29" s="30"/>
@@ -4444,12 +4648,24 @@
       <c r="D30" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
+      <c r="E30" s="89">
+        <v>6736.0701026549</v>
+      </c>
+      <c r="F30" s="89">
+        <v>0.47646017699115</v>
+      </c>
+      <c r="G30" s="89">
+        <v>14701.847724657</v>
+      </c>
+      <c r="H30" s="89">
+        <v>0.48150634655835</v>
+      </c>
+      <c r="I30" s="89">
+        <v>21433.519390529</v>
+      </c>
+      <c r="J30" s="89">
+        <v>0.47981083358377</v>
+      </c>
       <c r="K30" s="30"/>
       <c r="L30" s="30"/>
       <c r="M30" s="30"/>
@@ -4467,22 +4683,22 @@
         <v>37</v>
       </c>
       <c r="U30" s="89">
-        <v>0.66</v>
+        <v>0.0047646017699115</v>
       </c>
       <c r="V30" s="89">
         <v>0</v>
       </c>
       <c r="W30" s="89">
-        <v>1</v>
+        <v>0.0048150634655835</v>
       </c>
       <c r="X30" s="89">
-        <v>0.75277265270908</v>
+        <v>0.0018517188864024</v>
       </c>
       <c r="Y30" s="89">
-        <v>0.83</v>
+        <v>0.0047981083358377</v>
       </c>
       <c r="Z30" s="89">
-        <v>0.37638632635454</v>
+        <v>0.0009258594432012</v>
       </c>
       <c r="AA30" s="30"/>
       <c r="AB30" s="30"/>
@@ -4504,22 +4720,22 @@
         <v>30</v>
       </c>
       <c r="AL30" s="89">
-        <v>15.60897684423</v>
+        <v>0.11268266469474</v>
       </c>
       <c r="AM30" s="89">
-        <v>1.3300409168968</v>
+        <v>0.0096016898586385</v>
       </c>
       <c r="AN30" s="89">
-        <v>351.18905363401</v>
+        <v>0.94966944525756</v>
       </c>
       <c r="AO30" s="89">
-        <v>29.924819260154</v>
+        <v>0.080921333430396</v>
       </c>
       <c r="AP30" s="89">
-        <v>366.79803047824</v>
+        <v>1.042188774615</v>
       </c>
       <c r="AQ30" s="89">
-        <v>31.254860177051</v>
+        <v>0.088804905484942</v>
       </c>
       <c r="AR30" s="30"/>
       <c r="AS30" s="30"/>
@@ -4538,22 +4754,22 @@
         <v>37</v>
       </c>
       <c r="BB30" s="89">
-        <v>2.145</v>
+        <v>0.015484955752212</v>
       </c>
       <c r="BC30" s="89">
         <v>0</v>
       </c>
       <c r="BD30" s="89">
-        <v>2</v>
+        <v>0.010832952781606</v>
       </c>
       <c r="BE30" s="89">
-        <v>1.1365151414155</v>
+        <v>0.0029452815436831</v>
       </c>
       <c r="BF30" s="89">
-        <v>2.0725</v>
+        <v>0.01239602577973</v>
       </c>
       <c r="BG30" s="89">
-        <v>0.56825757070774</v>
+        <v>0.0014726407718416</v>
       </c>
       <c r="BH30" s="30"/>
       <c r="BI30" s="30"/>
@@ -4582,12 +4798,24 @@
       <c r="D31" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="30"/>
+      <c r="E31" s="89">
+        <v>3371.2587592404</v>
+      </c>
+      <c r="F31" s="89">
+        <v>0.23845810994122</v>
+      </c>
+      <c r="G31" s="89">
+        <v>9188.1764689867</v>
+      </c>
+      <c r="H31" s="89">
+        <v>0.30092579966635</v>
+      </c>
+      <c r="I31" s="89">
+        <v>12504.985971114</v>
+      </c>
+      <c r="J31" s="89">
+        <v>0.27993665591871</v>
+      </c>
       <c r="K31" s="30"/>
       <c r="L31" s="30"/>
       <c r="M31" s="30"/>
@@ -4605,22 +4833,22 @@
         <v>37</v>
       </c>
       <c r="U31" s="89">
-        <v>1.34</v>
+        <v>0.0035780117563465</v>
       </c>
       <c r="V31" s="89">
         <v>0</v>
       </c>
       <c r="W31" s="89">
-        <v>1</v>
+        <v>0.0030092579966635</v>
       </c>
       <c r="X31" s="89">
-        <v>0</v>
+        <v>6.7185408056401E-5</v>
       </c>
       <c r="Y31" s="89">
-        <v>1.17</v>
+        <v>0.003200359259917</v>
       </c>
       <c r="Z31" s="89">
-        <v>0</v>
+        <v>3.35927040282E-5</v>
       </c>
       <c r="AA31" s="30"/>
       <c r="AB31" s="30"/>
@@ -4642,22 +4870,22 @@
         <v>30</v>
       </c>
       <c r="AL31" s="89">
-        <v>147.42835272</v>
+        <v>0.35155486341358</v>
       </c>
       <c r="AM31" s="89">
-        <v>12.562369935271</v>
+        <v>0.029955989911472</v>
       </c>
       <c r="AN31" s="89">
-        <v>281.91528261875</v>
+        <v>0.78252006551545</v>
       </c>
       <c r="AO31" s="89">
-        <v>24.022001231944</v>
+        <v>0.066678534782572</v>
       </c>
       <c r="AP31" s="89">
-        <v>429.34363533875</v>
+        <v>1.1334105403331</v>
       </c>
       <c r="AQ31" s="89">
-        <v>36.584371167215</v>
+        <v>0.096577912141781</v>
       </c>
       <c r="AR31" s="30"/>
       <c r="AS31" s="30"/>
@@ -4676,22 +4904,22 @@
         <v>37</v>
       </c>
       <c r="BB31" s="89">
-        <v>1.34</v>
+        <v>0.0035780117563465</v>
       </c>
       <c r="BC31" s="89">
         <v>0</v>
       </c>
       <c r="BD31" s="89">
-        <v>2.375</v>
+        <v>0.0078236947849423</v>
       </c>
       <c r="BE31" s="89">
-        <v>0.12028130608117</v>
+        <v>0.00084601431309856</v>
       </c>
       <c r="BF31" s="89">
-        <v>1.8575</v>
+        <v>0.0063971452873341</v>
       </c>
       <c r="BG31" s="89">
-        <v>0.060140653040586</v>
+        <v>0.00042300715654928</v>
       </c>
       <c r="BH31" s="30"/>
       <c r="BI31" s="30"/>
@@ -4711,7 +4939,7 @@
     </row>
     <row r="32" spans="1:75">
       <c r="A32" s="24"/>
-      <c r="B32" s="58" t="s">
+      <c r="B32" s="69" t="s">
         <v>50</v>
       </c>
       <c r="C32" s="30" t="s">
@@ -4720,12 +4948,24 @@
       <c r="D32" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
+      <c r="E32" s="89">
+        <v>994205.41060044</v>
+      </c>
+      <c r="F32" s="89">
+        <v>70.322796330986</v>
+      </c>
+      <c r="G32" s="89">
+        <v>2279379.5623871</v>
+      </c>
+      <c r="H32" s="89">
+        <v>74.65291071299</v>
+      </c>
+      <c r="I32" s="89">
+        <v>3269810.6776301</v>
+      </c>
+      <c r="J32" s="89">
+        <v>73.197992280637</v>
+      </c>
       <c r="K32" s="30"/>
       <c r="L32" s="30"/>
       <c r="M32" s="30"/>
@@ -4733,7 +4973,7 @@
       <c r="O32" s="30"/>
       <c r="P32" s="30"/>
       <c r="Q32" s="25"/>
-      <c r="R32" s="58" t="s">
+      <c r="R32" s="69" t="s">
         <v>50</v>
       </c>
       <c r="S32" s="30" t="s">
@@ -4743,22 +4983,22 @@
         <v>37</v>
       </c>
       <c r="U32" s="89">
-        <v>1.5903847793234</v>
+        <v>0.73778956785737</v>
       </c>
       <c r="V32" s="89">
-        <v>0.00063083411930632</v>
+        <v>0.00027616220166277</v>
       </c>
       <c r="W32" s="89">
-        <v>1.5096774193548</v>
+        <v>0.76578622760572</v>
       </c>
       <c r="X32" s="89">
-        <v>0.00027821673353877</v>
+        <v>0.00015275273409689</v>
       </c>
       <c r="Y32" s="89">
-        <v>1.5500310993391</v>
+        <v>0.75637934993027</v>
       </c>
       <c r="Z32" s="89">
-        <v>0.00045452542642254</v>
+        <v>0.00021445746787983</v>
       </c>
       <c r="AA32" s="30"/>
       <c r="AB32" s="30"/>
@@ -4767,7 +5007,7 @@
       <c r="AE32" s="30"/>
       <c r="AF32" s="30"/>
       <c r="AG32" s="25"/>
-      <c r="AH32" s="62" t="s">
+      <c r="AH32" s="75" t="s">
         <v>50</v>
       </c>
       <c r="AI32" s="36" t="s">
@@ -4780,22 +5020,22 @@
         <v>52</v>
       </c>
       <c r="AL32" s="90">
-        <v>101.90482992</v>
+        <v>3.3753127043595</v>
       </c>
       <c r="AM32" s="90">
-        <v>0.0010272006855936</v>
+        <v>3.4831201921367E-5</v>
       </c>
       <c r="AN32" s="90">
-        <v>73.279272</v>
+        <v>1.6769520509725</v>
       </c>
       <c r="AO32" s="90">
-        <v>0.00073865506176</v>
+        <v>1.7305138994806E-5</v>
       </c>
       <c r="AP32" s="90">
-        <v>73.322072028566</v>
+        <v>5.2124913898245</v>
       </c>
       <c r="AQ32" s="90">
-        <v>0.00073908648604795</v>
+        <v>5.3789783648155E-5</v>
       </c>
       <c r="AR32" s="36"/>
       <c r="AS32" s="36"/>
@@ -4804,7 +5044,7 @@
       <c r="AV32" s="36"/>
       <c r="AW32" s="30"/>
       <c r="AX32" s="25"/>
-      <c r="AY32" s="62" t="s">
+      <c r="AY32" s="75" t="s">
         <v>50</v>
       </c>
       <c r="AZ32" s="36" t="s">
@@ -4814,22 +5054,22 @@
         <v>37</v>
       </c>
       <c r="BB32" s="89">
-        <v>4.1373168520169</v>
+        <v>2.9110104327886</v>
       </c>
       <c r="BC32" s="89">
-        <v>0.003436946090745</v>
+        <v>0.0024235376081757</v>
       </c>
       <c r="BD32" s="89">
-        <v>3.470564516129</v>
+        <v>2.5908684993109</v>
       </c>
       <c r="BE32" s="89">
-        <v>0.00046572024410737</v>
+        <v>0.00082795813024577</v>
       </c>
       <c r="BF32" s="89">
-        <v>3.803940684073</v>
+        <v>2.6984361889594</v>
       </c>
       <c r="BG32" s="89">
-        <v>0.0019513331674262</v>
+        <v>0.0016257478692107</v>
       </c>
       <c r="BH32" s="30"/>
       <c r="BI32" s="30"/>
@@ -4849,19 +5089,31 @@
     </row>
     <row r="33" spans="1:75">
       <c r="A33" s="24"/>
-      <c r="B33" s="62"/>
+      <c r="B33" s="75"/>
       <c r="C33" s="30" t="s">
         <v>53</v>
       </c>
       <c r="D33" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
+      <c r="E33" s="89">
+        <v>214024.96373911</v>
+      </c>
+      <c r="F33" s="89">
+        <v>15.13855564886</v>
+      </c>
+      <c r="G33" s="89">
+        <v>231618.20175911</v>
+      </c>
+      <c r="H33" s="89">
+        <v>7.5858243272648</v>
+      </c>
+      <c r="I33" s="89">
+        <v>452226.41855988</v>
+      </c>
+      <c r="J33" s="89">
+        <v>10.123542051321</v>
+      </c>
       <c r="K33" s="30"/>
       <c r="L33" s="30"/>
       <c r="M33" s="30"/>
@@ -4869,7 +5121,7 @@
       <c r="O33" s="30"/>
       <c r="P33" s="30"/>
       <c r="Q33" s="25"/>
-      <c r="R33" s="62"/>
+      <c r="R33" s="75"/>
       <c r="S33" s="30" t="s">
         <v>53</v>
       </c>
@@ -4877,22 +5129,22 @@
         <v>37</v>
       </c>
       <c r="U33" s="89">
-        <v>1.4173628691983</v>
+        <v>0.18475829080809</v>
       </c>
       <c r="V33" s="89">
-        <v>0.0057039856455896</v>
+        <v>0.0010513252751065</v>
       </c>
       <c r="W33" s="89">
-        <v>1.1670870113493</v>
+        <v>0.080673306738232</v>
       </c>
       <c r="X33" s="89">
-        <v>0.0027325831921133</v>
+        <v>0.00051076390335721</v>
       </c>
       <c r="Y33" s="89">
-        <v>1.2922249402738</v>
+        <v>0.1156458613857</v>
       </c>
       <c r="Z33" s="89">
-        <v>0.0042182844188515</v>
+        <v>0.00078104458923185</v>
       </c>
       <c r="AA33" s="30"/>
       <c r="AB33" s="30"/>
@@ -4901,7 +5153,7 @@
       <c r="AE33" s="30"/>
       <c r="AF33" s="30"/>
       <c r="AG33" s="25"/>
-      <c r="AH33" s="62"/>
+      <c r="AH33" s="75"/>
       <c r="AI33" s="30" t="s">
         <v>53</v>
       </c>
@@ -4912,22 +5164,22 @@
         <v>52</v>
       </c>
       <c r="AL33" s="89">
-        <v>164.29530951098</v>
+        <v>0.44458062677522</v>
       </c>
       <c r="AM33" s="89">
-        <v>0.0016560967198707</v>
+        <v>4.5878053199442E-6</v>
       </c>
       <c r="AN33" s="89">
-        <v>284.75183392679</v>
+        <v>0.13241995504941</v>
       </c>
       <c r="AO33" s="89">
-        <v>0.0028702984859821</v>
+        <v>1.3664944841369E-6</v>
       </c>
       <c r="AP33" s="89">
-        <v>284.82083795679</v>
+        <v>0.60063021112989</v>
       </c>
       <c r="AQ33" s="89">
-        <v>0.0028709940466044</v>
+        <v>6.1981434007338E-6</v>
       </c>
       <c r="AR33" s="30"/>
       <c r="AS33" s="30"/>
@@ -4936,7 +5188,7 @@
       <c r="AV33" s="30"/>
       <c r="AW33" s="30"/>
       <c r="AX33" s="25"/>
-      <c r="AY33" s="62"/>
+      <c r="AY33" s="75"/>
       <c r="AZ33" s="30" t="s">
         <v>53</v>
       </c>
@@ -4944,22 +5196,22 @@
         <v>37</v>
       </c>
       <c r="BB33" s="89">
-        <v>4.7538269230769</v>
+        <v>0.70630671274465</v>
       </c>
       <c r="BC33" s="89">
-        <v>0.029193686911817</v>
+        <v>0.003348732291335</v>
       </c>
       <c r="BD33" s="89">
-        <v>3.3853089533417</v>
+        <v>0.25738556031044</v>
       </c>
       <c r="BE33" s="89">
-        <v>0.014453584495889</v>
+        <v>0.0016078218502479</v>
       </c>
       <c r="BF33" s="89">
-        <v>4.0695679382093</v>
+        <v>0.40822306752833</v>
       </c>
       <c r="BG33" s="89">
-        <v>0.021823635703853</v>
+        <v>0.0024782770707914</v>
       </c>
       <c r="BH33" s="30"/>
       <c r="BI33" s="30"/>
@@ -4979,19 +5231,31 @@
     </row>
     <row r="34" spans="1:75">
       <c r="A34" s="24"/>
-      <c r="B34" s="59"/>
+      <c r="B34" s="68"/>
       <c r="C34" s="30" t="s">
         <v>54</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
+      <c r="E34" s="89">
+        <v>109503.04737101</v>
+      </c>
+      <c r="F34" s="89">
+        <v>7.7454421548996</v>
+      </c>
+      <c r="G34" s="89">
+        <v>158107.04970013</v>
+      </c>
+      <c r="H34" s="89">
+        <v>5.1782299267426</v>
+      </c>
+      <c r="I34" s="89">
+        <v>269847.77865166</v>
+      </c>
+      <c r="J34" s="89">
+        <v>6.0408132354033</v>
+      </c>
       <c r="K34" s="30"/>
       <c r="L34" s="30"/>
       <c r="M34" s="30"/>
@@ -4999,7 +5263,7 @@
       <c r="O34" s="30"/>
       <c r="P34" s="30"/>
       <c r="Q34" s="25"/>
-      <c r="R34" s="59"/>
+      <c r="R34" s="68"/>
       <c r="S34" s="30" t="s">
         <v>54</v>
       </c>
@@ -5007,22 +5271,22 @@
         <v>37</v>
       </c>
       <c r="U34" s="89">
-        <v>1.0507692307692</v>
+        <v>0.082219023318907</v>
       </c>
       <c r="V34" s="89">
-        <v>0.00054371247133345</v>
+        <v>0.0012884773067521</v>
       </c>
       <c r="W34" s="89">
-        <v>1</v>
+        <v>0.052987005149779</v>
       </c>
       <c r="X34" s="89">
-        <v>0</v>
+        <v>0.00056521167214857</v>
       </c>
       <c r="Y34" s="89">
-        <v>1.0253846153846</v>
+        <v>0.062808963254606</v>
       </c>
       <c r="Z34" s="89">
-        <v>0.00027185623566673</v>
+        <v>0.00092684448945035</v>
       </c>
       <c r="AA34" s="30"/>
       <c r="AB34" s="30"/>
@@ -5031,7 +5295,7 @@
       <c r="AE34" s="30"/>
       <c r="AF34" s="30"/>
       <c r="AG34" s="25"/>
-      <c r="AH34" s="59"/>
+      <c r="AH34" s="68"/>
       <c r="AI34" s="30" t="s">
         <v>54</v>
       </c>
@@ -5042,22 +5306,22 @@
         <v>52</v>
       </c>
       <c r="AL34" s="89">
-        <v>890.33831424</v>
+        <v>4.9189043443996</v>
       </c>
       <c r="AM34" s="89">
-        <v>0.0089746102075392</v>
+        <v>5.0760141491597E-5</v>
       </c>
       <c r="AN34" s="89">
-        <v>73.279272</v>
+        <v>7.1536562959686</v>
       </c>
       <c r="AO34" s="89">
-        <v>0.00073865506176</v>
+        <v>7.3821440780619E-5</v>
       </c>
       <c r="AP34" s="89">
-        <v>73.653214091981</v>
+        <v>12.1716091518</v>
       </c>
       <c r="AQ34" s="89">
-        <v>0.00074242439804717</v>
+        <v>0.00012560370348109</v>
       </c>
       <c r="AR34" s="30"/>
       <c r="AS34" s="30"/>
@@ -5066,7 +5330,7 @@
       <c r="AV34" s="30"/>
       <c r="AW34" s="30"/>
       <c r="AX34" s="25"/>
-      <c r="AY34" s="59"/>
+      <c r="AY34" s="68"/>
       <c r="AZ34" s="30" t="s">
         <v>54</v>
       </c>
@@ -5074,22 +5338,22 @@
         <v>37</v>
       </c>
       <c r="BB34" s="89">
-        <v>3.4992307692308</v>
+        <v>0.29308685485434</v>
       </c>
       <c r="BC34" s="89">
-        <v>0.094647624377472</v>
+        <v>0.0030284041431874</v>
       </c>
       <c r="BD34" s="89">
-        <v>3.2728587962963</v>
+        <v>0.1670836933343</v>
       </c>
       <c r="BE34" s="89">
-        <v>0.033271844718866</v>
+        <v>0.002422249336948</v>
       </c>
       <c r="BF34" s="89">
-        <v>3.3860447827635</v>
+        <v>0.20942075560503</v>
       </c>
       <c r="BG34" s="89">
-        <v>0.063959734548169</v>
+        <v>0.0027253267400677</v>
       </c>
       <c r="BH34" s="30"/>
       <c r="BI34" s="30"/>
@@ -5109,7 +5373,7 @@
     </row>
     <row r="35" spans="1:75">
       <c r="A35" s="24"/>
-      <c r="B35" s="61" t="s">
+      <c r="B35" s="67" t="s">
         <v>55</v>
       </c>
       <c r="C35" s="30" t="s">
@@ -5118,12 +5382,24 @@
       <c r="D35" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
+      <c r="E35" s="89">
+        <v>1684.0175256637</v>
+      </c>
+      <c r="F35" s="89">
+        <v>0.11911504424779</v>
+      </c>
+      <c r="G35" s="89">
+        <v>1837.2526066584</v>
+      </c>
+      <c r="H35" s="89">
+        <v>0.060172626387176</v>
+      </c>
+      <c r="I35" s="89">
+        <v>3572.6466259799</v>
+      </c>
+      <c r="J35" s="89">
+        <v>0.079977278788342</v>
+      </c>
       <c r="K35" s="30"/>
       <c r="L35" s="30"/>
       <c r="M35" s="30"/>
@@ -5131,7 +5407,7 @@
       <c r="O35" s="30"/>
       <c r="P35" s="30"/>
       <c r="Q35" s="25"/>
-      <c r="R35" s="61" t="s">
+      <c r="R35" s="67" t="s">
         <v>55</v>
       </c>
       <c r="S35" s="30" t="s">
@@ -5141,19 +5417,19 @@
         <v>37</v>
       </c>
       <c r="U35" s="89">
-        <v>0.66</v>
+        <v>0.0011911504424779</v>
       </c>
       <c r="V35" s="89">
         <v>0</v>
       </c>
       <c r="W35" s="89">
-        <v>0.5</v>
+        <v>0.00060172626387176</v>
       </c>
       <c r="X35" s="89">
         <v>0</v>
       </c>
       <c r="Y35" s="89">
-        <v>0.58</v>
+        <v>0.00079977278788342</v>
       </c>
       <c r="Z35" s="89">
         <v>0</v>
@@ -5165,7 +5441,7 @@
       <c r="AE35" s="30"/>
       <c r="AF35" s="30"/>
       <c r="AG35" s="25"/>
-      <c r="AH35" s="59" t="s">
+      <c r="AH35" s="68" t="s">
         <v>55</v>
       </c>
       <c r="AI35" s="36" t="s">
@@ -5178,22 +5454,22 @@
         <v>52</v>
       </c>
       <c r="AL35" s="90">
-        <v>44.78836032</v>
+        <v>0.080832841231858</v>
       </c>
       <c r="AM35" s="90">
-        <v>0.0004514666720256</v>
+        <v>3.5034149715938E-10</v>
       </c>
       <c r="AN35" s="90">
-        <v>549.59454</v>
+        <v>0.66141093839704</v>
       </c>
       <c r="AO35" s="90">
-        <v>0.0055399129632</v>
+        <v>2.8666528958317E-9</v>
       </c>
       <c r="AP35" s="90">
-        <v>549.61335111133</v>
+        <v>0.72834582851901</v>
       </c>
       <c r="AQ35" s="90">
-        <v>0.0055401025792023</v>
+        <v>3.156758615984E-9</v>
       </c>
       <c r="AR35" s="36"/>
       <c r="AS35" s="36"/>
@@ -5202,7 +5478,7 @@
       <c r="AV35" s="36"/>
       <c r="AW35" s="30"/>
       <c r="AX35" s="25"/>
-      <c r="AY35" s="59" t="s">
+      <c r="AY35" s="68" t="s">
         <v>55</v>
       </c>
       <c r="AZ35" s="36" t="s">
@@ -5212,19 +5488,19 @@
         <v>37</v>
       </c>
       <c r="BB35" s="90">
-        <v>1.98</v>
+        <v>0.0035734513274336</v>
       </c>
       <c r="BC35" s="90">
         <v>0</v>
       </c>
       <c r="BD35" s="90">
-        <v>0.5</v>
+        <v>0.00060172626387176</v>
       </c>
       <c r="BE35" s="90">
         <v>0</v>
       </c>
       <c r="BF35" s="90">
-        <v>1.24</v>
+        <v>0.0016002258852286</v>
       </c>
       <c r="BG35" s="90">
         <v>0</v>
@@ -5247,19 +5523,31 @@
     </row>
     <row r="36" spans="1:75">
       <c r="A36" s="24"/>
-      <c r="B36" s="61"/>
+      <c r="B36" s="67"/>
       <c r="C36" s="30" t="s">
         <v>57</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
+      <c r="E36" s="89">
+        <v>8426.5350441444</v>
+      </c>
+      <c r="F36" s="89">
+        <v>0.59603126413022</v>
+      </c>
+      <c r="G36" s="89">
+        <v>9188.1764689867</v>
+      </c>
+      <c r="H36" s="89">
+        <v>0.30092579966635</v>
+      </c>
+      <c r="I36" s="89">
+        <v>17871.936862441</v>
+      </c>
+      <c r="J36" s="89">
+        <v>0.40008123572621</v>
+      </c>
       <c r="K36" s="30"/>
       <c r="L36" s="30"/>
       <c r="M36" s="30"/>
@@ -5267,7 +5555,7 @@
       <c r="O36" s="30"/>
       <c r="P36" s="30"/>
       <c r="Q36" s="25"/>
-      <c r="R36" s="61"/>
+      <c r="R36" s="67"/>
       <c r="S36" s="30" t="s">
         <v>57</v>
       </c>
@@ -5275,22 +5563,22 @@
         <v>37</v>
       </c>
       <c r="U36" s="89">
-        <v>1</v>
+        <v>0.0059603126413022</v>
       </c>
       <c r="V36" s="89">
-        <v>0</v>
+        <v>0.0056206540260461</v>
       </c>
       <c r="W36" s="89">
-        <v>1</v>
+        <v>0.0030092579966635</v>
       </c>
       <c r="X36" s="89">
-        <v>0.091287092917528</v>
+        <v>0.00046181814469837</v>
       </c>
       <c r="Y36" s="89">
-        <v>1</v>
+        <v>0.0040008123572621</v>
       </c>
       <c r="Z36" s="89">
-        <v>0.045643546458764</v>
+        <v>0.0030412360853722</v>
       </c>
       <c r="AA36" s="30"/>
       <c r="AB36" s="30"/>
@@ -5299,7 +5587,7 @@
       <c r="AE36" s="30"/>
       <c r="AF36" s="30"/>
       <c r="AG36" s="25"/>
-      <c r="AH36" s="61"/>
+      <c r="AH36" s="67"/>
       <c r="AI36" s="30" t="s">
         <v>57</v>
       </c>
@@ -5310,22 +5598,22 @@
         <v>52</v>
       </c>
       <c r="AL36" s="89">
-        <v>2380.56921216</v>
+        <v>13.463464942479</v>
       </c>
       <c r="AM36" s="89">
-        <v>0.023996137658573</v>
+        <v>5.8352649653515E-8</v>
       </c>
       <c r="AN36" s="89">
-        <v>567.914358</v>
+        <v>2.7007728124021</v>
       </c>
       <c r="AO36" s="89">
-        <v>0.00572457672864</v>
+        <v>1.1705549083327E-8</v>
       </c>
       <c r="AP36" s="89">
-        <v>568.91419706911</v>
+        <v>16.917205123089</v>
       </c>
       <c r="AQ36" s="89">
-        <v>0.0057346551064566</v>
+        <v>7.3321670749826E-8</v>
       </c>
       <c r="AR36" s="30"/>
       <c r="AS36" s="30"/>
@@ -5334,7 +5622,7 @@
       <c r="AV36" s="30"/>
       <c r="AW36" s="30"/>
       <c r="AX36" s="25"/>
-      <c r="AY36" s="61"/>
+      <c r="AY36" s="67"/>
       <c r="AZ36" s="30" t="s">
         <v>57</v>
       </c>
@@ -5342,22 +5630,22 @@
         <v>37</v>
       </c>
       <c r="BB36" s="89">
-        <v>3</v>
+        <v>0.017880937923907</v>
       </c>
       <c r="BC36" s="89">
-        <v>1.1063453348751</v>
+        <v>0.010550551407487</v>
       </c>
       <c r="BD36" s="89">
-        <v>4.875</v>
+        <v>0.018053667948067</v>
       </c>
       <c r="BE36" s="89">
-        <v>0.61618787719331</v>
+        <v>0.003117272476714</v>
       </c>
       <c r="BF36" s="89">
-        <v>3.9375</v>
+        <v>0.017995630659949</v>
       </c>
       <c r="BG36" s="89">
-        <v>0.86126660603423</v>
+        <v>0.0068339119421005</v>
       </c>
       <c r="BH36" s="30"/>
       <c r="BI36" s="30"/>
@@ -5378,19 +5666,31 @@
     </row>
     <row r="37" spans="1:75">
       <c r="A37" s="24"/>
-      <c r="B37" s="61"/>
+      <c r="B37" s="67"/>
       <c r="C37" s="30" t="s">
         <v>58</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
+      <c r="E37" s="89">
+        <v>0</v>
+      </c>
+      <c r="F37" s="89">
+        <v>0</v>
+      </c>
+      <c r="G37" s="89">
+        <v>0</v>
+      </c>
+      <c r="H37" s="89">
+        <v>0</v>
+      </c>
+      <c r="I37" s="89">
+        <v>0</v>
+      </c>
+      <c r="J37" s="89">
+        <v>0</v>
+      </c>
       <c r="K37" s="30"/>
       <c r="L37" s="30"/>
       <c r="M37" s="30"/>
@@ -5398,7 +5698,7 @@
       <c r="O37" s="30"/>
       <c r="P37" s="30"/>
       <c r="Q37" s="25"/>
-      <c r="R37" s="61"/>
+      <c r="R37" s="67"/>
       <c r="S37" s="30" t="s">
         <v>58</v>
       </c>
@@ -5430,7 +5730,7 @@
       <c r="AE37" s="30"/>
       <c r="AF37" s="30"/>
       <c r="AG37" s="25"/>
-      <c r="AH37" s="61"/>
+      <c r="AH37" s="67"/>
       <c r="AI37" s="30" t="s">
         <v>58</v>
       </c>
@@ -5465,7 +5765,7 @@
       <c r="AV37" s="30"/>
       <c r="AW37" s="30"/>
       <c r="AX37" s="25"/>
-      <c r="AY37" s="61"/>
+      <c r="AY37" s="67"/>
       <c r="AZ37" s="30" t="s">
         <v>58</v>
       </c>
@@ -5509,19 +5809,31 @@
     </row>
     <row r="38" spans="1:75">
       <c r="A38" s="24"/>
-      <c r="B38" s="61"/>
+      <c r="B38" s="67"/>
       <c r="C38" s="30" t="s">
         <v>59</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
+      <c r="E38" s="89">
+        <v>0</v>
+      </c>
+      <c r="F38" s="89">
+        <v>0</v>
+      </c>
+      <c r="G38" s="89">
+        <v>0</v>
+      </c>
+      <c r="H38" s="89">
+        <v>0</v>
+      </c>
+      <c r="I38" s="89">
+        <v>0</v>
+      </c>
+      <c r="J38" s="89">
+        <v>0</v>
+      </c>
       <c r="K38" s="30"/>
       <c r="L38" s="30"/>
       <c r="M38" s="30"/>
@@ -5529,7 +5841,7 @@
       <c r="O38" s="30"/>
       <c r="P38" s="30"/>
       <c r="Q38" s="25"/>
-      <c r="R38" s="61"/>
+      <c r="R38" s="67"/>
       <c r="S38" s="30" t="s">
         <v>59</v>
       </c>
@@ -5561,7 +5873,7 @@
       <c r="AE38" s="30"/>
       <c r="AF38" s="30"/>
       <c r="AG38" s="25"/>
-      <c r="AH38" s="61"/>
+      <c r="AH38" s="67"/>
       <c r="AI38" s="30" t="s">
         <v>59</v>
       </c>
@@ -5596,7 +5908,7 @@
       <c r="AV38" s="30"/>
       <c r="AW38" s="30"/>
       <c r="AX38" s="25"/>
-      <c r="AY38" s="61"/>
+      <c r="AY38" s="67"/>
       <c r="AZ38" s="30" t="s">
         <v>59</v>
       </c>
@@ -5640,7 +5952,7 @@
     </row>
     <row r="39" spans="1:75">
       <c r="A39" s="24"/>
-      <c r="B39" s="61" t="s">
+      <c r="B39" s="67" t="s">
         <v>60</v>
       </c>
       <c r="C39" s="30" t="s">
@@ -5649,12 +5961,24 @@
       <c r="D39" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="30"/>
+      <c r="E39" s="89">
+        <v>173498.93705414</v>
+      </c>
+      <c r="F39" s="89">
+        <v>12.272041857761</v>
+      </c>
+      <c r="G39" s="89">
+        <v>847340.83132289</v>
+      </c>
+      <c r="H39" s="89">
+        <v>27.751612968739</v>
+      </c>
+      <c r="I39" s="89">
+        <v>1007347.1748277</v>
+      </c>
+      <c r="J39" s="89">
+        <v>22.55047707545</v>
+      </c>
       <c r="K39" s="30"/>
       <c r="L39" s="30"/>
       <c r="M39" s="30"/>
@@ -5662,7 +5986,7 @@
       <c r="O39" s="30"/>
       <c r="P39" s="30"/>
       <c r="Q39" s="25"/>
-      <c r="R39" s="61" t="s">
+      <c r="R39" s="67" t="s">
         <v>60</v>
       </c>
       <c r="S39" s="30" t="s">
@@ -5672,22 +5996,22 @@
         <v>37</v>
       </c>
       <c r="U39" s="89">
-        <v>1.0317014446228</v>
+        <v>0.12510499967702</v>
       </c>
       <c r="V39" s="89">
-        <v>0.011278224542383</v>
+        <v>0.0020769661861305</v>
       </c>
       <c r="W39" s="89">
-        <v>1.0409018742255</v>
+        <v>0.28955378835135</v>
       </c>
       <c r="X39" s="89">
-        <v>0.00024805743653755</v>
+        <v>0.0012413138173964</v>
       </c>
       <c r="Y39" s="89">
-        <v>1.0363016594242</v>
+        <v>0.23429899535677</v>
       </c>
       <c r="Z39" s="89">
-        <v>0.0057631409894603</v>
+        <v>0.0016591400017635</v>
       </c>
       <c r="AA39" s="30"/>
       <c r="AB39" s="30"/>
@@ -5696,7 +6020,7 @@
       <c r="AE39" s="30"/>
       <c r="AF39" s="30"/>
       <c r="AG39" s="25"/>
-      <c r="AH39" s="61" t="s">
+      <c r="AH39" s="67" t="s">
         <v>60</v>
       </c>
       <c r="AI39" s="30" t="s">
@@ -5709,22 +6033,22 @@
         <v>52</v>
       </c>
       <c r="AL39" s="89">
-        <v>783.63863462485</v>
+        <v>82.051926543062</v>
       </c>
       <c r="AM39" s="89">
-        <v>0.0078990774370185</v>
+        <v>3.5562519332276E-7</v>
       </c>
       <c r="AN39" s="89">
-        <v>1317.4598435693</v>
+        <v>364.78111157289</v>
       </c>
       <c r="AO39" s="89">
-        <v>0.013279995223178</v>
+        <v>1.5810153251614E-6</v>
       </c>
       <c r="AP39" s="89">
-        <v>1317.7889717958</v>
+        <v>441.47825895623</v>
       </c>
       <c r="AQ39" s="89">
-        <v>0.013283312835702</v>
+        <v>1.9134321130986E-6</v>
       </c>
       <c r="AR39" s="30"/>
       <c r="AS39" s="30"/>
@@ -5733,7 +6057,7 @@
       <c r="AV39" s="30"/>
       <c r="AW39" s="30"/>
       <c r="AX39" s="25"/>
-      <c r="AY39" s="61" t="s">
+      <c r="AY39" s="67" t="s">
         <v>60</v>
       </c>
       <c r="AZ39" s="30" t="s">
@@ -5743,22 +6067,22 @@
         <v>37</v>
       </c>
       <c r="BB39" s="89">
-        <v>6.1436436597111</v>
+        <v>0.63755963439054</v>
       </c>
       <c r="BC39" s="89">
-        <v>0.51915652383978</v>
+        <v>0.037381830135026</v>
       </c>
       <c r="BD39" s="89">
-        <v>5.6008296545849</v>
+        <v>1.5713757365634</v>
       </c>
       <c r="BE39" s="89">
-        <v>0.0069108725758698</v>
+        <v>0.0083374515229037</v>
       </c>
       <c r="BF39" s="89">
-        <v>5.872236657148</v>
+        <v>1.2576135262333</v>
       </c>
       <c r="BG39" s="89">
-        <v>0.26303369820782</v>
+        <v>0.022859640828965</v>
       </c>
       <c r="BH39" s="30"/>
       <c r="BI39" s="30"/>
@@ -5779,19 +6103,31 @@
     </row>
     <row r="40" spans="1:75">
       <c r="A40" s="24"/>
-      <c r="B40" s="61"/>
+      <c r="B40" s="67"/>
       <c r="C40" s="30" t="s">
         <v>57</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
-      <c r="J40" s="30"/>
+      <c r="E40" s="89">
+        <v>414584.23468874</v>
+      </c>
+      <c r="F40" s="89">
+        <v>29.324646986629</v>
+      </c>
+      <c r="G40" s="89">
+        <v>1342034.4011305</v>
+      </c>
+      <c r="H40" s="89">
+        <v>43.953528396315</v>
+      </c>
+      <c r="I40" s="89">
+        <v>1743867.5363523</v>
+      </c>
+      <c r="J40" s="89">
+        <v>39.038224242661</v>
+      </c>
       <c r="K40" s="30"/>
       <c r="L40" s="30"/>
       <c r="M40" s="30"/>
@@ -5799,7 +6135,7 @@
       <c r="O40" s="30"/>
       <c r="P40" s="30"/>
       <c r="Q40" s="25"/>
-      <c r="R40" s="61"/>
+      <c r="R40" s="67"/>
       <c r="S40" s="30" t="s">
         <v>57</v>
       </c>
@@ -5807,22 +6143,22 @@
         <v>37</v>
       </c>
       <c r="U40" s="89">
-        <v>1.0559928295643</v>
+        <v>0.30873598604741</v>
       </c>
       <c r="V40" s="89">
-        <v>0.00018852242945062</v>
+        <v>0.0011108497357354</v>
       </c>
       <c r="W40" s="89">
-        <v>1.0137065652177</v>
+        <v>0.4455563066657</v>
       </c>
       <c r="X40" s="89">
-        <v>2.3324947190177E-5</v>
+        <v>0.00059895604805515</v>
       </c>
       <c r="Y40" s="89">
-        <v>1.034849697391</v>
+        <v>0.39958467893796</v>
       </c>
       <c r="Z40" s="89">
-        <v>0.0001059236883204</v>
+        <v>0.00085490289189526</v>
       </c>
       <c r="AA40" s="30"/>
       <c r="AB40" s="30"/>
@@ -5831,7 +6167,7 @@
       <c r="AE40" s="30"/>
       <c r="AF40" s="30"/>
       <c r="AG40" s="25"/>
-      <c r="AH40" s="61"/>
+      <c r="AH40" s="67"/>
       <c r="AI40" s="30" t="s">
         <v>57</v>
       </c>
@@ -5842,22 +6178,22 @@
         <v>52</v>
       </c>
       <c r="AL40" s="89">
-        <v>411.16058571157</v>
+        <v>120.67515632653</v>
       </c>
       <c r="AM40" s="89">
-        <v>0.0041444987039726</v>
+        <v>5.2302398744231E-7</v>
       </c>
       <c r="AN40" s="89">
-        <v>1041.6207344317</v>
+        <v>462.52806748284</v>
       </c>
       <c r="AO40" s="89">
-        <v>0.010499537003071</v>
+        <v>2.0046650986246E-6</v>
       </c>
       <c r="AP40" s="89">
-        <v>1041.7934218776</v>
+        <v>577.4392735328</v>
       </c>
       <c r="AQ40" s="89">
-        <v>0.010501277692527</v>
+        <v>2.5027072725036E-6</v>
       </c>
       <c r="AR40" s="30"/>
       <c r="AS40" s="30"/>
@@ -5866,7 +6202,7 @@
       <c r="AV40" s="30"/>
       <c r="AW40" s="30"/>
       <c r="AX40" s="25"/>
-      <c r="AY40" s="61"/>
+      <c r="AY40" s="67"/>
       <c r="AZ40" s="30" t="s">
         <v>57</v>
       </c>
@@ -5874,22 +6210,22 @@
         <v>37</v>
       </c>
       <c r="BB40" s="89">
-        <v>3.9375904578047</v>
+        <v>1.1342035753504</v>
       </c>
       <c r="BC40" s="89">
-        <v>0.0070886442247157</v>
+        <v>0.0022713499301456</v>
       </c>
       <c r="BD40" s="89">
-        <v>4.2388766252573</v>
+        <v>1.8046605526946</v>
       </c>
       <c r="BE40" s="89">
-        <v>0.0050411101964569</v>
+        <v>0.0012734118877421</v>
       </c>
       <c r="BF40" s="89">
-        <v>4.088233541531</v>
+        <v>1.5793870083069</v>
       </c>
       <c r="BG40" s="89">
-        <v>0.0060648772105863</v>
+        <v>0.0017723809089439</v>
       </c>
       <c r="BH40" s="30"/>
       <c r="BI40" s="30"/>
@@ -5910,19 +6246,31 @@
     </row>
     <row r="41" spans="1:75">
       <c r="A41" s="24"/>
-      <c r="B41" s="61"/>
+      <c r="B41" s="67"/>
       <c r="C41" s="30" t="s">
         <v>58</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="30"/>
+      <c r="E41" s="89">
+        <v>1684.0175256637</v>
+      </c>
+      <c r="F41" s="89">
+        <v>0.11911504424779</v>
+      </c>
+      <c r="G41" s="89">
+        <v>0</v>
+      </c>
+      <c r="H41" s="89">
+        <v>0</v>
+      </c>
+      <c r="I41" s="89">
+        <v>1787.8428103646</v>
+      </c>
+      <c r="J41" s="89">
+        <v>0.040022654867257</v>
+      </c>
       <c r="K41" s="30"/>
       <c r="L41" s="30"/>
       <c r="M41" s="30"/>
@@ -5930,7 +6278,7 @@
       <c r="O41" s="30"/>
       <c r="P41" s="30"/>
       <c r="Q41" s="25"/>
-      <c r="R41" s="61"/>
+      <c r="R41" s="67"/>
       <c r="S41" s="30" t="s">
         <v>58</v>
       </c>
@@ -5938,7 +6286,7 @@
         <v>37</v>
       </c>
       <c r="U41" s="89">
-        <v>0.66</v>
+        <v>0.0011911504424779</v>
       </c>
       <c r="V41" s="89">
         <v>0</v>
@@ -5950,7 +6298,7 @@
         <v>0</v>
       </c>
       <c r="Y41" s="89">
-        <v>0.33</v>
+        <v>0.00040022654867257</v>
       </c>
       <c r="Z41" s="89">
         <v>0</v>
@@ -5962,7 +6310,7 @@
       <c r="AE41" s="30"/>
       <c r="AF41" s="30"/>
       <c r="AG41" s="25"/>
-      <c r="AH41" s="61"/>
+      <c r="AH41" s="67"/>
       <c r="AI41" s="30" t="s">
         <v>58</v>
       </c>
@@ -5973,10 +6321,10 @@
         <v>52</v>
       </c>
       <c r="AL41" s="89">
-        <v>335.9127024</v>
+        <v>0.60624630923894</v>
       </c>
       <c r="AM41" s="89">
-        <v>0.003386000040192</v>
+        <v>2.6275612286953E-9</v>
       </c>
       <c r="AN41" s="89">
         <v>0</v>
@@ -5985,10 +6333,10 @@
         <v>0</v>
       </c>
       <c r="AP41" s="89">
-        <v>0.141083335008</v>
+        <v>0.64362341173126</v>
       </c>
       <c r="AQ41" s="89">
-        <v>1.4221200168806E-6</v>
+        <v>2.7895591227082E-9</v>
       </c>
       <c r="AR41" s="30"/>
       <c r="AS41" s="30"/>
@@ -5997,7 +6345,7 @@
       <c r="AV41" s="30"/>
       <c r="AW41" s="30"/>
       <c r="AX41" s="25"/>
-      <c r="AY41" s="61"/>
+      <c r="AY41" s="67"/>
       <c r="AZ41" s="30" t="s">
         <v>58</v>
       </c>
@@ -6005,7 +6353,7 @@
         <v>37</v>
       </c>
       <c r="BB41" s="89">
-        <v>19.8</v>
+        <v>0.035734513274336</v>
       </c>
       <c r="BC41" s="89">
         <v>0</v>
@@ -6017,7 +6365,7 @@
         <v>0</v>
       </c>
       <c r="BF41" s="89">
-        <v>9.9</v>
+        <v>0.012006796460177</v>
       </c>
       <c r="BG41" s="89">
         <v>0</v>
@@ -6040,19 +6388,31 @@
     </row>
     <row r="42" spans="1:75">
       <c r="A42" s="24"/>
-      <c r="B42" s="61"/>
+      <c r="B42" s="67"/>
       <c r="C42" s="30" t="s">
         <v>59</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="30"/>
+      <c r="E42" s="89">
+        <v>1684.0175256637</v>
+      </c>
+      <c r="F42" s="89">
+        <v>0.11911504424779</v>
+      </c>
+      <c r="G42" s="89">
+        <v>0</v>
+      </c>
+      <c r="H42" s="89">
+        <v>0</v>
+      </c>
+      <c r="I42" s="89">
+        <v>1787.8428103646</v>
+      </c>
+      <c r="J42" s="89">
+        <v>0.040022654867257</v>
+      </c>
       <c r="K42" s="30"/>
       <c r="L42" s="30"/>
       <c r="M42" s="30"/>
@@ -6060,7 +6420,7 @@
       <c r="O42" s="30"/>
       <c r="P42" s="30"/>
       <c r="Q42" s="25"/>
-      <c r="R42" s="61"/>
+      <c r="R42" s="67"/>
       <c r="S42" s="30" t="s">
         <v>59</v>
       </c>
@@ -6068,7 +6428,7 @@
         <v>37</v>
       </c>
       <c r="U42" s="89">
-        <v>0.66</v>
+        <v>0.0011911504424779</v>
       </c>
       <c r="V42" s="89">
         <v>0</v>
@@ -6080,7 +6440,7 @@
         <v>0</v>
       </c>
       <c r="Y42" s="89">
-        <v>0.33</v>
+        <v>0.00040022654867257</v>
       </c>
       <c r="Z42" s="89">
         <v>0</v>
@@ -6092,7 +6452,7 @@
       <c r="AE42" s="30"/>
       <c r="AF42" s="30"/>
       <c r="AG42" s="25"/>
-      <c r="AH42" s="61"/>
+      <c r="AH42" s="67"/>
       <c r="AI42" s="30" t="s">
         <v>59</v>
       </c>
@@ -6103,10 +6463,10 @@
         <v>52</v>
       </c>
       <c r="AL42" s="89">
-        <v>167.9563512</v>
+        <v>0.30312315461947</v>
       </c>
       <c r="AM42" s="89">
-        <v>0.001693000020096</v>
+        <v>1.3137806143477E-9</v>
       </c>
       <c r="AN42" s="89">
         <v>0</v>
@@ -6115,10 +6475,10 @@
         <v>0</v>
       </c>
       <c r="AP42" s="89">
-        <v>0.070541667504</v>
+        <v>0.32181170586563</v>
       </c>
       <c r="AQ42" s="89">
-        <v>7.1106000844032E-7</v>
+        <v>1.3947795613541E-9</v>
       </c>
       <c r="AR42" s="30"/>
       <c r="AS42" s="30"/>
@@ -6127,7 +6487,7 @@
       <c r="AV42" s="30"/>
       <c r="AW42" s="30"/>
       <c r="AX42" s="25"/>
-      <c r="AY42" s="61"/>
+      <c r="AY42" s="67"/>
       <c r="AZ42" s="30" t="s">
         <v>59</v>
       </c>
@@ -6135,7 +6495,7 @@
         <v>37</v>
       </c>
       <c r="BB42" s="89">
-        <v>1.32</v>
+        <v>0.0023823008849558</v>
       </c>
       <c r="BC42" s="89">
         <v>0</v>
@@ -6147,7 +6507,7 @@
         <v>0</v>
       </c>
       <c r="BF42" s="89">
-        <v>0.66</v>
+        <v>0.00080045309734513</v>
       </c>
       <c r="BG42" s="89">
         <v>0</v>
@@ -6170,7 +6530,7 @@
     </row>
     <row r="43" spans="1:75">
       <c r="A43" s="24"/>
-      <c r="B43" s="61" t="s">
+      <c r="B43" s="67" t="s">
         <v>61</v>
       </c>
       <c r="C43" s="30" t="s">
@@ -6179,12 +6539,24 @@
       <c r="D43" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
-      <c r="J43" s="30"/>
+      <c r="E43" s="89">
+        <v>10113.776277721</v>
+      </c>
+      <c r="F43" s="89">
+        <v>0.71537432982365</v>
+      </c>
+      <c r="G43" s="89">
+        <v>51475.601393243</v>
+      </c>
+      <c r="H43" s="89">
+        <v>1.6858988902589</v>
+      </c>
+      <c r="I43" s="89">
+        <v>60743.430885378</v>
+      </c>
+      <c r="J43" s="89">
+        <v>1.3598026379527</v>
+      </c>
       <c r="K43" s="30"/>
       <c r="L43" s="30"/>
       <c r="M43" s="30"/>
@@ -6192,7 +6564,7 @@
       <c r="O43" s="30"/>
       <c r="P43" s="30"/>
       <c r="Q43" s="25"/>
-      <c r="R43" s="61" t="s">
+      <c r="R43" s="67" t="s">
         <v>61</v>
       </c>
       <c r="S43" s="30" t="s">
@@ -6202,22 +6574,22 @@
         <v>37</v>
       </c>
       <c r="U43" s="89">
-        <v>1</v>
+        <v>0.0071537432982365</v>
       </c>
       <c r="V43" s="89">
-        <v>0.23452078799117</v>
+        <v>0.0063975961117612</v>
       </c>
       <c r="W43" s="89">
-        <v>1.0294117647059</v>
+        <v>0.017461341843766</v>
       </c>
       <c r="X43" s="89">
-        <v>0.0027379756600475</v>
+        <v>0.00098810831797435</v>
       </c>
       <c r="Y43" s="89">
-        <v>1.0147058823529</v>
+        <v>0.013997988732468</v>
       </c>
       <c r="Z43" s="89">
-        <v>0.11862938182561</v>
+        <v>0.0036928522148678</v>
       </c>
       <c r="AA43" s="30"/>
       <c r="AB43" s="30"/>
@@ -6226,7 +6598,7 @@
       <c r="AE43" s="30"/>
       <c r="AF43" s="30"/>
       <c r="AG43" s="25"/>
-      <c r="AH43" s="61" t="s">
+      <c r="AH43" s="67" t="s">
         <v>61</v>
       </c>
       <c r="AI43" s="30" t="s">
@@ -6239,22 +6611,22 @@
         <v>52</v>
       </c>
       <c r="AL43" s="89">
-        <v>1656.26451648</v>
+        <v>11.08241641518</v>
       </c>
       <c r="AM43" s="89">
-        <v>0.016695146326118</v>
+        <v>4.8032832941019E-8</v>
       </c>
       <c r="AN43" s="89">
-        <v>1086.7472784706</v>
+        <v>19.615194830816</v>
       </c>
       <c r="AO43" s="89">
-        <v>0.010954412566984</v>
+        <v>8.5015157445592E-8</v>
       </c>
       <c r="AP43" s="89">
-        <v>1087.4429095675</v>
+        <v>30.820916222421</v>
       </c>
       <c r="AQ43" s="89">
-        <v>0.01096142452844</v>
+        <v>1.3358241240357E-7</v>
       </c>
       <c r="AR43" s="30"/>
       <c r="AS43" s="30"/>
@@ -6263,7 +6635,7 @@
       <c r="AV43" s="30"/>
       <c r="AW43" s="30"/>
       <c r="AX43" s="25"/>
-      <c r="AY43" s="61" t="s">
+      <c r="AY43" s="67" t="s">
         <v>61</v>
       </c>
       <c r="AZ43" s="30" t="s">
@@ -6273,22 +6645,22 @@
         <v>37</v>
       </c>
       <c r="BB43" s="89">
-        <v>1.6733333333333</v>
+        <v>0.013118616368452</v>
       </c>
       <c r="BC43" s="89">
-        <v>0.74236858171067</v>
+        <v>0.0058482203996645</v>
       </c>
       <c r="BD43" s="89">
-        <v>2.6136363636364</v>
+        <v>0.043651787916153</v>
       </c>
       <c r="BE43" s="89">
-        <v>0.048341943944388</v>
+        <v>0.0036683301419273</v>
       </c>
       <c r="BF43" s="89">
-        <v>2.1434848484848</v>
+        <v>0.033392642276125</v>
       </c>
       <c r="BG43" s="89">
-        <v>0.39535526282753</v>
+        <v>0.0047582752707959</v>
       </c>
       <c r="BH43" s="30"/>
       <c r="BI43" s="30"/>
@@ -6308,19 +6680,31 @@
     </row>
     <row r="44" spans="1:75">
       <c r="A44" s="24"/>
-      <c r="B44" s="61"/>
+      <c r="B44" s="67"/>
       <c r="C44" s="30" t="s">
         <v>57</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="30"/>
+      <c r="E44" s="89">
+        <v>23598.811314683</v>
+      </c>
+      <c r="F44" s="89">
+        <v>1.6692067695885</v>
+      </c>
+      <c r="G44" s="89">
+        <v>112152.77330533</v>
+      </c>
+      <c r="H44" s="89">
+        <v>3.6731622542975</v>
+      </c>
+      <c r="I44" s="89">
+        <v>134004.85942639</v>
+      </c>
+      <c r="J44" s="89">
+        <v>2.9998332114353</v>
+      </c>
       <c r="K44" s="30"/>
       <c r="L44" s="30"/>
       <c r="M44" s="30"/>
@@ -6328,7 +6712,7 @@
       <c r="O44" s="30"/>
       <c r="P44" s="30"/>
       <c r="Q44" s="25"/>
-      <c r="R44" s="61"/>
+      <c r="R44" s="67"/>
       <c r="S44" s="30" t="s">
         <v>57</v>
       </c>
@@ -6336,22 +6720,22 @@
         <v>37</v>
       </c>
       <c r="U44" s="89">
-        <v>1</v>
+        <v>0.016692067695885</v>
       </c>
       <c r="V44" s="89">
-        <v>0</v>
+        <v>0.0015425828340916</v>
       </c>
       <c r="W44" s="89">
-        <v>1</v>
+        <v>0.036731622542975</v>
       </c>
       <c r="X44" s="89">
-        <v>0</v>
+        <v>0.0015059430638662</v>
       </c>
       <c r="Y44" s="89">
-        <v>1</v>
+        <v>0.029998332114353</v>
       </c>
       <c r="Z44" s="89">
-        <v>0</v>
+        <v>0.0015242629489789</v>
       </c>
       <c r="AA44" s="30"/>
       <c r="AB44" s="30"/>
@@ -6360,7 +6744,7 @@
       <c r="AE44" s="30"/>
       <c r="AF44" s="30"/>
       <c r="AG44" s="25"/>
-      <c r="AH44" s="61"/>
+      <c r="AH44" s="67"/>
       <c r="AI44" s="30" t="s">
         <v>57</v>
       </c>
@@ -6371,22 +6755,22 @@
         <v>52</v>
       </c>
       <c r="AL44" s="89">
-        <v>747.97531179429</v>
+        <v>10.81676965956</v>
       </c>
       <c r="AM44" s="89">
-        <v>0.0075395911428864</v>
+        <v>4.6881480586442E-8</v>
       </c>
       <c r="AN44" s="89">
-        <v>1029.2041612368</v>
+        <v>36.446206785644</v>
       </c>
       <c r="AO44" s="89">
-        <v>0.010374377945267</v>
+        <v>1.5796325424758E-7</v>
       </c>
       <c r="AP44" s="89">
-        <v>1029.5183108678</v>
+        <v>46.889421729638</v>
       </c>
       <c r="AQ44" s="89">
-        <v>0.010377544573547</v>
+        <v>2.0322569341067E-7</v>
       </c>
       <c r="AR44" s="30"/>
       <c r="AS44" s="30"/>
@@ -6395,7 +6779,7 @@
       <c r="AV44" s="30"/>
       <c r="AW44" s="30"/>
       <c r="AX44" s="25"/>
-      <c r="AY44" s="61"/>
+      <c r="AY44" s="67"/>
       <c r="AZ44" s="30" t="s">
         <v>57</v>
       </c>
@@ -6403,22 +6787,22 @@
         <v>37</v>
       </c>
       <c r="BB44" s="89">
-        <v>4.4085714285714</v>
+        <v>0.065552037982043</v>
       </c>
       <c r="BC44" s="89">
-        <v>0.32531662083282</v>
+        <v>0.0073917610498211</v>
       </c>
       <c r="BD44" s="89">
-        <v>2.4207393483709</v>
+        <v>0.091832503082614</v>
       </c>
       <c r="BE44" s="89">
-        <v>0.013103391312274</v>
+        <v>0.003865513059331</v>
       </c>
       <c r="BF44" s="89">
-        <v>3.4146553884712</v>
+        <v>0.083002266808822</v>
       </c>
       <c r="BG44" s="89">
-        <v>0.16921000607255</v>
+        <v>0.005628637054576</v>
       </c>
       <c r="BH44" s="30"/>
       <c r="BI44" s="30"/>
@@ -6438,19 +6822,31 @@
     </row>
     <row r="45" spans="1:75">
       <c r="A45" s="24"/>
-      <c r="B45" s="61"/>
+      <c r="B45" s="67"/>
       <c r="C45" s="30" t="s">
         <v>58</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E45" s="30"/>
-      <c r="F45" s="30"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="30"/>
-      <c r="J45" s="30"/>
+      <c r="E45" s="89">
+        <v>0</v>
+      </c>
+      <c r="F45" s="89">
+        <v>0</v>
+      </c>
+      <c r="G45" s="89">
+        <v>0</v>
+      </c>
+      <c r="H45" s="89">
+        <v>0</v>
+      </c>
+      <c r="I45" s="89">
+        <v>0</v>
+      </c>
+      <c r="J45" s="89">
+        <v>0</v>
+      </c>
       <c r="K45" s="30"/>
       <c r="L45" s="30"/>
       <c r="M45" s="30"/>
@@ -6458,7 +6854,7 @@
       <c r="O45" s="30"/>
       <c r="P45" s="30"/>
       <c r="Q45" s="25"/>
-      <c r="R45" s="61"/>
+      <c r="R45" s="67"/>
       <c r="S45" s="30" t="s">
         <v>58</v>
       </c>
@@ -6490,7 +6886,7 @@
       <c r="AE45" s="30"/>
       <c r="AF45" s="30"/>
       <c r="AG45" s="25"/>
-      <c r="AH45" s="61"/>
+      <c r="AH45" s="67"/>
       <c r="AI45" s="30" t="s">
         <v>58</v>
       </c>
@@ -6525,7 +6921,7 @@
       <c r="AV45" s="30"/>
       <c r="AW45" s="30"/>
       <c r="AX45" s="25"/>
-      <c r="AY45" s="61"/>
+      <c r="AY45" s="67"/>
       <c r="AZ45" s="30" t="s">
         <v>58</v>
       </c>
@@ -6568,19 +6964,31 @@
     </row>
     <row r="46" spans="1:75">
       <c r="A46" s="24"/>
-      <c r="B46" s="61"/>
+      <c r="B46" s="67"/>
       <c r="C46" s="30" t="s">
         <v>59</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="30"/>
-      <c r="J46" s="30"/>
+      <c r="E46" s="89">
+        <v>0</v>
+      </c>
+      <c r="F46" s="89">
+        <v>0</v>
+      </c>
+      <c r="G46" s="89">
+        <v>0</v>
+      </c>
+      <c r="H46" s="89">
+        <v>0</v>
+      </c>
+      <c r="I46" s="89">
+        <v>0</v>
+      </c>
+      <c r="J46" s="89">
+        <v>0</v>
+      </c>
       <c r="K46" s="30"/>
       <c r="L46" s="30"/>
       <c r="M46" s="30"/>
@@ -6588,7 +6996,7 @@
       <c r="O46" s="30"/>
       <c r="P46" s="30"/>
       <c r="Q46" s="25"/>
-      <c r="R46" s="61"/>
+      <c r="R46" s="67"/>
       <c r="S46" s="30" t="s">
         <v>59</v>
       </c>
@@ -6620,7 +7028,7 @@
       <c r="AE46" s="30"/>
       <c r="AF46" s="30"/>
       <c r="AG46" s="25"/>
-      <c r="AH46" s="61"/>
+      <c r="AH46" s="67"/>
       <c r="AI46" s="30" t="s">
         <v>59</v>
       </c>
@@ -6655,7 +7063,7 @@
       <c r="AV46" s="30"/>
       <c r="AW46" s="30"/>
       <c r="AX46" s="25"/>
-      <c r="AY46" s="61"/>
+      <c r="AY46" s="67"/>
       <c r="AZ46" s="30" t="s">
         <v>59</v>
       </c>
@@ -6698,7 +7106,7 @@
     </row>
     <row r="47" spans="1:75">
       <c r="A47" s="24"/>
-      <c r="B47" s="61" t="s">
+      <c r="B47" s="67" t="s">
         <v>62</v>
       </c>
       <c r="C47" s="30" t="s">
@@ -6707,12 +7115,24 @@
       <c r="D47" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E47" s="30"/>
-      <c r="F47" s="30"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="30"/>
-      <c r="J47" s="30"/>
+      <c r="E47" s="89">
+        <v>1687.2412335766</v>
+      </c>
+      <c r="F47" s="89">
+        <v>0.11934306569343</v>
+      </c>
+      <c r="G47" s="89">
+        <v>49657.483143529</v>
+      </c>
+      <c r="H47" s="89">
+        <v>1.6263529411765</v>
+      </c>
+      <c r="I47" s="89">
+        <v>50031.156218213</v>
+      </c>
+      <c r="J47" s="89">
+        <v>1.1199976230142</v>
+      </c>
       <c r="K47" s="30"/>
       <c r="L47" s="30"/>
       <c r="M47" s="30"/>
@@ -6720,7 +7140,7 @@
       <c r="O47" s="30"/>
       <c r="P47" s="30"/>
       <c r="Q47" s="25"/>
-      <c r="R47" s="61" t="s">
+      <c r="R47" s="67" t="s">
         <v>62</v>
       </c>
       <c r="S47" s="30" t="s">
@@ -6730,19 +7150,19 @@
         <v>37</v>
       </c>
       <c r="U47" s="89">
-        <v>0.34</v>
+        <v>0.0011934306569343</v>
       </c>
       <c r="V47" s="89">
         <v>0</v>
       </c>
       <c r="W47" s="89">
-        <v>0.5</v>
+        <v>0.016263529411765</v>
       </c>
       <c r="X47" s="89">
         <v>0</v>
       </c>
       <c r="Y47" s="89">
-        <v>0.42</v>
+        <v>0.011199976230142</v>
       </c>
       <c r="Z47" s="89">
         <v>0</v>
@@ -6754,7 +7174,7 @@
       <c r="AE47" s="30"/>
       <c r="AF47" s="30"/>
       <c r="AG47" s="25"/>
-      <c r="AH47" s="61" t="s">
+      <c r="AH47" s="67" t="s">
         <v>62</v>
       </c>
       <c r="AI47" s="30" t="s">
@@ -6767,22 +7187,22 @@
         <v>52</v>
       </c>
       <c r="AL47" s="89">
-        <v>173.0459376</v>
+        <v>0.60740684408759</v>
       </c>
       <c r="AM47" s="89">
-        <v>0.001744303051008</v>
+        <v>2.6325911584885E-9</v>
       </c>
       <c r="AN47" s="89">
-        <v>537.381328</v>
+        <v>17.479434066522</v>
       </c>
       <c r="AO47" s="89">
-        <v>0.00541680378624</v>
+        <v>7.575845420055E-8</v>
       </c>
       <c r="AP47" s="89">
-        <v>537.45400729379</v>
+        <v>17.625297110976</v>
       </c>
       <c r="AQ47" s="89">
-        <v>0.0054175363935214</v>
+        <v>7.6390646222941E-8</v>
       </c>
       <c r="AR47" s="30"/>
       <c r="AS47" s="30"/>
@@ -6791,7 +7211,7 @@
       <c r="AV47" s="30"/>
       <c r="AW47" s="30"/>
       <c r="AX47" s="25"/>
-      <c r="AY47" s="61" t="s">
+      <c r="AY47" s="67" t="s">
         <v>62</v>
       </c>
       <c r="AZ47" s="30" t="s">
@@ -6801,19 +7221,19 @@
         <v>37</v>
       </c>
       <c r="BB47" s="89">
-        <v>0.34</v>
+        <v>0.0011934306569343</v>
       </c>
       <c r="BC47" s="89">
         <v>0</v>
       </c>
       <c r="BD47" s="89">
-        <v>2.4444444444444</v>
+        <v>0.079510588235294</v>
       </c>
       <c r="BE47" s="89">
         <v>0</v>
       </c>
       <c r="BF47" s="89">
-        <v>1.3922222222222</v>
+        <v>0.053196023288965</v>
       </c>
       <c r="BG47" s="89">
         <v>0</v>
@@ -6836,19 +7256,31 @@
     </row>
     <row r="48" spans="1:75">
       <c r="A48" s="24"/>
-      <c r="B48" s="61"/>
+      <c r="B48" s="67"/>
       <c r="C48" s="30" t="s">
         <v>57</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E48" s="30"/>
-      <c r="F48" s="30"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="30"/>
-      <c r="I48" s="30"/>
-      <c r="J48" s="30"/>
+      <c r="E48" s="89">
+        <v>5061.7237007299</v>
+      </c>
+      <c r="F48" s="89">
+        <v>0.35802919708029</v>
+      </c>
+      <c r="G48" s="89">
+        <v>11034.996254118</v>
+      </c>
+      <c r="H48" s="89">
+        <v>0.36141176470588</v>
+      </c>
+      <c r="I48" s="89">
+        <v>16093.771577932</v>
+      </c>
+      <c r="J48" s="89">
+        <v>0.36027522198368</v>
+      </c>
       <c r="K48" s="30"/>
       <c r="L48" s="30"/>
       <c r="M48" s="30"/>
@@ -6856,7 +7288,7 @@
       <c r="O48" s="30"/>
       <c r="P48" s="30"/>
       <c r="Q48" s="25"/>
-      <c r="R48" s="61"/>
+      <c r="R48" s="67"/>
       <c r="S48" s="30" t="s">
         <v>57</v>
       </c>
@@ -6864,19 +7296,19 @@
         <v>37</v>
       </c>
       <c r="U48" s="89">
-        <v>0.34</v>
+        <v>0.0035802919708029</v>
       </c>
       <c r="V48" s="89">
         <v>0</v>
       </c>
       <c r="W48" s="89">
-        <v>0.5</v>
+        <v>0.0036141176470588</v>
       </c>
       <c r="X48" s="89">
         <v>0</v>
       </c>
       <c r="Y48" s="89">
-        <v>0.42</v>
+        <v>0.0036027522198368</v>
       </c>
       <c r="Z48" s="89">
         <v>0</v>
@@ -6888,7 +7320,7 @@
       <c r="AE48" s="30"/>
       <c r="AF48" s="30"/>
       <c r="AG48" s="25"/>
-      <c r="AH48" s="61"/>
+      <c r="AH48" s="67"/>
       <c r="AI48" s="30" t="s">
         <v>57</v>
       </c>
@@ -6899,22 +7331,22 @@
         <v>52</v>
       </c>
       <c r="AL48" s="89">
-        <v>111.51849312</v>
+        <v>1.1743198985693</v>
       </c>
       <c r="AM48" s="89">
-        <v>0.0011241064106496</v>
+        <v>5.0896762397445E-9</v>
       </c>
       <c r="AN48" s="89">
-        <v>442.728935</v>
+        <v>3.2001489136941</v>
       </c>
       <c r="AO48" s="89">
-        <v>0.0044627076648</v>
+        <v>1.386991901399E-8</v>
       </c>
       <c r="AP48" s="89">
-        <v>442.77577276711</v>
+        <v>4.3555136005162</v>
       </c>
       <c r="AQ48" s="89">
-        <v>0.0044631797894925</v>
+        <v>1.887744056065E-8</v>
       </c>
       <c r="AR48" s="30"/>
       <c r="AS48" s="30"/>
@@ -6923,7 +7355,7 @@
       <c r="AV48" s="30"/>
       <c r="AW48" s="30"/>
       <c r="AX48" s="25"/>
-      <c r="AY48" s="61"/>
+      <c r="AY48" s="67"/>
       <c r="AZ48" s="30" t="s">
         <v>57</v>
       </c>
@@ -6931,19 +7363,19 @@
         <v>37</v>
       </c>
       <c r="BB48" s="89">
-        <v>2.2666666666667</v>
+        <v>0.023868613138686</v>
       </c>
       <c r="BC48" s="89">
         <v>0</v>
       </c>
       <c r="BD48" s="89">
-        <v>2.5</v>
+        <v>0.018070588235294</v>
       </c>
       <c r="BE48" s="89">
         <v>0</v>
       </c>
       <c r="BF48" s="89">
-        <v>2.3833333333333</v>
+        <v>0.020018724602834</v>
       </c>
       <c r="BG48" s="89">
         <v>0</v>
@@ -6966,19 +7398,31 @@
     </row>
     <row r="49" spans="1:75">
       <c r="A49" s="24"/>
-      <c r="B49" s="61"/>
+      <c r="B49" s="67"/>
       <c r="C49" s="30" t="s">
         <v>58</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E49" s="30"/>
-      <c r="F49" s="30"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="30"/>
-      <c r="I49" s="30"/>
-      <c r="J49" s="30"/>
+      <c r="E49" s="89">
+        <v>0</v>
+      </c>
+      <c r="F49" s="89">
+        <v>0</v>
+      </c>
+      <c r="G49" s="89">
+        <v>0</v>
+      </c>
+      <c r="H49" s="89">
+        <v>0</v>
+      </c>
+      <c r="I49" s="89">
+        <v>0</v>
+      </c>
+      <c r="J49" s="89">
+        <v>0</v>
+      </c>
       <c r="K49" s="30"/>
       <c r="L49" s="30"/>
       <c r="M49" s="30"/>
@@ -6986,7 +7430,7 @@
       <c r="O49" s="30"/>
       <c r="P49" s="30"/>
       <c r="Q49" s="25"/>
-      <c r="R49" s="61"/>
+      <c r="R49" s="67"/>
       <c r="S49" s="30" t="s">
         <v>58</v>
       </c>
@@ -7018,7 +7462,7 @@
       <c r="AE49" s="30"/>
       <c r="AF49" s="30"/>
       <c r="AG49" s="25"/>
-      <c r="AH49" s="61"/>
+      <c r="AH49" s="67"/>
       <c r="AI49" s="30" t="s">
         <v>58</v>
       </c>
@@ -7053,7 +7497,7 @@
       <c r="AV49" s="30"/>
       <c r="AW49" s="30"/>
       <c r="AX49" s="25"/>
-      <c r="AY49" s="61"/>
+      <c r="AY49" s="67"/>
       <c r="AZ49" s="30" t="s">
         <v>58</v>
       </c>
@@ -7096,19 +7540,31 @@
     </row>
     <row r="50" spans="1:75">
       <c r="A50" s="24"/>
-      <c r="B50" s="61"/>
+      <c r="B50" s="67"/>
       <c r="C50" s="30" t="s">
         <v>59</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E50" s="30"/>
-      <c r="F50" s="30"/>
-      <c r="G50" s="30"/>
-      <c r="H50" s="30"/>
-      <c r="I50" s="30"/>
-      <c r="J50" s="30"/>
+      <c r="E50" s="89">
+        <v>0</v>
+      </c>
+      <c r="F50" s="89">
+        <v>0</v>
+      </c>
+      <c r="G50" s="89">
+        <v>1839.1660423529</v>
+      </c>
+      <c r="H50" s="89">
+        <v>0.060235294117647</v>
+      </c>
+      <c r="I50" s="89">
+        <v>1786.6626276894</v>
+      </c>
+      <c r="J50" s="89">
+        <v>0.039996235294118</v>
+      </c>
       <c r="K50" s="30"/>
       <c r="L50" s="30"/>
       <c r="M50" s="30"/>
@@ -7116,7 +7572,7 @@
       <c r="O50" s="30"/>
       <c r="P50" s="30"/>
       <c r="Q50" s="25"/>
-      <c r="R50" s="61"/>
+      <c r="R50" s="67"/>
       <c r="S50" s="30" t="s">
         <v>59</v>
       </c>
@@ -7130,13 +7586,13 @@
         <v>0</v>
       </c>
       <c r="W50" s="89">
-        <v>0.5</v>
+        <v>0.00060235294117647</v>
       </c>
       <c r="X50" s="89">
         <v>0</v>
       </c>
       <c r="Y50" s="89">
-        <v>0.25</v>
+        <v>0.00039996235294118</v>
       </c>
       <c r="Z50" s="89">
         <v>0</v>
@@ -7148,7 +7604,7 @@
       <c r="AE50" s="30"/>
       <c r="AF50" s="30"/>
       <c r="AG50" s="25"/>
-      <c r="AH50" s="61"/>
+      <c r="AH50" s="67"/>
       <c r="AI50" s="30" t="s">
         <v>59</v>
       </c>
@@ -7165,16 +7621,16 @@
         <v>0</v>
       </c>
       <c r="AN50" s="89">
-        <v>1648.78362</v>
+        <v>1.9862993257412</v>
       </c>
       <c r="AO50" s="89">
-        <v>0.0166197388896</v>
+        <v>8.6089152500625E-9</v>
       </c>
       <c r="AP50" s="89">
-        <v>1648.78362</v>
+        <v>1.9295956379046</v>
       </c>
       <c r="AQ50" s="89">
-        <v>0.0166197388896</v>
+        <v>8.3631530748328E-9</v>
       </c>
       <c r="AR50" s="30"/>
       <c r="AS50" s="30"/>
@@ -7183,7 +7639,7 @@
       <c r="AV50" s="30"/>
       <c r="AW50" s="30"/>
       <c r="AX50" s="25"/>
-      <c r="AY50" s="61"/>
+      <c r="AY50" s="67"/>
       <c r="AZ50" s="30" t="s">
         <v>59</v>
       </c>
@@ -7197,13 +7653,13 @@
         <v>0</v>
       </c>
       <c r="BD50" s="89">
-        <v>4</v>
+        <v>0.0048188235294118</v>
       </c>
       <c r="BE50" s="89">
         <v>0</v>
       </c>
       <c r="BF50" s="89">
-        <v>2</v>
+        <v>0.0031996988235294</v>
       </c>
       <c r="BG50" s="89">
         <v>0</v>
@@ -7226,7 +7682,7 @@
     </row>
     <row r="51" spans="1:75">
       <c r="A51" s="24"/>
-      <c r="B51" s="61" t="s">
+      <c r="B51" s="67" t="s">
         <v>63</v>
       </c>
       <c r="C51" s="30" t="s">
@@ -7235,12 +7691,24 @@
       <c r="D51" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E51" s="30"/>
-      <c r="F51" s="30"/>
-      <c r="G51" s="30"/>
-      <c r="H51" s="30"/>
-      <c r="I51" s="30"/>
-      <c r="J51" s="30"/>
+      <c r="E51" s="89">
+        <v>1687.2412335766</v>
+      </c>
+      <c r="F51" s="89">
+        <v>0.11934306569343</v>
+      </c>
+      <c r="G51" s="89">
+        <v>36750.792440252</v>
+      </c>
+      <c r="H51" s="89">
+        <v>1.2036405309349</v>
+      </c>
+      <c r="I51" s="89">
+        <v>37492.918019127</v>
+      </c>
+      <c r="J51" s="89">
+        <v>0.83931658261379</v>
+      </c>
       <c r="K51" s="30"/>
       <c r="L51" s="30"/>
       <c r="M51" s="30"/>
@@ -7248,7 +7716,7 @@
       <c r="O51" s="30"/>
       <c r="P51" s="30"/>
       <c r="Q51" s="25"/>
-      <c r="R51" s="61" t="s">
+      <c r="R51" s="67" t="s">
         <v>63</v>
       </c>
       <c r="S51" s="30" t="s">
@@ -7258,22 +7726,22 @@
         <v>37</v>
       </c>
       <c r="U51" s="89">
-        <v>0.34</v>
+        <v>0.0011934306569343</v>
       </c>
       <c r="V51" s="89">
         <v>0</v>
       </c>
       <c r="W51" s="89">
-        <v>1</v>
+        <v>0.012036405309349</v>
       </c>
       <c r="X51" s="89">
-        <v>0.37638632635454</v>
+        <v>0.003908509571621</v>
       </c>
       <c r="Y51" s="89">
-        <v>0.67</v>
+        <v>0.0083931658261379</v>
       </c>
       <c r="Z51" s="89">
-        <v>0.18819316317727</v>
+        <v>0.0019542547858105</v>
       </c>
       <c r="AA51" s="30"/>
       <c r="AB51" s="30"/>
@@ -7282,7 +7750,7 @@
       <c r="AE51" s="30"/>
       <c r="AF51" s="30"/>
       <c r="AG51" s="25"/>
-      <c r="AH51" s="61" t="s">
+      <c r="AH51" s="67" t="s">
         <v>63</v>
       </c>
       <c r="AI51" s="30" t="s">
@@ -7295,22 +7763,22 @@
         <v>52</v>
       </c>
       <c r="AL51" s="89">
-        <v>57.6819792</v>
+        <v>0.2024689480292</v>
       </c>
       <c r="AM51" s="89">
-        <v>0.000581434350336</v>
+        <v>8.7753038616285E-10</v>
       </c>
       <c r="AN51" s="89">
-        <v>744.28750776471</v>
+        <v>11.421211768437</v>
       </c>
       <c r="AO51" s="89">
-        <v>0.0075024180782682</v>
+        <v>4.9501222143749E-8</v>
       </c>
       <c r="AP51" s="89">
-        <v>744.31173419597</v>
+        <v>11.310117662897</v>
       </c>
       <c r="AQ51" s="89">
-        <v>0.0075026622806954</v>
+        <v>4.9019723848411E-8</v>
       </c>
       <c r="AR51" s="30"/>
       <c r="AS51" s="30"/>
@@ -7319,7 +7787,7 @@
       <c r="AV51" s="30"/>
       <c r="AW51" s="30"/>
       <c r="AX51" s="25"/>
-      <c r="AY51" s="61" t="s">
+      <c r="AY51" s="67" t="s">
         <v>63</v>
       </c>
       <c r="AZ51" s="30" t="s">
@@ -7364,19 +7832,31 @@
     </row>
     <row r="52" spans="1:75">
       <c r="A52" s="24"/>
-      <c r="B52" s="61"/>
+      <c r="B52" s="67"/>
       <c r="C52" s="30" t="s">
         <v>57</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E52" s="30"/>
-      <c r="F52" s="30"/>
-      <c r="G52" s="30"/>
-      <c r="H52" s="30"/>
-      <c r="I52" s="30"/>
-      <c r="J52" s="30"/>
+      <c r="E52" s="89">
+        <v>3368.0350513274</v>
+      </c>
+      <c r="F52" s="89">
+        <v>0.23823008849558</v>
+      </c>
+      <c r="G52" s="89">
+        <v>5513.6712556698</v>
+      </c>
+      <c r="H52" s="89">
+        <v>0.180580546892</v>
+      </c>
+      <c r="I52" s="89">
+        <v>8931.9558796492</v>
+      </c>
+      <c r="J52" s="89">
+        <v>0.1999507928708</v>
+      </c>
       <c r="K52" s="30"/>
       <c r="L52" s="30"/>
       <c r="M52" s="30"/>
@@ -7384,7 +7864,7 @@
       <c r="O52" s="30"/>
       <c r="P52" s="30"/>
       <c r="Q52" s="25"/>
-      <c r="R52" s="61"/>
+      <c r="R52" s="67"/>
       <c r="S52" s="30" t="s">
         <v>57</v>
       </c>
@@ -7392,22 +7872,22 @@
         <v>37</v>
       </c>
       <c r="U52" s="89">
-        <v>0.66</v>
+        <v>0.0023823008849558</v>
       </c>
       <c r="V52" s="89">
         <v>0</v>
       </c>
       <c r="W52" s="89">
-        <v>1</v>
+        <v>0.00180580546892</v>
       </c>
       <c r="X52" s="89">
-        <v>0</v>
+        <v>0.00094265751600608</v>
       </c>
       <c r="Y52" s="89">
-        <v>0.83</v>
+        <v>0.001999507928708</v>
       </c>
       <c r="Z52" s="89">
-        <v>0</v>
+        <v>0.00047132875800304</v>
       </c>
       <c r="AA52" s="30"/>
       <c r="AB52" s="30"/>
@@ -7416,7 +7896,7 @@
       <c r="AE52" s="30"/>
       <c r="AF52" s="30"/>
       <c r="AG52" s="25"/>
-      <c r="AH52" s="61"/>
+      <c r="AH52" s="67"/>
       <c r="AI52" s="30" t="s">
         <v>57</v>
       </c>
@@ -7427,22 +7907,22 @@
         <v>52</v>
       </c>
       <c r="AL52" s="89">
-        <v>44.78836032</v>
+        <v>0.16166568246372</v>
       </c>
       <c r="AM52" s="89">
-        <v>0.0004514666720256</v>
+        <v>7.0068299431875E-10</v>
       </c>
       <c r="AN52" s="89">
-        <v>109.918908</v>
+        <v>0.24254030530725</v>
       </c>
       <c r="AO52" s="89">
-        <v>0.00110798259264</v>
+        <v>1.0512055791668E-9</v>
       </c>
       <c r="AP52" s="89">
-        <v>109.93771911133</v>
+        <v>0.40724931920111</v>
       </c>
       <c r="AQ52" s="89">
-        <v>0.0011081722086423</v>
+        <v>1.7650788223169E-9</v>
       </c>
       <c r="AR52" s="30"/>
       <c r="AS52" s="30"/>
@@ -7451,7 +7931,7 @@
       <c r="AV52" s="30"/>
       <c r="AW52" s="30"/>
       <c r="AX52" s="25"/>
-      <c r="AY52" s="61"/>
+      <c r="AY52" s="67"/>
       <c r="AZ52" s="30" t="s">
         <v>57</v>
       </c>
@@ -7494,19 +7974,31 @@
     </row>
     <row r="53" spans="1:75">
       <c r="A53" s="24"/>
-      <c r="B53" s="61"/>
+      <c r="B53" s="67"/>
       <c r="C53" s="30" t="s">
         <v>58</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E53" s="30"/>
-      <c r="F53" s="30"/>
-      <c r="G53" s="30"/>
-      <c r="H53" s="30"/>
-      <c r="I53" s="30"/>
-      <c r="J53" s="30"/>
+      <c r="E53" s="89">
+        <v>0</v>
+      </c>
+      <c r="F53" s="89">
+        <v>0</v>
+      </c>
+      <c r="G53" s="89">
+        <v>0</v>
+      </c>
+      <c r="H53" s="89">
+        <v>0</v>
+      </c>
+      <c r="I53" s="89">
+        <v>0</v>
+      </c>
+      <c r="J53" s="89">
+        <v>0</v>
+      </c>
       <c r="K53" s="30"/>
       <c r="L53" s="30"/>
       <c r="M53" s="30"/>
@@ -7514,7 +8006,7 @@
       <c r="O53" s="30"/>
       <c r="P53" s="30"/>
       <c r="Q53" s="25"/>
-      <c r="R53" s="61"/>
+      <c r="R53" s="67"/>
       <c r="S53" s="30" t="s">
         <v>58</v>
       </c>
@@ -7546,7 +8038,7 @@
       <c r="AE53" s="30"/>
       <c r="AF53" s="30"/>
       <c r="AG53" s="25"/>
-      <c r="AH53" s="61"/>
+      <c r="AH53" s="67"/>
       <c r="AI53" s="30" t="s">
         <v>58</v>
       </c>
@@ -7581,7 +8073,7 @@
       <c r="AV53" s="30"/>
       <c r="AW53" s="30"/>
       <c r="AX53" s="25"/>
-      <c r="AY53" s="61"/>
+      <c r="AY53" s="67"/>
       <c r="AZ53" s="30" t="s">
         <v>58</v>
       </c>
@@ -7624,19 +8116,31 @@
     </row>
     <row r="54" spans="1:75">
       <c r="A54" s="24"/>
-      <c r="B54" s="61"/>
+      <c r="B54" s="67"/>
       <c r="C54" s="30" t="s">
         <v>59</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E54" s="30"/>
-      <c r="F54" s="30"/>
-      <c r="G54" s="30"/>
-      <c r="H54" s="30"/>
-      <c r="I54" s="30"/>
-      <c r="J54" s="30"/>
+      <c r="E54" s="89">
+        <v>0</v>
+      </c>
+      <c r="F54" s="89">
+        <v>0</v>
+      </c>
+      <c r="G54" s="89">
+        <v>0</v>
+      </c>
+      <c r="H54" s="89">
+        <v>0</v>
+      </c>
+      <c r="I54" s="89">
+        <v>0</v>
+      </c>
+      <c r="J54" s="89">
+        <v>0</v>
+      </c>
       <c r="K54" s="30"/>
       <c r="L54" s="30"/>
       <c r="M54" s="30"/>
@@ -7644,7 +8148,7 @@
       <c r="O54" s="30"/>
       <c r="P54" s="30"/>
       <c r="Q54" s="25"/>
-      <c r="R54" s="61"/>
+      <c r="R54" s="67"/>
       <c r="S54" s="30" t="s">
         <v>59</v>
       </c>
@@ -7676,7 +8180,7 @@
       <c r="AE54" s="30"/>
       <c r="AF54" s="30"/>
       <c r="AG54" s="25"/>
-      <c r="AH54" s="61"/>
+      <c r="AH54" s="67"/>
       <c r="AI54" s="30" t="s">
         <v>59</v>
       </c>
@@ -7711,7 +8215,7 @@
       <c r="AV54" s="30"/>
       <c r="AW54" s="30"/>
       <c r="AX54" s="25"/>
-      <c r="AY54" s="61"/>
+      <c r="AY54" s="67"/>
       <c r="AZ54" s="30" t="s">
         <v>59</v>
       </c>
@@ -7786,11 +8290,11 @@
       <c r="AE55" s="25"/>
       <c r="AF55" s="25"/>
       <c r="AG55" s="25"/>
-      <c r="AH55" s="76" t="s">
+      <c r="AH55" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="AI55" s="76"/>
-      <c r="AJ55" s="76"/>
+      <c r="AI55" s="71"/>
+      <c r="AJ55" s="71"/>
       <c r="AK55" s="4" t="s">
         <v>26</v>
       </c>
@@ -7878,11 +8382,11 @@
       <c r="AE56" s="25"/>
       <c r="AF56" s="25"/>
       <c r="AG56" s="25"/>
-      <c r="AH56" s="77" t="s">
+      <c r="AH56" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="AI56" s="78"/>
-      <c r="AJ56" s="79"/>
+      <c r="AI56" s="73"/>
+      <c r="AJ56" s="74"/>
       <c r="AK56" s="2" t="s">
         <v>30</v>
       </c>
@@ -7958,11 +8462,11 @@
       <c r="AE57" s="25"/>
       <c r="AF57" s="25"/>
       <c r="AG57" s="25"/>
-      <c r="AH57" s="76" t="s">
+      <c r="AH57" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="AI57" s="76"/>
-      <c r="AJ57" s="76"/>
+      <c r="AI57" s="71"/>
+      <c r="AJ57" s="71"/>
       <c r="AK57" s="4" t="s">
         <v>26</v>
       </c>
@@ -8017,11 +8521,11 @@
       <c r="BV57" s="25"/>
     </row>
     <row r="58" spans="1:75" s="24" customFormat="1">
-      <c r="AH58" s="80" t="s">
+      <c r="AH58" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="AI58" s="81"/>
-      <c r="AJ58" s="82"/>
+      <c r="AI58" s="59"/>
+      <c r="AJ58" s="60"/>
       <c r="AK58" s="42" t="s">
         <v>52</v>
       </c>
@@ -8039,11 +8543,11 @@
       <c r="AW58" s="2"/>
     </row>
     <row r="59" spans="1:75" s="24" customFormat="1">
-      <c r="AH59" s="86" t="s">
+      <c r="AH59" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="AI59" s="87"/>
-      <c r="AJ59" s="88"/>
+      <c r="AI59" s="65"/>
+      <c r="AJ59" s="66"/>
       <c r="AK59" s="4" t="s">
         <v>26</v>
       </c>
@@ -8073,11 +8577,11 @@
       <c r="AW59" s="43"/>
     </row>
     <row r="60" spans="1:75" s="24" customFormat="1">
-      <c r="AH60" s="80" t="s">
+      <c r="AH60" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="AI60" s="81"/>
-      <c r="AJ60" s="82"/>
+      <c r="AI60" s="59"/>
+      <c r="AJ60" s="60"/>
       <c r="AK60" s="42" t="s">
         <v>52</v>
       </c>
@@ -8095,11 +8599,11 @@
       <c r="AW60" s="2"/>
     </row>
     <row r="61" spans="1:75" s="24" customFormat="1">
-      <c r="AH61" s="80" t="s">
+      <c r="AH61" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="AI61" s="81"/>
-      <c r="AJ61" s="82"/>
+      <c r="AI61" s="59"/>
+      <c r="AJ61" s="60"/>
       <c r="AK61" s="42" t="s">
         <v>52</v>
       </c>
@@ -8117,11 +8621,11 @@
       <c r="AW61" s="2"/>
     </row>
     <row r="62" spans="1:75" s="24" customFormat="1">
-      <c r="AH62" s="80" t="s">
+      <c r="AH62" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="AI62" s="81"/>
-      <c r="AJ62" s="82"/>
+      <c r="AI62" s="59"/>
+      <c r="AJ62" s="60"/>
       <c r="AK62" s="42" t="s">
         <v>52</v>
       </c>
@@ -8139,11 +8643,11 @@
       <c r="AW62" s="2"/>
     </row>
     <row r="63" spans="1:75" s="24" customFormat="1">
-      <c r="AH63" s="80" t="s">
+      <c r="AH63" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="AI63" s="81"/>
-      <c r="AJ63" s="82"/>
+      <c r="AI63" s="59"/>
+      <c r="AJ63" s="60"/>
       <c r="AK63" s="42" t="s">
         <v>52</v>
       </c>
@@ -8161,11 +8665,11 @@
       <c r="AW63" s="2"/>
     </row>
     <row r="64" spans="1:75">
-      <c r="AH64" s="83" t="s">
+      <c r="AH64" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="AI64" s="84"/>
-      <c r="AJ64" s="85"/>
+      <c r="AI64" s="62"/>
+      <c r="AJ64" s="63"/>
       <c r="AK64" s="13" t="s">
         <v>26</v>
       </c>
@@ -8197,6 +8701,89 @@
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
+    <mergeCell ref="AI18:AI19"/>
+    <mergeCell ref="AK10:AK12"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="R35:R38"/>
+    <mergeCell ref="R39:R42"/>
+    <mergeCell ref="AH20:AH22"/>
+    <mergeCell ref="AH25:AH26"/>
+    <mergeCell ref="AH32:AH34"/>
+    <mergeCell ref="AH13:AH19"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="B9:P9"/>
+    <mergeCell ref="R9:AF9"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="R13:R19"/>
+    <mergeCell ref="S13:S15"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="S18:S19"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="K10:P10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="B10:D11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="R20:R22"/>
+    <mergeCell ref="R25:R26"/>
+    <mergeCell ref="S25:S26"/>
+    <mergeCell ref="U10:Z10"/>
+    <mergeCell ref="R43:R46"/>
+    <mergeCell ref="R47:R50"/>
+    <mergeCell ref="R51:R54"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="R10:T11"/>
+    <mergeCell ref="AR10:AW10"/>
+    <mergeCell ref="AL11:AM11"/>
+    <mergeCell ref="AN11:AO11"/>
+    <mergeCell ref="AP11:AQ11"/>
+    <mergeCell ref="AR11:AS11"/>
+    <mergeCell ref="AT11:AU11"/>
+    <mergeCell ref="AV11:AW11"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="Y11:Z11"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="AA10:AF10"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="R32:R34"/>
+    <mergeCell ref="AH9:AW9"/>
+    <mergeCell ref="AY9:BM9"/>
+    <mergeCell ref="AH57:AJ57"/>
+    <mergeCell ref="AH55:AJ55"/>
+    <mergeCell ref="AH56:AJ56"/>
+    <mergeCell ref="AY51:AY54"/>
+    <mergeCell ref="AH51:AH54"/>
+    <mergeCell ref="AZ13:AZ15"/>
+    <mergeCell ref="AZ16:AZ17"/>
+    <mergeCell ref="AZ18:AZ19"/>
+    <mergeCell ref="AY10:BA11"/>
+    <mergeCell ref="BB10:BG10"/>
+    <mergeCell ref="BH10:BM10"/>
+    <mergeCell ref="BB11:BC11"/>
+    <mergeCell ref="AH10:AJ11"/>
+    <mergeCell ref="AL10:AQ10"/>
+    <mergeCell ref="AY25:AY26"/>
+    <mergeCell ref="AZ25:AZ26"/>
+    <mergeCell ref="AY35:AY38"/>
+    <mergeCell ref="AY32:AY34"/>
+    <mergeCell ref="AY39:AY42"/>
+    <mergeCell ref="AY13:AY19"/>
+    <mergeCell ref="AI13:AI15"/>
+    <mergeCell ref="AI16:AI17"/>
     <mergeCell ref="B8:P8"/>
     <mergeCell ref="R8:AF8"/>
     <mergeCell ref="AH8:AW8"/>
@@ -8221,89 +8808,6 @@
     <mergeCell ref="AH47:AH50"/>
     <mergeCell ref="AI25:AI26"/>
     <mergeCell ref="AY20:AY22"/>
-    <mergeCell ref="AH9:AW9"/>
-    <mergeCell ref="AY9:BM9"/>
-    <mergeCell ref="AH57:AJ57"/>
-    <mergeCell ref="AH55:AJ55"/>
-    <mergeCell ref="AH56:AJ56"/>
-    <mergeCell ref="AY51:AY54"/>
-    <mergeCell ref="AH51:AH54"/>
-    <mergeCell ref="AZ13:AZ15"/>
-    <mergeCell ref="AZ16:AZ17"/>
-    <mergeCell ref="AZ18:AZ19"/>
-    <mergeCell ref="AY10:BA11"/>
-    <mergeCell ref="BB10:BG10"/>
-    <mergeCell ref="BH10:BM10"/>
-    <mergeCell ref="BB11:BC11"/>
-    <mergeCell ref="AH10:AJ11"/>
-    <mergeCell ref="AL10:AQ10"/>
-    <mergeCell ref="AY25:AY26"/>
-    <mergeCell ref="AZ25:AZ26"/>
-    <mergeCell ref="AY35:AY38"/>
-    <mergeCell ref="AY32:AY34"/>
-    <mergeCell ref="AY39:AY42"/>
-    <mergeCell ref="AY13:AY19"/>
-    <mergeCell ref="AI13:AI15"/>
-    <mergeCell ref="AI16:AI17"/>
-    <mergeCell ref="R43:R46"/>
-    <mergeCell ref="R47:R50"/>
-    <mergeCell ref="R51:R54"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="R10:T11"/>
-    <mergeCell ref="AR10:AW10"/>
-    <mergeCell ref="AL11:AM11"/>
-    <mergeCell ref="AN11:AO11"/>
-    <mergeCell ref="AP11:AQ11"/>
-    <mergeCell ref="AR11:AS11"/>
-    <mergeCell ref="AT11:AU11"/>
-    <mergeCell ref="AV11:AW11"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="AA10:AF10"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="R32:R34"/>
-    <mergeCell ref="B9:P9"/>
-    <mergeCell ref="R9:AF9"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="R13:R19"/>
-    <mergeCell ref="S13:S15"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="S18:S19"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="K10:P10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="B10:D11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="R20:R22"/>
-    <mergeCell ref="R25:R26"/>
-    <mergeCell ref="S25:S26"/>
-    <mergeCell ref="U10:Z10"/>
-    <mergeCell ref="AI18:AI19"/>
-    <mergeCell ref="AK10:AK12"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="R35:R38"/>
-    <mergeCell ref="R39:R42"/>
-    <mergeCell ref="AH20:AH22"/>
-    <mergeCell ref="AH25:AH26"/>
-    <mergeCell ref="AH32:AH34"/>
-    <mergeCell ref="AH13:AH19"/>
-    <mergeCell ref="B13:B19"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/storage/excel/sum912.xlsx
+++ b/storage/excel/sum912.xlsx
@@ -2285,19 +2285,19 @@
         <v>7.2529141210443</v>
       </c>
       <c r="AM13" s="89">
-        <v>0.61802081225418</v>
+        <v>0.65276227089399</v>
       </c>
       <c r="AN13" s="89">
         <v>24.360220764856</v>
       </c>
       <c r="AO13" s="89">
-        <v>2.0757344113734</v>
+        <v>2.192419868837</v>
       </c>
       <c r="AP13" s="89">
         <v>31.364880132893</v>
       </c>
       <c r="AQ13" s="89">
-        <v>2.6726014361239</v>
+        <v>2.8228392119604</v>
       </c>
       <c r="AR13" s="30"/>
       <c r="AS13" s="30"/>
@@ -2423,19 +2423,19 @@
         <v>55.165727229407</v>
       </c>
       <c r="AM14" s="89">
-        <v>4.7006716172178</v>
+        <v>4.9649154506467</v>
       </c>
       <c r="AN14" s="89">
         <v>86.749308557244</v>
       </c>
       <c r="AO14" s="89">
-        <v>7.3919085821628</v>
+        <v>7.807437770152</v>
       </c>
       <c r="AP14" s="89">
         <v>142.83971896297</v>
       </c>
       <c r="AQ14" s="89">
-        <v>12.171372452835</v>
+        <v>12.855574706667</v>
       </c>
       <c r="AR14" s="30"/>
       <c r="AS14" s="30"/>
@@ -2557,19 +2557,19 @@
         <v>6.8460990093975</v>
       </c>
       <c r="AM15" s="89">
-        <v>0.58335609659076</v>
+        <v>0.61614891084578</v>
       </c>
       <c r="AN15" s="89">
         <v>7.184322960601</v>
       </c>
       <c r="AO15" s="89">
-        <v>0.61217615947281</v>
+        <v>0.64658906645409</v>
       </c>
       <c r="AP15" s="89">
         <v>14.247412992399</v>
       </c>
       <c r="AQ15" s="89">
-        <v>1.2140220610823</v>
+        <v>1.2822671693159</v>
       </c>
       <c r="AR15" s="30"/>
       <c r="AS15" s="30"/>
@@ -2697,19 +2697,19 @@
         <v>3.2685301642238</v>
       </c>
       <c r="AM16" s="89">
-        <v>0.27851145529351</v>
+        <v>0.29416771478014</v>
       </c>
       <c r="AN16" s="89">
         <v>14.254972421492</v>
       </c>
       <c r="AO16" s="89">
-        <v>1.2146662000353</v>
+        <v>1.2829475179343</v>
       </c>
       <c r="AP16" s="89">
         <v>17.318075901583</v>
       </c>
       <c r="AQ16" s="89">
-        <v>1.4756732475739</v>
+        <v>1.5586268311425</v>
       </c>
       <c r="AR16" s="30"/>
       <c r="AS16" s="30"/>
@@ -2833,19 +2833,19 @@
         <v>53.979867866856</v>
       </c>
       <c r="AM17" s="89">
-        <v>4.5996245409348</v>
+        <v>4.8581881080171</v>
       </c>
       <c r="AN17" s="89">
         <v>112.25588477866</v>
       </c>
       <c r="AO17" s="89">
-        <v>9.5653239419896</v>
+        <v>10.103029630079</v>
       </c>
       <c r="AP17" s="89">
         <v>166.35917712867</v>
       </c>
       <c r="AQ17" s="89">
-        <v>14.175465483134</v>
+        <v>14.97232594158</v>
       </c>
       <c r="AR17" s="30"/>
       <c r="AS17" s="30"/>
@@ -2973,19 +2973,19 @@
         <v>1.0768426722641</v>
       </c>
       <c r="AM18" s="89">
-        <v>0.091757764103621</v>
+        <v>0.096915840503766</v>
       </c>
       <c r="AN18" s="89">
         <v>2.5835317051781</v>
       </c>
       <c r="AO18" s="89">
-        <v>0.22014273659823</v>
+        <v>0.23251785346603</v>
       </c>
       <c r="AP18" s="89">
         <v>3.653012190404</v>
       </c>
       <c r="AQ18" s="89">
-        <v>0.31127316874432</v>
+        <v>0.32877109713636</v>
       </c>
       <c r="AR18" s="30"/>
       <c r="AS18" s="30"/>
@@ -3109,19 +3109,19 @@
         <v>5.7506548997069</v>
       </c>
       <c r="AM19" s="89">
-        <v>0.49001330400402</v>
+        <v>0.51755894097362</v>
       </c>
       <c r="AN19" s="89">
         <v>3.322467096181</v>
       </c>
       <c r="AO19" s="89">
-        <v>0.28310742126559</v>
+        <v>0.29902203865629</v>
       </c>
       <c r="AP19" s="89">
         <v>9.33282120007</v>
       </c>
       <c r="AQ19" s="89">
-        <v>0.79524969445797</v>
+        <v>0.8399539080063</v>
       </c>
       <c r="AR19" s="30"/>
       <c r="AS19" s="30"/>
@@ -3255,19 +3255,19 @@
         <v>3.2377973459364</v>
       </c>
       <c r="AM20" s="89">
-        <v>0.27589271184724</v>
+        <v>0.29140176113428</v>
       </c>
       <c r="AN20" s="89">
         <v>2.3254078683687</v>
       </c>
       <c r="AO20" s="89">
-        <v>0.1981480044637</v>
+        <v>0.20928670815318</v>
       </c>
       <c r="AP20" s="89">
         <v>5.6964418396012</v>
       </c>
       <c r="AQ20" s="89">
-        <v>0.48539380915242</v>
+        <v>0.51267976556411</v>
       </c>
       <c r="AR20" s="30"/>
       <c r="AS20" s="30"/>
@@ -3399,19 +3399,19 @@
         <v>4.5594829810831</v>
       </c>
       <c r="AM21" s="89">
-        <v>0.38851354481809</v>
+        <v>0.41035346829748</v>
       </c>
       <c r="AN21" s="89">
         <v>3.994893802646</v>
       </c>
       <c r="AO21" s="89">
-        <v>0.34040490092347</v>
+        <v>0.35954044223814</v>
       </c>
       <c r="AP21" s="89">
         <v>8.721440238677</v>
       </c>
       <c r="AQ21" s="89">
-        <v>0.74315392273767</v>
+        <v>0.78492962148093</v>
       </c>
       <c r="AR21" s="30"/>
       <c r="AS21" s="30"/>
@@ -3541,19 +3541,19 @@
         <v>68.996380666104</v>
       </c>
       <c r="AM22" s="89">
-        <v>5.8791815965587</v>
+        <v>6.2096742599493</v>
       </c>
       <c r="AN22" s="89">
         <v>5.6993641972234</v>
       </c>
       <c r="AO22" s="89">
-        <v>0.48564282324541</v>
+        <v>0.51294277775011</v>
       </c>
       <c r="AP22" s="89">
         <v>78.786899296487</v>
       </c>
       <c r="AQ22" s="89">
-        <v>6.7134316890537</v>
+        <v>7.0908209366839</v>
       </c>
       <c r="AR22" s="30"/>
       <c r="AS22" s="30"/>
@@ -3689,19 +3689,19 @@
         <v>12.522716619176</v>
       </c>
       <c r="AM23" s="89">
-        <v>1.06706068312</v>
+        <v>1.1270444957259</v>
       </c>
       <c r="AN23" s="89">
         <v>8.3902568407534</v>
       </c>
       <c r="AO23" s="89">
-        <v>0.7149337854006</v>
+        <v>0.75512311566781</v>
       </c>
       <c r="AP23" s="89">
         <v>21.44552056842</v>
       </c>
       <c r="AQ23" s="89">
-        <v>1.827372807635</v>
+        <v>1.9300968511578</v>
       </c>
       <c r="AR23" s="30"/>
       <c r="AS23" s="30"/>
@@ -3839,19 +3839,19 @@
         <v>5.9517726409752</v>
       </c>
       <c r="AM24" s="89">
-        <v>0.5071505467375</v>
+        <v>0.53565953768777</v>
       </c>
       <c r="AN24" s="89">
         <v>2.0696568123669</v>
       </c>
       <c r="AO24" s="89">
-        <v>0.17635545698178</v>
+        <v>0.18626911311302</v>
       </c>
       <c r="AP24" s="89">
         <v>8.3292927159471</v>
       </c>
       <c r="AQ24" s="89">
-        <v>0.70973903232585</v>
+        <v>0.74963634443524</v>
       </c>
       <c r="AR24" s="30"/>
       <c r="AS24" s="30"/>
@@ -3989,19 +3989,19 @@
         <v>13.855609569265</v>
       </c>
       <c r="AM25" s="89">
-        <v>1.180636491397</v>
+        <v>1.2470048612338</v>
       </c>
       <c r="AN25" s="89">
         <v>19.999833528298</v>
       </c>
       <c r="AO25" s="89">
-        <v>1.7041858149463</v>
+        <v>1.7999850175468</v>
       </c>
       <c r="AP25" s="89">
         <v>34.138744224845</v>
       </c>
       <c r="AQ25" s="89">
-        <v>2.9089623953991</v>
+        <v>3.0724869802361</v>
       </c>
       <c r="AR25" s="30"/>
       <c r="AS25" s="30"/>
@@ -4127,19 +4127,19 @@
         <v>53.770353473322</v>
       </c>
       <c r="AM26" s="89">
-        <v>4.5817718194618</v>
+        <v>4.839331812599</v>
       </c>
       <c r="AN26" s="89">
         <v>75.405908066947</v>
       </c>
       <c r="AO26" s="89">
-        <v>6.4253374263845</v>
+        <v>6.7865317260252</v>
       </c>
       <c r="AP26" s="89">
         <v>130.33873990894</v>
       </c>
       <c r="AQ26" s="89">
-        <v>11.10616402764</v>
+        <v>11.730486591804</v>
       </c>
       <c r="AR26" s="30"/>
       <c r="AS26" s="30"/>
@@ -4273,19 +4273,19 @@
         <v>1.2270703161888</v>
       </c>
       <c r="AM27" s="89">
-        <v>0.10455866164245</v>
+        <v>0.11043632845699</v>
       </c>
       <c r="AN27" s="89">
         <v>2.1903999105404</v>
       </c>
       <c r="AO27" s="89">
-        <v>0.18664397637714</v>
+        <v>0.19713599194863</v>
       </c>
       <c r="AP27" s="89">
         <v>3.4305929657554</v>
       </c>
       <c r="AQ27" s="89">
-        <v>0.29232082661202</v>
+        <v>0.30875336691798</v>
       </c>
       <c r="AR27" s="30"/>
       <c r="AS27" s="30"/>
@@ -4423,19 +4423,19 @@
         <v>12.469433584727</v>
       </c>
       <c r="AM28" s="89">
-        <v>1.0625204357546</v>
+        <v>1.1222490226254</v>
       </c>
       <c r="AN28" s="89">
         <v>11.795963235726</v>
       </c>
       <c r="AO28" s="89">
-        <v>1.0051340273162</v>
+        <v>1.0616366912153</v>
       </c>
       <c r="AP28" s="89">
         <v>24.697434778724</v>
       </c>
       <c r="AQ28" s="89">
-        <v>2.104468417495</v>
+        <v>2.2227691300851</v>
       </c>
       <c r="AR28" s="30"/>
       <c r="AS28" s="30"/>
@@ -4573,19 +4573,19 @@
         <v>1.1302823741379</v>
       </c>
       <c r="AM29" s="89">
-        <v>0.096311361100287</v>
+        <v>0.10172541367241</v>
       </c>
       <c r="AN29" s="89">
         <v>1.1581269133533</v>
       </c>
       <c r="AO29" s="89">
-        <v>0.098683994286836</v>
+        <v>0.1042314222018</v>
       </c>
       <c r="AP29" s="89">
         <v>2.325033441309</v>
       </c>
       <c r="AQ29" s="89">
-        <v>0.19811609953394</v>
+        <v>0.20925300971781</v>
       </c>
       <c r="AR29" s="30"/>
       <c r="AS29" s="30"/>
@@ -4723,19 +4723,19 @@
         <v>0.11268266469474</v>
       </c>
       <c r="AM30" s="89">
-        <v>0.0096016898586385</v>
+        <v>0.010141439822526</v>
       </c>
       <c r="AN30" s="89">
         <v>0.94966944525756</v>
       </c>
       <c r="AO30" s="89">
-        <v>0.080921333430396</v>
+        <v>0.08547025007318</v>
       </c>
       <c r="AP30" s="89">
         <v>1.042188774615</v>
       </c>
       <c r="AQ30" s="89">
-        <v>0.088804905484942</v>
+        <v>0.093796989715348</v>
       </c>
       <c r="AR30" s="30"/>
       <c r="AS30" s="30"/>
@@ -4873,19 +4873,19 @@
         <v>0.35155486341358</v>
       </c>
       <c r="AM31" s="89">
-        <v>0.029955989911472</v>
+        <v>0.031639937707223</v>
       </c>
       <c r="AN31" s="89">
         <v>0.78252006551545</v>
       </c>
       <c r="AO31" s="89">
-        <v>0.066678534782572</v>
+        <v>0.070426805896391</v>
       </c>
       <c r="AP31" s="89">
         <v>1.1334105403331</v>
       </c>
       <c r="AQ31" s="89">
-        <v>0.096577912141781</v>
+        <v>0.10200694862998</v>
       </c>
       <c r="AR31" s="30"/>
       <c r="AS31" s="30"/>
@@ -5023,19 +5023,19 @@
         <v>3.3753127043595</v>
       </c>
       <c r="AM32" s="90">
-        <v>3.4831201921367E-5</v>
+        <v>2.8352626716619E-5</v>
       </c>
       <c r="AN32" s="90">
         <v>1.6769520509725</v>
       </c>
       <c r="AO32" s="90">
-        <v>1.7305138994806E-5</v>
+        <v>1.4086397228169E-5</v>
       </c>
       <c r="AP32" s="90">
         <v>5.2124913898245</v>
       </c>
       <c r="AQ32" s="90">
-        <v>5.3789783648155E-5</v>
+        <v>4.3784927674526E-5</v>
       </c>
       <c r="AR32" s="36"/>
       <c r="AS32" s="36"/>
@@ -5167,19 +5167,19 @@
         <v>0.44458062677522</v>
       </c>
       <c r="AM33" s="89">
-        <v>4.5878053199442E-6</v>
+        <v>3.7344772649119E-6</v>
       </c>
       <c r="AN33" s="89">
         <v>0.13241995504941</v>
       </c>
       <c r="AO33" s="89">
-        <v>1.3664944841369E-6</v>
+        <v>1.1123276224151E-6</v>
       </c>
       <c r="AP33" s="89">
         <v>0.60063021112989</v>
       </c>
       <c r="AQ33" s="89">
-        <v>6.1981434007338E-6</v>
+        <v>5.0452937734911E-6</v>
       </c>
       <c r="AR33" s="30"/>
       <c r="AS33" s="30"/>
@@ -5309,19 +5309,19 @@
         <v>4.9189043443996</v>
       </c>
       <c r="AM34" s="89">
-        <v>5.0760141491597E-5</v>
+        <v>4.1318796492956E-5</v>
       </c>
       <c r="AN34" s="89">
         <v>7.1536562959686</v>
       </c>
       <c r="AO34" s="89">
-        <v>7.3821440780619E-5</v>
+        <v>6.0090712886137E-5</v>
       </c>
       <c r="AP34" s="89">
         <v>12.1716091518</v>
       </c>
       <c r="AQ34" s="89">
-        <v>0.00012560370348109</v>
+        <v>0.00010224151687512</v>
       </c>
       <c r="AR34" s="30"/>
       <c r="AS34" s="30"/>
@@ -5457,19 +5457,19 @@
         <v>0.080832841231858</v>
       </c>
       <c r="AM35" s="90">
-        <v>3.5034149715938E-10</v>
+        <v>2.85178263866E-10</v>
       </c>
       <c r="AN35" s="90">
         <v>0.66141093839704</v>
       </c>
       <c r="AO35" s="90">
-        <v>2.8666528958317E-9</v>
+        <v>2.3334577906648E-9</v>
       </c>
       <c r="AP35" s="90">
         <v>0.72834582851901</v>
       </c>
       <c r="AQ35" s="90">
-        <v>3.156758615984E-9</v>
+        <v>2.5696040830151E-9</v>
       </c>
       <c r="AR35" s="36"/>
       <c r="AS35" s="36"/>
@@ -5601,19 +5601,19 @@
         <v>13.463464942479</v>
       </c>
       <c r="AM36" s="89">
-        <v>5.8352649653515E-8</v>
+        <v>4.7499104317065E-8</v>
       </c>
       <c r="AN36" s="89">
         <v>2.7007728124021</v>
       </c>
       <c r="AO36" s="89">
-        <v>1.1705549083327E-8</v>
+        <v>9.5283264821546E-9</v>
       </c>
       <c r="AP36" s="89">
         <v>16.917205123089</v>
       </c>
       <c r="AQ36" s="89">
-        <v>7.3321670749826E-8</v>
+        <v>5.9683899674258E-8</v>
       </c>
       <c r="AR36" s="30"/>
       <c r="AS36" s="30"/>
@@ -6036,19 +6036,19 @@
         <v>82.051926543062</v>
       </c>
       <c r="AM39" s="89">
-        <v>3.5562519332276E-7</v>
+        <v>2.8947919684392E-7</v>
       </c>
       <c r="AN39" s="89">
         <v>364.78111157289</v>
       </c>
       <c r="AO39" s="89">
-        <v>1.5810153251614E-6</v>
+        <v>1.2869477616291E-6</v>
       </c>
       <c r="AP39" s="89">
         <v>441.47825895623</v>
       </c>
       <c r="AQ39" s="89">
-        <v>1.9134321130986E-6</v>
+        <v>1.5575352975976E-6</v>
       </c>
       <c r="AR39" s="30"/>
       <c r="AS39" s="30"/>
@@ -6181,19 +6181,19 @@
         <v>120.67515632653</v>
       </c>
       <c r="AM40" s="89">
-        <v>5.2302398744231E-7</v>
+        <v>4.2574195151999E-7</v>
       </c>
       <c r="AN40" s="89">
         <v>462.52806748284</v>
       </c>
       <c r="AO40" s="89">
-        <v>2.0046650986246E-6</v>
+        <v>1.6317990220795E-6</v>
       </c>
       <c r="AP40" s="89">
         <v>577.4392735328</v>
       </c>
       <c r="AQ40" s="89">
-        <v>2.5027072725036E-6</v>
+        <v>2.0372057570237E-6</v>
       </c>
       <c r="AR40" s="30"/>
       <c r="AS40" s="30"/>
@@ -6324,7 +6324,7 @@
         <v>0.60624630923894</v>
       </c>
       <c r="AM41" s="89">
-        <v>2.6275612286953E-9</v>
+        <v>2.138836978995E-9</v>
       </c>
       <c r="AN41" s="89">
         <v>0</v>
@@ -6336,7 +6336,7 @@
         <v>0.64362341173126</v>
       </c>
       <c r="AQ41" s="89">
-        <v>2.7895591227082E-9</v>
+        <v>2.2707033965879E-9</v>
       </c>
       <c r="AR41" s="30"/>
       <c r="AS41" s="30"/>
@@ -6466,7 +6466,7 @@
         <v>0.30312315461947</v>
       </c>
       <c r="AM42" s="89">
-        <v>1.3137806143477E-9</v>
+        <v>1.0694184894975E-9</v>
       </c>
       <c r="AN42" s="89">
         <v>0</v>
@@ -6478,7 +6478,7 @@
         <v>0.32181170586563</v>
       </c>
       <c r="AQ42" s="89">
-        <v>1.3947795613541E-9</v>
+        <v>1.1353516982939E-9</v>
       </c>
       <c r="AR42" s="30"/>
       <c r="AS42" s="30"/>
@@ -6614,19 +6614,19 @@
         <v>11.08241641518</v>
       </c>
       <c r="AM43" s="89">
-        <v>4.8032832941019E-8</v>
+        <v>3.9098765112755E-8</v>
       </c>
       <c r="AN43" s="89">
         <v>19.615194830816</v>
       </c>
       <c r="AO43" s="89">
-        <v>8.5015157445592E-8</v>
+        <v>6.9202407363119E-8</v>
       </c>
       <c r="AP43" s="89">
         <v>30.820916222421</v>
       </c>
       <c r="AQ43" s="89">
-        <v>1.3358241240357E-7</v>
+        <v>1.087361924327E-7</v>
       </c>
       <c r="AR43" s="30"/>
       <c r="AS43" s="30"/>
@@ -6758,19 +6758,19 @@
         <v>10.81676965956</v>
       </c>
       <c r="AM44" s="89">
-        <v>4.6881480586442E-8</v>
+        <v>3.8161563358927E-8</v>
       </c>
       <c r="AN44" s="89">
         <v>36.446206785644</v>
       </c>
       <c r="AO44" s="89">
-        <v>1.5796325424758E-7</v>
+        <v>1.2858221753975E-7</v>
       </c>
       <c r="AP44" s="89">
         <v>46.889421729638</v>
       </c>
       <c r="AQ44" s="89">
-        <v>2.0322569341067E-7</v>
+        <v>1.6542587986216E-7</v>
       </c>
       <c r="AR44" s="30"/>
       <c r="AS44" s="30"/>
@@ -7190,19 +7190,19 @@
         <v>0.60740684408759</v>
       </c>
       <c r="AM47" s="89">
-        <v>2.6325911584885E-9</v>
+        <v>2.142931345941E-9</v>
       </c>
       <c r="AN47" s="89">
         <v>17.479434066522</v>
       </c>
       <c r="AO47" s="89">
-        <v>7.575845420055E-8</v>
+        <v>6.1667443386691E-8</v>
       </c>
       <c r="AP47" s="89">
         <v>17.625297110976</v>
       </c>
       <c r="AQ47" s="89">
-        <v>7.6390646222941E-8</v>
+        <v>6.2182048207522E-8</v>
       </c>
       <c r="AR47" s="30"/>
       <c r="AS47" s="30"/>
@@ -7334,19 +7334,19 @@
         <v>1.1743198985693</v>
       </c>
       <c r="AM48" s="89">
-        <v>5.0896762397445E-9</v>
+        <v>4.1430006021526E-9</v>
       </c>
       <c r="AN48" s="89">
         <v>3.2001489136941</v>
       </c>
       <c r="AO48" s="89">
-        <v>1.386991901399E-8</v>
+        <v>1.1290125367513E-8</v>
       </c>
       <c r="AP48" s="89">
         <v>4.3555136005162</v>
       </c>
       <c r="AQ48" s="89">
-        <v>1.887744056065E-8</v>
+        <v>1.5366251982621E-8</v>
       </c>
       <c r="AR48" s="30"/>
       <c r="AS48" s="30"/>
@@ -7624,13 +7624,13 @@
         <v>1.9862993257412</v>
       </c>
       <c r="AO50" s="89">
-        <v>8.6089152500625E-9</v>
+        <v>7.0076640212149E-9</v>
       </c>
       <c r="AP50" s="89">
         <v>1.9295956379046</v>
       </c>
       <c r="AQ50" s="89">
-        <v>8.3631530748328E-9</v>
+        <v>6.8076134105273E-9</v>
       </c>
       <c r="AR50" s="30"/>
       <c r="AS50" s="30"/>
@@ -7766,19 +7766,19 @@
         <v>0.2024689480292</v>
       </c>
       <c r="AM51" s="89">
-        <v>8.7753038616285E-10</v>
+        <v>7.1431044864701E-10</v>
       </c>
       <c r="AN51" s="89">
         <v>11.421211768437</v>
       </c>
       <c r="AO51" s="89">
-        <v>4.9501222143749E-8</v>
+        <v>4.0294035119047E-8</v>
       </c>
       <c r="AP51" s="89">
         <v>11.310117662897</v>
       </c>
       <c r="AQ51" s="89">
-        <v>4.9019723848411E-8</v>
+        <v>3.9902095114702E-8</v>
       </c>
       <c r="AR51" s="30"/>
       <c r="AS51" s="30"/>
@@ -7910,19 +7910,19 @@
         <v>0.16166568246372</v>
       </c>
       <c r="AM52" s="89">
-        <v>7.0068299431875E-10</v>
+        <v>5.7035652773199E-10</v>
       </c>
       <c r="AN52" s="89">
         <v>0.24254030530725</v>
       </c>
       <c r="AO52" s="89">
-        <v>1.0512055791668E-9</v>
+        <v>8.5568219712397E-10</v>
       </c>
       <c r="AP52" s="89">
         <v>0.40724931920111</v>
       </c>
       <c r="AQ52" s="89">
-        <v>1.7650788223169E-9</v>
+        <v>1.4367755981415E-9</v>
       </c>
       <c r="AR52" s="30"/>
       <c r="AS52" s="30"/>
